--- a/results/tables.xlsx
+++ b/results/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\3. PhD\WQE\WQE II\gmh_econ\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ACCE24-5AF9-4ACE-BAE6-CFC0BAC9465E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0022846-6480-48F1-AA9B-921AD11BE2F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="19005" windowHeight="13365" activeTab="1" xr2:uid="{09EDDA4F-F879-48C5-871F-ACF535CF1A26}"/>
+    <workbookView xWindow="8820" yWindow="2100" windowWidth="19005" windowHeight="13365" activeTab="1" xr2:uid="{09EDDA4F-F879-48C5-871F-ACF535CF1A26}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
@@ -199,12 +199,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,6 +209,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -298,7 +298,7 @@
             <v>0.16</v>
           </cell>
           <cell r="D3">
-            <v>0.22</v>
+            <v>0.21</v>
           </cell>
         </row>
         <row r="4">
@@ -309,7 +309,7 @@
             <v>0.79</v>
           </cell>
           <cell r="D4">
-            <v>1.1200000000000001</v>
+            <v>1.06</v>
           </cell>
         </row>
         <row r="5">
@@ -320,7 +320,7 @@
             <v>1.8</v>
           </cell>
           <cell r="D5">
-            <v>2.54</v>
+            <v>2.41</v>
           </cell>
         </row>
         <row r="6">
@@ -331,7 +331,7 @@
             <v>5.4</v>
           </cell>
           <cell r="D6">
-            <v>7.63</v>
+            <v>7.23</v>
           </cell>
         </row>
       </sheetData>
@@ -344,52 +344,52 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table2_upper"/>
+      <sheetName val="table2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="B3">
-            <v>0.16</v>
+            <v>0.13</v>
           </cell>
           <cell r="C3">
-            <v>0.47</v>
+            <v>0.3</v>
           </cell>
           <cell r="D3">
-            <v>0.51</v>
+            <v>0.36</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.82</v>
+            <v>0.63</v>
           </cell>
           <cell r="C4">
-            <v>2.34</v>
+            <v>1.5</v>
           </cell>
           <cell r="D4">
-            <v>2.5299999999999998</v>
+            <v>1.79</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>1.85</v>
+            <v>1.42</v>
           </cell>
           <cell r="C5">
-            <v>5.32</v>
+            <v>3.41</v>
           </cell>
           <cell r="D5">
-            <v>5.74</v>
+            <v>4.07</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>5.55</v>
+            <v>4.2699999999999996</v>
           </cell>
           <cell r="C6">
-            <v>15.95</v>
+            <v>10.24</v>
           </cell>
           <cell r="D6">
-            <v>17.21</v>
+            <v>12.2</v>
           </cell>
         </row>
       </sheetData>
@@ -402,52 +402,52 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table2"/>
+      <sheetName val="table2_upper"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="B3">
-            <v>0.13</v>
+            <v>0.16</v>
           </cell>
           <cell r="C3">
-            <v>0.3</v>
+            <v>0.47</v>
           </cell>
           <cell r="D3">
-            <v>0.36</v>
+            <v>0.52</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.63</v>
+            <v>0.82</v>
           </cell>
           <cell r="C4">
-            <v>1.5</v>
+            <v>2.34</v>
           </cell>
           <cell r="D4">
-            <v>1.79</v>
+            <v>2.6</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>1.42</v>
+            <v>1.85</v>
           </cell>
           <cell r="C5">
-            <v>3.41</v>
+            <v>5.32</v>
           </cell>
           <cell r="D5">
-            <v>4.07</v>
+            <v>5.91</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>4.2699999999999996</v>
+            <v>5.55</v>
           </cell>
           <cell r="C6">
-            <v>10.24</v>
+            <v>15.95</v>
           </cell>
           <cell r="D6">
-            <v>12.2</v>
+            <v>17.73</v>
           </cell>
         </row>
       </sheetData>
@@ -460,104 +460,32 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_income"/>
+      <sheetName val="table1_global_lower"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="C2">
+            <v>92.995000000000005</v>
+          </cell>
           <cell r="D2">
-            <v>24.52</v>
-          </cell>
-          <cell r="E2">
-            <v>6.68</v>
+            <v>4.07</v>
           </cell>
         </row>
         <row r="3">
+          <cell r="C3">
+            <v>158.57</v>
+          </cell>
           <cell r="D3">
-            <v>45.645000000000003</v>
-          </cell>
-          <cell r="E3">
-            <v>5.57</v>
+            <v>6.94</v>
           </cell>
         </row>
         <row r="4">
+          <cell r="C4">
+            <v>212.29499999999999</v>
+          </cell>
           <cell r="D4">
-            <v>44.924999999999997</v>
-          </cell>
-          <cell r="E4">
-            <v>4.28</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>10.146000000000001</v>
-          </cell>
-          <cell r="E5">
-            <v>3.36</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>66.054000000000002</v>
-          </cell>
-          <cell r="E7">
-            <v>17.989999999999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>110.012</v>
-          </cell>
-          <cell r="E8">
-            <v>13.43</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>105.06699999999999</v>
-          </cell>
-          <cell r="E9">
-            <v>10.02</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>19.427</v>
-          </cell>
-          <cell r="E10">
-            <v>6.44</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>66.816000000000003</v>
-          </cell>
-          <cell r="E12">
-            <v>18.2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>124.20099999999999</v>
-          </cell>
-          <cell r="E13">
-            <v>15.16</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>132.161</v>
-          </cell>
-          <cell r="E14">
-            <v>12.6</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>31.835000000000001</v>
-          </cell>
-          <cell r="E15">
-            <v>10.55</v>
+            <v>9.2899999999999991</v>
           </cell>
         </row>
       </sheetData>
@@ -570,143 +498,32 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_region"/>
+      <sheetName val="table1_global_upper"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2" t="str">
-            <v>Europe</v>
+          <cell r="C2">
+            <v>163.178</v>
           </cell>
           <cell r="D2">
-            <v>14.439</v>
-          </cell>
-          <cell r="E2">
-            <v>5.69</v>
+            <v>5.81</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3" t="str">
-            <v>Asia</v>
+          <cell r="C3">
+            <v>468.55</v>
           </cell>
           <cell r="D3">
-            <v>70.012</v>
-          </cell>
-          <cell r="E3">
-            <v>5.04</v>
+            <v>16.670000000000002</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="B4" t="str">
-            <v>Oceania</v>
+          <cell r="C4">
+            <v>520.76400000000001</v>
           </cell>
           <cell r="D4">
-            <v>0.877</v>
-          </cell>
-          <cell r="E4">
-            <v>6.81</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Americas</v>
-          </cell>
-          <cell r="D5">
-            <v>20.359000000000002</v>
-          </cell>
-          <cell r="E5">
-            <v>6.68</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Africa</v>
-          </cell>
-          <cell r="D6">
-            <v>19.547999999999998</v>
-          </cell>
-          <cell r="E6">
-            <v>3.4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>39.512999999999998</v>
-          </cell>
-          <cell r="E7">
-            <v>15.56</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>172.024</v>
-          </cell>
-          <cell r="E8">
-            <v>12.37</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1.94</v>
-          </cell>
-          <cell r="E9">
-            <v>15.06</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>48.06</v>
-          </cell>
-          <cell r="E10">
-            <v>15.77</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>39.023000000000003</v>
-          </cell>
-          <cell r="E11">
-            <v>6.79</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>41.031999999999996</v>
-          </cell>
-          <cell r="E12">
-            <v>16.16</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>197.46899999999999</v>
-          </cell>
-          <cell r="E13">
-            <v>14.21</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>2.1619999999999999</v>
-          </cell>
-          <cell r="E14">
-            <v>16.78</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>54.113999999999997</v>
-          </cell>
-          <cell r="E15">
-            <v>17.760000000000002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>60.235999999999997</v>
-          </cell>
-          <cell r="E16">
-            <v>10.48</v>
+            <v>18.53</v>
           </cell>
         </row>
       </sheetData>
@@ -719,32 +536,104 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_global_lower"/>
+      <sheetName val="table1_income"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="C2">
-            <v>92.995000000000005</v>
-          </cell>
           <cell r="D2">
-            <v>4.07</v>
+            <v>24.52</v>
+          </cell>
+          <cell r="E2">
+            <v>6.68</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="C3">
-            <v>158.57</v>
-          </cell>
           <cell r="D3">
-            <v>6.94</v>
+            <v>45.645000000000003</v>
+          </cell>
+          <cell r="E3">
+            <v>5.57</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="C4">
-            <v>224.196</v>
-          </cell>
           <cell r="D4">
-            <v>9.81</v>
+            <v>44.924999999999997</v>
+          </cell>
+          <cell r="E4">
+            <v>4.28</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>10.146000000000001</v>
+          </cell>
+          <cell r="E5">
+            <v>3.36</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>66.054000000000002</v>
+          </cell>
+          <cell r="E7">
+            <v>17.989999999999998</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>110.012</v>
+          </cell>
+          <cell r="E8">
+            <v>13.43</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>105.06699999999999</v>
+          </cell>
+          <cell r="E9">
+            <v>10.02</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>19.427</v>
+          </cell>
+          <cell r="E10">
+            <v>6.44</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>66.816000000000003</v>
+          </cell>
+          <cell r="E12">
+            <v>18.2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>124.20099999999999</v>
+          </cell>
+          <cell r="E13">
+            <v>15.16</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>132.161</v>
+          </cell>
+          <cell r="E14">
+            <v>12.6</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>31.835000000000001</v>
+          </cell>
+          <cell r="E15">
+            <v>10.55</v>
           </cell>
         </row>
       </sheetData>
@@ -757,32 +646,104 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_global_upper"/>
+      <sheetName val="table1_income_lower"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="C2">
-            <v>163.178</v>
-          </cell>
           <cell r="D2">
-            <v>5.81</v>
+            <v>18.146000000000001</v>
+          </cell>
+          <cell r="E2">
+            <v>5.67</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="C3">
-            <v>468.55</v>
-          </cell>
           <cell r="D3">
-            <v>16.670000000000002</v>
+            <v>33.823999999999998</v>
+          </cell>
+          <cell r="E3">
+            <v>4.74</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="C4">
-            <v>505.64800000000002</v>
-          </cell>
           <cell r="D4">
-            <v>17.989999999999998</v>
+            <v>33</v>
+          </cell>
+          <cell r="E4">
+            <v>3.59</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>7.3680000000000003</v>
+          </cell>
+          <cell r="E5">
+            <v>2.85</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>32.859000000000002</v>
+          </cell>
+          <cell r="E7">
+            <v>10.26</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>54.555</v>
+          </cell>
+          <cell r="E8">
+            <v>7.64</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>55.308</v>
+          </cell>
+          <cell r="E9">
+            <v>6.02</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>10.48</v>
+          </cell>
+          <cell r="E10">
+            <v>4.05</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>36.39</v>
+          </cell>
+          <cell r="E12">
+            <v>11.37</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>68.236999999999995</v>
+          </cell>
+          <cell r="E13">
+            <v>9.56</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>76.222999999999999</v>
+          </cell>
+          <cell r="E14">
+            <v>8.3000000000000007</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>19.614000000000001</v>
+          </cell>
+          <cell r="E15">
+            <v>7.59</v>
           </cell>
         </row>
       </sheetData>
@@ -795,104 +756,104 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_income_lower"/>
+      <sheetName val="table1_income_upper"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>18.146000000000001</v>
+            <v>32.036000000000001</v>
           </cell>
           <cell r="E2">
-            <v>5.67</v>
+            <v>7.63</v>
           </cell>
         </row>
         <row r="3">
           <cell r="D3">
-            <v>33.823999999999998</v>
+            <v>59.694000000000003</v>
           </cell>
           <cell r="E3">
-            <v>4.74</v>
+            <v>6.4</v>
           </cell>
         </row>
         <row r="4">
           <cell r="D4">
-            <v>33</v>
+            <v>58.929000000000002</v>
           </cell>
           <cell r="E4">
-            <v>3.59</v>
+            <v>4.93</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>7.3680000000000003</v>
+            <v>13.468</v>
           </cell>
           <cell r="E5">
-            <v>2.85</v>
+            <v>3.82</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>32.859000000000002</v>
+            <v>105.119</v>
           </cell>
           <cell r="E7">
-            <v>10.26</v>
+            <v>25.05</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>54.555</v>
+            <v>177.09700000000001</v>
           </cell>
           <cell r="E8">
-            <v>7.64</v>
+            <v>18.98</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>55.308</v>
+            <v>165.34200000000001</v>
           </cell>
           <cell r="E9">
-            <v>6.02</v>
+            <v>13.83</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
-            <v>10.48</v>
+            <v>30.821000000000002</v>
           </cell>
           <cell r="E10">
-            <v>4.05</v>
+            <v>8.74</v>
           </cell>
         </row>
         <row r="12">
           <cell r="D12">
-            <v>38.052</v>
+            <v>98.707999999999998</v>
           </cell>
           <cell r="E12">
-            <v>11.88</v>
+            <v>23.52</v>
           </cell>
         </row>
         <row r="13">
           <cell r="D13">
-            <v>71.590999999999994</v>
+            <v>186.78399999999999</v>
           </cell>
           <cell r="E13">
-            <v>10.029999999999999</v>
+            <v>20.02</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>81.957999999999998</v>
+            <v>197.64400000000001</v>
           </cell>
           <cell r="E14">
-            <v>8.92</v>
+            <v>16.53</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
-            <v>21.367000000000001</v>
+            <v>47.482999999999997</v>
           </cell>
           <cell r="E15">
-            <v>8.27</v>
+            <v>13.47</v>
           </cell>
         </row>
       </sheetData>
@@ -905,104 +866,143 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_income_upper"/>
+      <sheetName val="table1_region"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="B2" t="str">
+            <v>Europe</v>
+          </cell>
           <cell r="D2">
-            <v>32.036000000000001</v>
+            <v>14.439</v>
           </cell>
           <cell r="E2">
-            <v>7.63</v>
+            <v>5.69</v>
           </cell>
         </row>
         <row r="3">
+          <cell r="B3" t="str">
+            <v>Asia</v>
+          </cell>
           <cell r="D3">
-            <v>59.694000000000003</v>
+            <v>70.012</v>
           </cell>
           <cell r="E3">
-            <v>6.4</v>
+            <v>5.04</v>
           </cell>
         </row>
         <row r="4">
+          <cell r="B4" t="str">
+            <v>Oceania</v>
+          </cell>
           <cell r="D4">
-            <v>58.929000000000002</v>
+            <v>0.877</v>
           </cell>
           <cell r="E4">
-            <v>4.93</v>
+            <v>6.81</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="B5" t="str">
+            <v>Americas</v>
+          </cell>
           <cell r="D5">
-            <v>13.468</v>
+            <v>20.359000000000002</v>
           </cell>
           <cell r="E5">
-            <v>3.82</v>
+            <v>6.68</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Africa</v>
+          </cell>
+          <cell r="D6">
+            <v>19.547999999999998</v>
+          </cell>
+          <cell r="E6">
+            <v>3.4</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>105.119</v>
+            <v>39.512999999999998</v>
           </cell>
           <cell r="E7">
-            <v>25.05</v>
+            <v>15.56</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>177.09700000000001</v>
+            <v>172.024</v>
           </cell>
           <cell r="E8">
-            <v>18.98</v>
+            <v>12.37</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>165.34200000000001</v>
+            <v>1.94</v>
           </cell>
           <cell r="E9">
-            <v>13.83</v>
+            <v>15.06</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
-            <v>30.821000000000002</v>
+            <v>48.06</v>
           </cell>
           <cell r="E10">
-            <v>8.74</v>
+            <v>15.77</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>39.023000000000003</v>
+          </cell>
+          <cell r="E11">
+            <v>6.79</v>
           </cell>
         </row>
         <row r="12">
           <cell r="D12">
-            <v>96.66</v>
+            <v>41.031999999999996</v>
           </cell>
           <cell r="E12">
-            <v>23.03</v>
+            <v>16.16</v>
           </cell>
         </row>
         <row r="13">
           <cell r="D13">
-            <v>182.03700000000001</v>
+            <v>197.46899999999999</v>
           </cell>
           <cell r="E13">
-            <v>19.510000000000002</v>
+            <v>14.21</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>189.857</v>
+            <v>2.1619999999999999</v>
           </cell>
           <cell r="E14">
-            <v>15.87</v>
+            <v>16.78</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
-            <v>44.71</v>
+            <v>54.113999999999997</v>
           </cell>
           <cell r="E15">
-            <v>12.68</v>
+            <v>17.760000000000002</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>60.235999999999997</v>
+          </cell>
+          <cell r="E16">
+            <v>10.48</v>
           </cell>
         </row>
       </sheetData>
@@ -1015,128 +1015,128 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_region_upper"/>
+      <sheetName val="table1_region_lower"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>18.937000000000001</v>
+            <v>10.643000000000001</v>
           </cell>
           <cell r="E2">
-            <v>6.52</v>
+            <v>4.8</v>
           </cell>
         </row>
         <row r="3">
           <cell r="D3">
-            <v>91.448999999999998</v>
+            <v>51.761000000000003</v>
           </cell>
           <cell r="E3">
-            <v>5.79</v>
+            <v>4.25</v>
           </cell>
         </row>
         <row r="4">
           <cell r="D4">
-            <v>1.153</v>
+            <v>0.64500000000000002</v>
           </cell>
           <cell r="E4">
-            <v>7.6</v>
+            <v>5.9</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>26.640999999999998</v>
+            <v>15.061</v>
           </cell>
           <cell r="E5">
-            <v>7.65</v>
+            <v>5.66</v>
           </cell>
         </row>
         <row r="6">
           <cell r="D6">
-            <v>25.948</v>
+            <v>14.228</v>
           </cell>
           <cell r="E6">
-            <v>3.89</v>
+            <v>2.87</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>63.347999999999999</v>
+            <v>20.509</v>
           </cell>
           <cell r="E7">
-            <v>21.82</v>
+            <v>9.25</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>273.88600000000002</v>
+            <v>87.001999999999995</v>
           </cell>
           <cell r="E8">
-            <v>17.329999999999998</v>
+            <v>7.15</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>3.0329999999999999</v>
+            <v>1.028</v>
           </cell>
           <cell r="E9">
-            <v>19.98</v>
+            <v>9.4</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
-            <v>75.671999999999997</v>
+            <v>24.084</v>
           </cell>
           <cell r="E10">
-            <v>21.74</v>
+            <v>9.0399999999999991</v>
           </cell>
         </row>
         <row r="11">
           <cell r="D11">
-            <v>62.441000000000003</v>
+            <v>20.579000000000001</v>
           </cell>
           <cell r="E11">
-            <v>9.36</v>
+            <v>4.16</v>
           </cell>
         </row>
         <row r="12">
           <cell r="D12">
-            <v>59.427999999999997</v>
+            <v>23.170999999999999</v>
           </cell>
           <cell r="E12">
-            <v>20.47</v>
+            <v>10.45</v>
           </cell>
         </row>
         <row r="13">
           <cell r="D13">
-            <v>287.38499999999999</v>
+            <v>109.18</v>
           </cell>
           <cell r="E13">
-            <v>18.190000000000001</v>
+            <v>8.9700000000000006</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>3.0950000000000002</v>
+            <v>1.242</v>
           </cell>
           <cell r="E14">
-            <v>20.399999999999999</v>
+            <v>11.36</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
-            <v>77.786000000000001</v>
+            <v>30.268000000000001</v>
           </cell>
           <cell r="E15">
-            <v>22.35</v>
+            <v>11.37</v>
           </cell>
         </row>
         <row r="16">
           <cell r="D16">
-            <v>85.570999999999998</v>
+            <v>36.603000000000002</v>
           </cell>
           <cell r="E16">
-            <v>12.82</v>
+            <v>7.39</v>
           </cell>
         </row>
       </sheetData>
@@ -1149,128 +1149,128 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_region_lower"/>
+      <sheetName val="table1_region_upper"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="D2">
-            <v>10.643000000000001</v>
+            <v>18.937000000000001</v>
           </cell>
           <cell r="E2">
-            <v>4.8</v>
+            <v>6.52</v>
           </cell>
         </row>
         <row r="3">
           <cell r="D3">
-            <v>51.761000000000003</v>
+            <v>91.448999999999998</v>
           </cell>
           <cell r="E3">
-            <v>4.25</v>
+            <v>5.79</v>
           </cell>
         </row>
         <row r="4">
           <cell r="D4">
-            <v>0.64500000000000002</v>
+            <v>1.153</v>
           </cell>
           <cell r="E4">
-            <v>5.9</v>
+            <v>7.6</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>15.061</v>
+            <v>26.640999999999998</v>
           </cell>
           <cell r="E5">
-            <v>5.66</v>
+            <v>7.65</v>
           </cell>
         </row>
         <row r="6">
           <cell r="D6">
-            <v>14.228</v>
+            <v>25.948</v>
           </cell>
           <cell r="E6">
-            <v>2.87</v>
+            <v>3.89</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>20.509</v>
+            <v>63.347999999999999</v>
           </cell>
           <cell r="E7">
-            <v>9.25</v>
+            <v>21.82</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>87.001999999999995</v>
+            <v>273.88600000000002</v>
           </cell>
           <cell r="E8">
-            <v>7.15</v>
+            <v>17.329999999999998</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>1.028</v>
+            <v>3.0329999999999999</v>
           </cell>
           <cell r="E9">
-            <v>9.4</v>
+            <v>19.98</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
-            <v>24.084</v>
+            <v>75.671999999999997</v>
           </cell>
           <cell r="E10">
-            <v>9.0399999999999991</v>
+            <v>21.74</v>
           </cell>
         </row>
         <row r="11">
           <cell r="D11">
-            <v>20.579000000000001</v>
+            <v>62.441000000000003</v>
           </cell>
           <cell r="E11">
-            <v>4.16</v>
+            <v>9.36</v>
           </cell>
         </row>
         <row r="12">
           <cell r="D12">
-            <v>24.35</v>
+            <v>60.942999999999998</v>
           </cell>
           <cell r="E12">
-            <v>10.98</v>
+            <v>20.99</v>
           </cell>
         </row>
         <row r="13">
           <cell r="D13">
-            <v>116.044</v>
+            <v>296.53699999999998</v>
           </cell>
           <cell r="E13">
-            <v>9.5399999999999991</v>
+            <v>18.77</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>1.3069999999999999</v>
+            <v>3.1920000000000002</v>
           </cell>
           <cell r="E14">
-            <v>11.95</v>
+            <v>21.03</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
-            <v>31.754000000000001</v>
+            <v>79.807000000000002</v>
           </cell>
           <cell r="E15">
-            <v>11.93</v>
+            <v>22.93</v>
           </cell>
         </row>
         <row r="16">
           <cell r="D16">
-            <v>39.512999999999998</v>
+            <v>90.141999999999996</v>
           </cell>
           <cell r="E16">
-            <v>7.98</v>
+            <v>13.51</v>
           </cell>
         </row>
       </sheetData>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9EF483-04C1-4FD9-B6B8-F8A403B1D01C}">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:X15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X15" sqref="B4:X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,8 +1587,8 @@
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="1" customWidth="1"/>
-    <col min="6" max="8" width="8.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="1" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="1" style="4" customWidth="1"/>
     <col min="10" max="12" width="8.42578125" customWidth="1"/>
     <col min="13" max="13" width="1" customWidth="1"/>
     <col min="14" max="16" width="8.42578125" customWidth="1"/>
@@ -1598,127 +1598,127 @@
     <col min="22" max="24" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="5" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:24" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1731,23 +1731,23 @@
         <v>125.31100000000001</v>
       </c>
       <c r="C4">
-        <f>[4]table1_global_lower!$C$2</f>
+        <f>[2]table1_global_lower!$C$2</f>
         <v>92.995000000000005</v>
       </c>
       <c r="D4">
-        <f>[5]table1_global_upper!$C$2</f>
+        <f>[3]table1_global_upper!$C$2</f>
         <v>163.178</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <f>[1]table1_global!$D$2</f>
         <v>4.9400000000000004</v>
       </c>
-      <c r="G4" s="6">
-        <f>[4]table1_global_lower!$D$2</f>
+      <c r="G4" s="4">
+        <f>[2]table1_global_lower!$D$2</f>
         <v>4.07</v>
       </c>
-      <c r="H4" s="6">
-        <f>[5]table1_global_upper!$D$2</f>
+      <c r="H4" s="4">
+        <f>[3]table1_global_upper!$D$2</f>
         <v>5.81</v>
       </c>
       <c r="J4">
@@ -1755,11 +1755,11 @@
         <v>300.72699999999998</v>
       </c>
       <c r="K4">
-        <f>[4]table1_global_lower!$C$3</f>
+        <f>[2]table1_global_lower!$C$3</f>
         <v>158.57</v>
       </c>
       <c r="L4">
-        <f>[5]table1_global_upper!$C$3</f>
+        <f>[3]table1_global_upper!$C$3</f>
         <v>468.55</v>
       </c>
       <c r="N4">
@@ -1767,11 +1767,11 @@
         <v>11.85</v>
       </c>
       <c r="O4">
-        <f>[4]table1_global_lower!$D$3</f>
+        <f>[2]table1_global_lower!$D$3</f>
         <v>6.94</v>
       </c>
       <c r="P4">
-        <f>[5]table1_global_upper!$D$3</f>
+        <f>[3]table1_global_upper!$D$3</f>
         <v>16.670000000000002</v>
       </c>
       <c r="R4">
@@ -1779,24 +1779,24 @@
         <v>358.46600000000001</v>
       </c>
       <c r="S4">
-        <f>[4]table1_global_lower!$C$4</f>
-        <v>224.196</v>
+        <f>[2]table1_global_lower!$C$4</f>
+        <v>212.29499999999999</v>
       </c>
       <c r="T4">
-        <f>[5]table1_global_upper!$C$4</f>
-        <v>505.64800000000002</v>
+        <f>[3]table1_global_upper!$C$4</f>
+        <v>520.76400000000001</v>
       </c>
       <c r="V4">
         <f>[1]table1_global!$D$4</f>
         <v>14.12</v>
       </c>
       <c r="W4">
-        <f>[4]table1_global_lower!$D$4</f>
-        <v>9.81</v>
+        <f>[2]table1_global_lower!$D$4</f>
+        <v>9.2899999999999991</v>
       </c>
       <c r="X4">
-        <f>[5]table1_global_upper!$D$4</f>
-        <v>17.989999999999998</v>
+        <f>[3]table1_global_upper!$D$4</f>
+        <v>18.53</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1804,76 +1804,76 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>[2]table1_income!D2</f>
+        <f>[4]table1_income!D2</f>
         <v>24.52</v>
       </c>
       <c r="C6">
-        <f>[6]table1_income_lower!D2</f>
+        <f>[5]table1_income_lower!D2</f>
         <v>18.146000000000001</v>
       </c>
       <c r="D6">
-        <f>[7]table1_income_upper!D2</f>
+        <f>[6]table1_income_upper!D2</f>
         <v>32.036000000000001</v>
       </c>
-      <c r="F6" s="6">
-        <f>[2]table1_income!E2</f>
+      <c r="F6" s="4">
+        <f>[4]table1_income!E2</f>
         <v>6.68</v>
       </c>
-      <c r="G6" s="6">
-        <f>[6]table1_income_lower!E2</f>
+      <c r="G6" s="4">
+        <f>[5]table1_income_lower!E2</f>
         <v>5.67</v>
       </c>
-      <c r="H6" s="6">
-        <f>[7]table1_income_upper!E2</f>
+      <c r="H6" s="4">
+        <f>[6]table1_income_upper!E2</f>
         <v>7.63</v>
       </c>
       <c r="J6">
-        <f>[2]table1_income!D7</f>
+        <f>[4]table1_income!D7</f>
         <v>66.054000000000002</v>
       </c>
       <c r="K6">
-        <f>[6]table1_income_lower!D7</f>
+        <f>[5]table1_income_lower!D7</f>
         <v>32.859000000000002</v>
       </c>
       <c r="L6">
-        <f>[7]table1_income_upper!D7</f>
+        <f>[6]table1_income_upper!D7</f>
         <v>105.119</v>
       </c>
       <c r="N6">
-        <f>[2]table1_income!E7</f>
+        <f>[4]table1_income!E7</f>
         <v>17.989999999999998</v>
       </c>
       <c r="O6">
-        <f>[6]table1_income_lower!E7</f>
+        <f>[5]table1_income_lower!E7</f>
         <v>10.26</v>
       </c>
       <c r="P6">
-        <f>[7]table1_income_upper!E7</f>
+        <f>[6]table1_income_upper!E7</f>
         <v>25.05</v>
       </c>
       <c r="R6">
-        <f>[2]table1_income!D12</f>
+        <f>[4]table1_income!D12</f>
         <v>66.816000000000003</v>
       </c>
       <c r="S6">
-        <f>[6]table1_income_lower!D12</f>
-        <v>38.052</v>
+        <f>[5]table1_income_lower!D12</f>
+        <v>36.39</v>
       </c>
       <c r="T6">
-        <f>[7]table1_income_upper!D12</f>
-        <v>96.66</v>
+        <f>[6]table1_income_upper!D12</f>
+        <v>98.707999999999998</v>
       </c>
       <c r="V6">
-        <f>[2]table1_income!E12</f>
+        <f>[4]table1_income!E12</f>
         <v>18.2</v>
       </c>
       <c r="W6">
-        <f>[6]table1_income_lower!E12</f>
-        <v>11.88</v>
+        <f>[5]table1_income_lower!E12</f>
+        <v>11.37</v>
       </c>
       <c r="X6">
-        <f>[7]table1_income_upper!E12</f>
-        <v>23.03</v>
+        <f>[6]table1_income_upper!E12</f>
+        <v>23.52</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1881,76 +1881,76 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>[2]table1_income!D3</f>
+        <f>[4]table1_income!D3</f>
         <v>45.645000000000003</v>
       </c>
       <c r="C7">
-        <f>[6]table1_income_lower!D3</f>
+        <f>[5]table1_income_lower!D3</f>
         <v>33.823999999999998</v>
       </c>
       <c r="D7">
-        <f>[7]table1_income_upper!D3</f>
+        <f>[6]table1_income_upper!D3</f>
         <v>59.694000000000003</v>
       </c>
-      <c r="F7" s="6">
-        <f>[2]table1_income!E3</f>
+      <c r="F7" s="4">
+        <f>[4]table1_income!E3</f>
         <v>5.57</v>
       </c>
-      <c r="G7" s="6">
-        <f>[6]table1_income_lower!E3</f>
+      <c r="G7" s="4">
+        <f>[5]table1_income_lower!E3</f>
         <v>4.74</v>
       </c>
-      <c r="H7" s="6">
-        <f>[7]table1_income_upper!E3</f>
+      <c r="H7" s="4">
+        <f>[6]table1_income_upper!E3</f>
         <v>6.4</v>
       </c>
       <c r="J7">
-        <f>[2]table1_income!D8</f>
+        <f>[4]table1_income!D8</f>
         <v>110.012</v>
       </c>
       <c r="K7">
-        <f>[6]table1_income_lower!D8</f>
+        <f>[5]table1_income_lower!D8</f>
         <v>54.555</v>
       </c>
       <c r="L7">
-        <f>[7]table1_income_upper!D8</f>
+        <f>[6]table1_income_upper!D8</f>
         <v>177.09700000000001</v>
       </c>
       <c r="N7">
-        <f>[2]table1_income!E8</f>
+        <f>[4]table1_income!E8</f>
         <v>13.43</v>
       </c>
       <c r="O7">
-        <f>[6]table1_income_lower!E8</f>
+        <f>[5]table1_income_lower!E8</f>
         <v>7.64</v>
       </c>
       <c r="P7">
-        <f>[7]table1_income_upper!E8</f>
+        <f>[6]table1_income_upper!E8</f>
         <v>18.98</v>
       </c>
       <c r="R7">
-        <f>[2]table1_income!D13</f>
+        <f>[4]table1_income!D13</f>
         <v>124.20099999999999</v>
       </c>
       <c r="S7">
-        <f>[6]table1_income_lower!D13</f>
-        <v>71.590999999999994</v>
+        <f>[5]table1_income_lower!D13</f>
+        <v>68.236999999999995</v>
       </c>
       <c r="T7">
-        <f>[7]table1_income_upper!D13</f>
-        <v>182.03700000000001</v>
+        <f>[6]table1_income_upper!D13</f>
+        <v>186.78399999999999</v>
       </c>
       <c r="V7">
-        <f>[2]table1_income!E13</f>
+        <f>[4]table1_income!E13</f>
         <v>15.16</v>
       </c>
       <c r="W7">
-        <f>[6]table1_income_lower!E13</f>
-        <v>10.029999999999999</v>
+        <f>[5]table1_income_lower!E13</f>
+        <v>9.56</v>
       </c>
       <c r="X7">
-        <f>[7]table1_income_upper!E13</f>
-        <v>19.510000000000002</v>
+        <f>[6]table1_income_upper!E13</f>
+        <v>20.02</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1958,76 +1958,76 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>[2]table1_income!D4</f>
+        <f>[4]table1_income!D4</f>
         <v>44.924999999999997</v>
       </c>
       <c r="C8">
-        <f>[6]table1_income_lower!D4</f>
+        <f>[5]table1_income_lower!D4</f>
         <v>33</v>
       </c>
       <c r="D8">
-        <f>[7]table1_income_upper!D4</f>
+        <f>[6]table1_income_upper!D4</f>
         <v>58.929000000000002</v>
       </c>
-      <c r="F8" s="6">
-        <f>[2]table1_income!E4</f>
+      <c r="F8" s="4">
+        <f>[4]table1_income!E4</f>
         <v>4.28</v>
       </c>
-      <c r="G8" s="6">
-        <f>[6]table1_income_lower!E4</f>
+      <c r="G8" s="4">
+        <f>[5]table1_income_lower!E4</f>
         <v>3.59</v>
       </c>
-      <c r="H8" s="6">
-        <f>[7]table1_income_upper!E4</f>
+      <c r="H8" s="4">
+        <f>[6]table1_income_upper!E4</f>
         <v>4.93</v>
       </c>
       <c r="J8">
-        <f>[2]table1_income!D9</f>
+        <f>[4]table1_income!D9</f>
         <v>105.06699999999999</v>
       </c>
       <c r="K8">
-        <f>[6]table1_income_lower!D9</f>
+        <f>[5]table1_income_lower!D9</f>
         <v>55.308</v>
       </c>
       <c r="L8">
-        <f>[7]table1_income_upper!D9</f>
+        <f>[6]table1_income_upper!D9</f>
         <v>165.34200000000001</v>
       </c>
       <c r="N8">
-        <f>[2]table1_income!E9</f>
+        <f>[4]table1_income!E9</f>
         <v>10.02</v>
       </c>
       <c r="O8">
-        <f>[6]table1_income_lower!E9</f>
+        <f>[5]table1_income_lower!E9</f>
         <v>6.02</v>
       </c>
       <c r="P8">
-        <f>[7]table1_income_upper!E9</f>
+        <f>[6]table1_income_upper!E9</f>
         <v>13.83</v>
       </c>
       <c r="R8">
-        <f>[2]table1_income!D14</f>
+        <f>[4]table1_income!D14</f>
         <v>132.161</v>
       </c>
       <c r="S8">
-        <f>[6]table1_income_lower!D14</f>
-        <v>81.957999999999998</v>
+        <f>[5]table1_income_lower!D14</f>
+        <v>76.222999999999999</v>
       </c>
       <c r="T8">
-        <f>[7]table1_income_upper!D14</f>
-        <v>189.857</v>
+        <f>[6]table1_income_upper!D14</f>
+        <v>197.64400000000001</v>
       </c>
       <c r="V8">
-        <f>[2]table1_income!E14</f>
+        <f>[4]table1_income!E14</f>
         <v>12.6</v>
       </c>
       <c r="W8">
-        <f>[6]table1_income_lower!E14</f>
-        <v>8.92</v>
+        <f>[5]table1_income_lower!E14</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="X8">
-        <f>[7]table1_income_upper!E14</f>
-        <v>15.87</v>
+        <f>[6]table1_income_upper!E14</f>
+        <v>16.53</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -2035,76 +2035,76 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>[2]table1_income!D5</f>
+        <f>[4]table1_income!D5</f>
         <v>10.146000000000001</v>
       </c>
       <c r="C9">
-        <f>[6]table1_income_lower!D5</f>
+        <f>[5]table1_income_lower!D5</f>
         <v>7.3680000000000003</v>
       </c>
       <c r="D9">
-        <f>[7]table1_income_upper!D5</f>
+        <f>[6]table1_income_upper!D5</f>
         <v>13.468</v>
       </c>
-      <c r="F9" s="6">
-        <f>[2]table1_income!E5</f>
+      <c r="F9" s="4">
+        <f>[4]table1_income!E5</f>
         <v>3.36</v>
       </c>
-      <c r="G9" s="6">
-        <f>[6]table1_income_lower!E5</f>
+      <c r="G9" s="4">
+        <f>[5]table1_income_lower!E5</f>
         <v>2.85</v>
       </c>
-      <c r="H9" s="6">
-        <f>[7]table1_income_upper!E5</f>
+      <c r="H9" s="4">
+        <f>[6]table1_income_upper!E5</f>
         <v>3.82</v>
       </c>
       <c r="J9">
-        <f>[2]table1_income!D10</f>
+        <f>[4]table1_income!D10</f>
         <v>19.427</v>
       </c>
       <c r="K9">
-        <f>[6]table1_income_lower!D10</f>
+        <f>[5]table1_income_lower!D10</f>
         <v>10.48</v>
       </c>
       <c r="L9">
-        <f>[7]table1_income_upper!D10</f>
+        <f>[6]table1_income_upper!D10</f>
         <v>30.821000000000002</v>
       </c>
       <c r="N9">
-        <f>[2]table1_income!E10</f>
+        <f>[4]table1_income!E10</f>
         <v>6.44</v>
       </c>
       <c r="O9">
-        <f>[6]table1_income_lower!E10</f>
+        <f>[5]table1_income_lower!E10</f>
         <v>4.05</v>
       </c>
       <c r="P9">
-        <f>[7]table1_income_upper!E10</f>
+        <f>[6]table1_income_upper!E10</f>
         <v>8.74</v>
       </c>
       <c r="R9">
-        <f>[2]table1_income!D15</f>
+        <f>[4]table1_income!D15</f>
         <v>31.835000000000001</v>
       </c>
       <c r="S9">
-        <f>[6]table1_income_lower!D15</f>
-        <v>21.367000000000001</v>
+        <f>[5]table1_income_lower!D15</f>
+        <v>19.614000000000001</v>
       </c>
       <c r="T9">
-        <f>[7]table1_income_upper!D15</f>
-        <v>44.71</v>
+        <f>[6]table1_income_upper!D15</f>
+        <v>47.482999999999997</v>
       </c>
       <c r="V9">
-        <f>[2]table1_income!E15</f>
+        <f>[4]table1_income!E15</f>
         <v>10.55</v>
       </c>
       <c r="W9">
-        <f>[6]table1_income_lower!E15</f>
-        <v>8.27</v>
+        <f>[5]table1_income_lower!E15</f>
+        <v>7.59</v>
       </c>
       <c r="X9">
-        <f>[7]table1_income_upper!E15</f>
-        <v>12.68</v>
+        <f>[6]table1_income_upper!E15</f>
+        <v>13.47</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -2112,405 +2112,405 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>[3]table1_region!B2</f>
+        <f>[7]table1_region!B2</f>
         <v>Europe</v>
       </c>
       <c r="B11">
-        <f>[3]table1_region!D2</f>
+        <f>[7]table1_region!D2</f>
         <v>14.439</v>
       </c>
       <c r="C11">
-        <f>[9]table1_region_lower!D2</f>
+        <f>[8]table1_region_lower!D2</f>
         <v>10.643000000000001</v>
       </c>
       <c r="D11">
-        <f>[8]table1_region_upper!D2</f>
+        <f>[9]table1_region_upper!D2</f>
         <v>18.937000000000001</v>
       </c>
-      <c r="F11" s="6">
-        <f>[3]table1_region!E2</f>
+      <c r="F11" s="4">
+        <f>[7]table1_region!E2</f>
         <v>5.69</v>
       </c>
-      <c r="G11" s="6">
-        <f>[9]table1_region_lower!E2</f>
+      <c r="G11" s="4">
+        <f>[8]table1_region_lower!E2</f>
         <v>4.8</v>
       </c>
-      <c r="H11" s="6">
-        <f>[8]table1_region_upper!E2</f>
+      <c r="H11" s="4">
+        <f>[9]table1_region_upper!E2</f>
         <v>6.52</v>
       </c>
       <c r="J11">
-        <f>[3]table1_region!D7</f>
+        <f>[7]table1_region!D7</f>
         <v>39.512999999999998</v>
       </c>
-      <c r="K11" s="6">
-        <f>[9]table1_region_lower!D7</f>
+      <c r="K11" s="4">
+        <f>[8]table1_region_lower!D7</f>
         <v>20.509</v>
       </c>
       <c r="L11">
-        <f>[8]table1_region_upper!D7</f>
+        <f>[9]table1_region_upper!D7</f>
         <v>63.347999999999999</v>
       </c>
       <c r="N11">
-        <f>[3]table1_region!E7</f>
+        <f>[7]table1_region!E7</f>
         <v>15.56</v>
       </c>
       <c r="O11">
-        <f>[9]table1_region_lower!E7</f>
+        <f>[8]table1_region_lower!E7</f>
         <v>9.25</v>
       </c>
       <c r="P11">
-        <f>[8]table1_region_upper!E7</f>
+        <f>[9]table1_region_upper!E7</f>
         <v>21.82</v>
       </c>
       <c r="R11">
-        <f>[3]table1_region!D12</f>
+        <f>[7]table1_region!D12</f>
         <v>41.031999999999996</v>
       </c>
       <c r="S11">
-        <f>[9]table1_region_lower!D12</f>
-        <v>24.35</v>
+        <f>[8]table1_region_lower!D12</f>
+        <v>23.170999999999999</v>
       </c>
       <c r="T11">
-        <f>[8]table1_region_upper!D12</f>
-        <v>59.427999999999997</v>
+        <f>[9]table1_region_upper!D12</f>
+        <v>60.942999999999998</v>
       </c>
       <c r="V11">
-        <f>[3]table1_region!E12</f>
+        <f>[7]table1_region!E12</f>
         <v>16.16</v>
       </c>
       <c r="W11">
-        <f>[9]table1_region_lower!E12</f>
-        <v>10.98</v>
+        <f>[8]table1_region_lower!E12</f>
+        <v>10.45</v>
       </c>
       <c r="X11">
-        <f>[8]table1_region_upper!E12</f>
-        <v>20.47</v>
+        <f>[9]table1_region_upper!E12</f>
+        <v>20.99</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>[3]table1_region!B3</f>
+        <f>[7]table1_region!B3</f>
         <v>Asia</v>
       </c>
       <c r="B12">
-        <f>[3]table1_region!D3</f>
+        <f>[7]table1_region!D3</f>
         <v>70.012</v>
       </c>
       <c r="C12">
-        <f>[9]table1_region_lower!D3</f>
+        <f>[8]table1_region_lower!D3</f>
         <v>51.761000000000003</v>
       </c>
       <c r="D12">
-        <f>[8]table1_region_upper!D3</f>
+        <f>[9]table1_region_upper!D3</f>
         <v>91.448999999999998</v>
       </c>
-      <c r="F12" s="6">
-        <f>[3]table1_region!E3</f>
+      <c r="F12" s="4">
+        <f>[7]table1_region!E3</f>
         <v>5.04</v>
       </c>
-      <c r="G12" s="6">
-        <f>[9]table1_region_lower!E3</f>
+      <c r="G12" s="4">
+        <f>[8]table1_region_lower!E3</f>
         <v>4.25</v>
       </c>
-      <c r="H12" s="6">
-        <f>[8]table1_region_upper!E3</f>
+      <c r="H12" s="4">
+        <f>[9]table1_region_upper!E3</f>
         <v>5.79</v>
       </c>
       <c r="J12">
-        <f>[3]table1_region!D8</f>
+        <f>[7]table1_region!D8</f>
         <v>172.024</v>
       </c>
-      <c r="K12" s="6">
-        <f>[9]table1_region_lower!D8</f>
+      <c r="K12" s="4">
+        <f>[8]table1_region_lower!D8</f>
         <v>87.001999999999995</v>
       </c>
       <c r="L12">
-        <f>[8]table1_region_upper!D8</f>
+        <f>[9]table1_region_upper!D8</f>
         <v>273.88600000000002</v>
       </c>
       <c r="N12">
-        <f>[3]table1_region!E8</f>
+        <f>[7]table1_region!E8</f>
         <v>12.37</v>
       </c>
       <c r="O12">
-        <f>[9]table1_region_lower!E8</f>
+        <f>[8]table1_region_lower!E8</f>
         <v>7.15</v>
       </c>
       <c r="P12">
-        <f>[8]table1_region_upper!E8</f>
+        <f>[9]table1_region_upper!E8</f>
         <v>17.329999999999998</v>
       </c>
       <c r="R12">
-        <f>[3]table1_region!D13</f>
+        <f>[7]table1_region!D13</f>
         <v>197.46899999999999</v>
       </c>
       <c r="S12">
-        <f>[9]table1_region_lower!D13</f>
-        <v>116.044</v>
+        <f>[8]table1_region_lower!D13</f>
+        <v>109.18</v>
       </c>
       <c r="T12">
-        <f>[8]table1_region_upper!D13</f>
-        <v>287.38499999999999</v>
+        <f>[9]table1_region_upper!D13</f>
+        <v>296.53699999999998</v>
       </c>
       <c r="V12">
-        <f>[3]table1_region!E13</f>
+        <f>[7]table1_region!E13</f>
         <v>14.21</v>
       </c>
       <c r="W12">
-        <f>[9]table1_region_lower!E13</f>
-        <v>9.5399999999999991</v>
+        <f>[8]table1_region_lower!E13</f>
+        <v>8.9700000000000006</v>
       </c>
       <c r="X12">
-        <f>[8]table1_region_upper!E13</f>
-        <v>18.190000000000001</v>
+        <f>[9]table1_region_upper!E13</f>
+        <v>18.77</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>[3]table1_region!B4</f>
+        <f>[7]table1_region!B4</f>
         <v>Oceania</v>
       </c>
       <c r="B13">
-        <f>[3]table1_region!D4</f>
+        <f>[7]table1_region!D4</f>
         <v>0.877</v>
       </c>
       <c r="C13">
-        <f>[9]table1_region_lower!D4</f>
+        <f>[8]table1_region_lower!D4</f>
         <v>0.64500000000000002</v>
       </c>
       <c r="D13">
-        <f>[8]table1_region_upper!D4</f>
+        <f>[9]table1_region_upper!D4</f>
         <v>1.153</v>
       </c>
-      <c r="F13" s="6">
-        <f>[3]table1_region!E4</f>
+      <c r="F13" s="4">
+        <f>[7]table1_region!E4</f>
         <v>6.81</v>
       </c>
-      <c r="G13" s="6">
-        <f>[9]table1_region_lower!E4</f>
+      <c r="G13" s="4">
+        <f>[8]table1_region_lower!E4</f>
         <v>5.9</v>
       </c>
-      <c r="H13" s="6">
-        <f>[8]table1_region_upper!E4</f>
+      <c r="H13" s="4">
+        <f>[9]table1_region_upper!E4</f>
         <v>7.6</v>
       </c>
       <c r="J13">
-        <f>[3]table1_region!D9</f>
+        <f>[7]table1_region!D9</f>
         <v>1.94</v>
       </c>
-      <c r="K13" s="6">
-        <f>[9]table1_region_lower!D9</f>
+      <c r="K13" s="4">
+        <f>[8]table1_region_lower!D9</f>
         <v>1.028</v>
       </c>
       <c r="L13">
-        <f>[8]table1_region_upper!D9</f>
+        <f>[9]table1_region_upper!D9</f>
         <v>3.0329999999999999</v>
       </c>
       <c r="N13">
-        <f>[3]table1_region!E9</f>
+        <f>[7]table1_region!E9</f>
         <v>15.06</v>
       </c>
       <c r="O13">
-        <f>[9]table1_region_lower!E9</f>
+        <f>[8]table1_region_lower!E9</f>
         <v>9.4</v>
       </c>
       <c r="P13">
-        <f>[8]table1_region_upper!E9</f>
+        <f>[9]table1_region_upper!E9</f>
         <v>19.98</v>
       </c>
       <c r="R13">
-        <f>[3]table1_region!D14</f>
+        <f>[7]table1_region!D14</f>
         <v>2.1619999999999999</v>
       </c>
       <c r="S13">
-        <f>[9]table1_region_lower!D14</f>
-        <v>1.3069999999999999</v>
+        <f>[8]table1_region_lower!D14</f>
+        <v>1.242</v>
       </c>
       <c r="T13">
-        <f>[8]table1_region_upper!D14</f>
-        <v>3.0950000000000002</v>
+        <f>[9]table1_region_upper!D14</f>
+        <v>3.1920000000000002</v>
       </c>
       <c r="V13">
-        <f>[3]table1_region!E14</f>
+        <f>[7]table1_region!E14</f>
         <v>16.78</v>
       </c>
       <c r="W13">
-        <f>[9]table1_region_lower!E14</f>
-        <v>11.95</v>
+        <f>[8]table1_region_lower!E14</f>
+        <v>11.36</v>
       </c>
       <c r="X13">
-        <f>[8]table1_region_upper!E14</f>
-        <v>20.399999999999999</v>
+        <f>[9]table1_region_upper!E14</f>
+        <v>21.03</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>[3]table1_region!B5</f>
+        <f>[7]table1_region!B5</f>
         <v>Americas</v>
       </c>
       <c r="B14">
-        <f>[3]table1_region!D5</f>
+        <f>[7]table1_region!D5</f>
         <v>20.359000000000002</v>
       </c>
       <c r="C14">
-        <f>[9]table1_region_lower!D5</f>
+        <f>[8]table1_region_lower!D5</f>
         <v>15.061</v>
       </c>
       <c r="D14">
-        <f>[8]table1_region_upper!D5</f>
+        <f>[9]table1_region_upper!D5</f>
         <v>26.640999999999998</v>
       </c>
-      <c r="F14" s="6">
-        <f>[3]table1_region!E5</f>
+      <c r="F14" s="4">
+        <f>[7]table1_region!E5</f>
         <v>6.68</v>
       </c>
-      <c r="G14" s="6">
-        <f>[9]table1_region_lower!E5</f>
+      <c r="G14" s="4">
+        <f>[8]table1_region_lower!E5</f>
         <v>5.66</v>
       </c>
-      <c r="H14" s="6">
-        <f>[8]table1_region_upper!E5</f>
+      <c r="H14" s="4">
+        <f>[9]table1_region_upper!E5</f>
         <v>7.65</v>
       </c>
       <c r="J14">
-        <f>[3]table1_region!D10</f>
+        <f>[7]table1_region!D10</f>
         <v>48.06</v>
       </c>
-      <c r="K14" s="6">
-        <f>[9]table1_region_lower!D10</f>
+      <c r="K14" s="4">
+        <f>[8]table1_region_lower!D10</f>
         <v>24.084</v>
       </c>
       <c r="L14">
-        <f>[8]table1_region_upper!D10</f>
+        <f>[9]table1_region_upper!D10</f>
         <v>75.671999999999997</v>
       </c>
       <c r="N14">
-        <f>[3]table1_region!E10</f>
+        <f>[7]table1_region!E10</f>
         <v>15.77</v>
       </c>
       <c r="O14">
-        <f>[9]table1_region_lower!E10</f>
+        <f>[8]table1_region_lower!E10</f>
         <v>9.0399999999999991</v>
       </c>
       <c r="P14">
-        <f>[8]table1_region_upper!E10</f>
+        <f>[9]table1_region_upper!E10</f>
         <v>21.74</v>
       </c>
       <c r="R14">
-        <f>[3]table1_region!D15</f>
+        <f>[7]table1_region!D15</f>
         <v>54.113999999999997</v>
       </c>
       <c r="S14">
-        <f>[9]table1_region_lower!D15</f>
-        <v>31.754000000000001</v>
+        <f>[8]table1_region_lower!D15</f>
+        <v>30.268000000000001</v>
       </c>
       <c r="T14">
-        <f>[8]table1_region_upper!D15</f>
-        <v>77.786000000000001</v>
+        <f>[9]table1_region_upper!D15</f>
+        <v>79.807000000000002</v>
       </c>
       <c r="V14">
-        <f>[3]table1_region!E15</f>
+        <f>[7]table1_region!E15</f>
         <v>17.760000000000002</v>
       </c>
       <c r="W14">
-        <f>[9]table1_region_lower!E15</f>
-        <v>11.93</v>
+        <f>[8]table1_region_lower!E15</f>
+        <v>11.37</v>
       </c>
       <c r="X14">
-        <f>[8]table1_region_upper!E15</f>
-        <v>22.35</v>
+        <f>[9]table1_region_upper!E15</f>
+        <v>22.93</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>[3]table1_region!B6</f>
+        <f>[7]table1_region!B6</f>
         <v>Africa</v>
       </c>
       <c r="B15">
-        <f>[3]table1_region!D6</f>
+        <f>[7]table1_region!D6</f>
         <v>19.547999999999998</v>
       </c>
       <c r="C15">
-        <f>[9]table1_region_lower!D6</f>
+        <f>[8]table1_region_lower!D6</f>
         <v>14.228</v>
       </c>
       <c r="D15">
-        <f>[8]table1_region_upper!D6</f>
+        <f>[9]table1_region_upper!D6</f>
         <v>25.948</v>
       </c>
-      <c r="F15" s="6">
-        <f>[3]table1_region!E6</f>
+      <c r="F15" s="4">
+        <f>[7]table1_region!E6</f>
         <v>3.4</v>
       </c>
-      <c r="G15" s="6">
-        <f>[9]table1_region_lower!E6</f>
+      <c r="G15" s="4">
+        <f>[8]table1_region_lower!E6</f>
         <v>2.87</v>
       </c>
-      <c r="H15" s="6">
-        <f>[8]table1_region_upper!E6</f>
+      <c r="H15" s="4">
+        <f>[9]table1_region_upper!E6</f>
         <v>3.89</v>
       </c>
       <c r="J15">
-        <f>[3]table1_region!D11</f>
+        <f>[7]table1_region!D11</f>
         <v>39.023000000000003</v>
       </c>
-      <c r="K15" s="6">
-        <f>[9]table1_region_lower!D11</f>
+      <c r="K15" s="4">
+        <f>[8]table1_region_lower!D11</f>
         <v>20.579000000000001</v>
       </c>
       <c r="L15">
-        <f>[8]table1_region_upper!D11</f>
+        <f>[9]table1_region_upper!D11</f>
         <v>62.441000000000003</v>
       </c>
       <c r="N15">
-        <f>[3]table1_region!E11</f>
+        <f>[7]table1_region!E11</f>
         <v>6.79</v>
       </c>
       <c r="O15">
-        <f>[9]table1_region_lower!E11</f>
+        <f>[8]table1_region_lower!E11</f>
         <v>4.16</v>
       </c>
       <c r="P15">
-        <f>[8]table1_region_upper!E11</f>
+        <f>[9]table1_region_upper!E11</f>
         <v>9.36</v>
       </c>
       <c r="R15">
-        <f>[3]table1_region!D16</f>
+        <f>[7]table1_region!D16</f>
         <v>60.235999999999997</v>
       </c>
       <c r="S15">
-        <f>[9]table1_region_lower!D16</f>
-        <v>39.512999999999998</v>
+        <f>[8]table1_region_lower!D16</f>
+        <v>36.603000000000002</v>
       </c>
       <c r="T15">
-        <f>[8]table1_region_upper!D16</f>
-        <v>85.570999999999998</v>
+        <f>[9]table1_region_upper!D16</f>
+        <v>90.141999999999996</v>
       </c>
       <c r="V15">
-        <f>[3]table1_region!E16</f>
+        <f>[7]table1_region!E16</f>
         <v>10.48</v>
       </c>
       <c r="W15">
-        <f>[9]table1_region_lower!E16</f>
-        <v>7.98</v>
+        <f>[8]table1_region_lower!E16</f>
+        <v>7.39</v>
       </c>
       <c r="X15">
-        <f>[8]table1_region_upper!E16</f>
-        <v>12.82</v>
+        <f>[9]table1_region_upper!E16</f>
+        <v>13.51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2522,7 +2522,7 @@
   <dimension ref="A2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="A2:L7"/>
+      <selection activeCell="L7" sqref="B4:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,232 +2533,232 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="3" t="str">
+      <c r="A2" s="5"/>
+      <c r="B2" s="8" t="str">
         <f>[10]table2_lower!B2</f>
         <v>Original GBD method</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="8" t="str">
         <f>[10]table2_lower!C2</f>
         <v>Revised - Vigo et al. method</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="3" t="str">
+      <c r="J2" s="8" t="str">
         <f>[10]table2_lower!D2</f>
         <v>Revised - Composite method</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7">
-        <f>[12]table2!B3</f>
+      <c r="B4" s="5">
+        <f>[11]table2!B3</f>
         <v>0.13</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <f>[10]table2_lower!B3</f>
         <v>0.09</v>
       </c>
-      <c r="D4" s="7">
-        <f>[11]table2_upper!$B3</f>
+      <c r="D4" s="5">
+        <f>[12]table2_upper!$B3</f>
         <v>0.16</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <f>[12]table2!C3</f>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <f>[11]table2!C3</f>
         <v>0.3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <f>[10]table2_lower!C3</f>
         <v>0.16</v>
       </c>
-      <c r="H4" s="7">
-        <f>[11]table2_upper!$C3</f>
+      <c r="H4" s="5">
+        <f>[12]table2_upper!$C3</f>
         <v>0.47</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7">
-        <f>[12]table2!D3</f>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <f>[11]table2!D3</f>
         <v>0.36</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <f>[10]table2_lower!D3</f>
-        <v>0.22</v>
-      </c>
-      <c r="L4" s="7">
-        <f>[11]table2_upper!$D3</f>
-        <v>0.51</v>
+        <v>0.21</v>
+      </c>
+      <c r="L4" s="5">
+        <f>[12]table2_upper!$D3</f>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7">
-        <f>[12]table2!B4</f>
+      <c r="B5" s="5">
+        <f>[11]table2!B4</f>
         <v>0.63</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <f>[10]table2_lower!B4</f>
         <v>0.46</v>
       </c>
-      <c r="D5" s="7">
-        <f>[11]table2_upper!$B4</f>
+      <c r="D5" s="5">
+        <f>[12]table2_upper!$B4</f>
         <v>0.82</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <f>[12]table2!C4</f>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <f>[11]table2!C4</f>
         <v>1.5</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <f>[10]table2_lower!C4</f>
         <v>0.79</v>
       </c>
-      <c r="H5" s="7">
-        <f>[11]table2_upper!$C4</f>
+      <c r="H5" s="5">
+        <f>[12]table2_upper!$C4</f>
         <v>2.34</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
-        <f>[12]table2!D4</f>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5">
+        <f>[11]table2!D4</f>
         <v>1.79</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <f>[10]table2_lower!D4</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="L5" s="7">
-        <f>[11]table2_upper!$D4</f>
-        <v>2.5299999999999998</v>
+        <v>1.06</v>
+      </c>
+      <c r="L5" s="5">
+        <f>[12]table2_upper!$D4</f>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7">
-        <f>[12]table2!B5</f>
+      <c r="B6" s="5">
+        <f>[11]table2!B5</f>
         <v>1.42</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <f>[10]table2_lower!B5</f>
         <v>1.06</v>
       </c>
-      <c r="D6" s="7">
-        <f>[11]table2_upper!$B5</f>
+      <c r="D6" s="5">
+        <f>[12]table2_upper!$B5</f>
         <v>1.85</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <f>[12]table2!C5</f>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <f>[11]table2!C5</f>
         <v>3.41</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <f>[10]table2_lower!C5</f>
         <v>1.8</v>
       </c>
-      <c r="H6" s="7">
-        <f>[11]table2_upper!$C5</f>
+      <c r="H6" s="5">
+        <f>[12]table2_upper!$C5</f>
         <v>5.32</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7">
-        <f>[12]table2!D5</f>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
+        <f>[11]table2!D5</f>
         <v>4.07</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <f>[10]table2_lower!D5</f>
-        <v>2.54</v>
-      </c>
-      <c r="L6" s="7">
-        <f>[11]table2_upper!$D5</f>
-        <v>5.74</v>
+        <v>2.41</v>
+      </c>
+      <c r="L6" s="5">
+        <f>[12]table2_upper!$D5</f>
+        <v>5.91</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
-        <f>[12]table2!B6</f>
+      <c r="B7" s="5">
+        <f>[11]table2!B6</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <f>[10]table2_lower!B6</f>
         <v>3.17</v>
       </c>
-      <c r="D7" s="7">
-        <f>[11]table2_upper!$B6</f>
+      <c r="D7" s="5">
+        <f>[12]table2_upper!$B6</f>
         <v>5.55</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <f>[12]table2!C6</f>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <f>[11]table2!C6</f>
         <v>10.24</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <f>[10]table2_lower!C6</f>
         <v>5.4</v>
       </c>
-      <c r="H7" s="7">
-        <f>[11]table2_upper!$C6</f>
+      <c r="H7" s="5">
+        <f>[12]table2_upper!$C6</f>
         <v>15.95</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7">
-        <f>[12]table2!D6</f>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <f>[11]table2!D6</f>
         <v>12.2</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <f>[10]table2_lower!D6</f>
-        <v>7.63</v>
-      </c>
-      <c r="L7" s="7">
-        <f>[11]table2_upper!$D6</f>
-        <v>17.21</v>
+        <v>7.23</v>
+      </c>
+      <c r="L7" s="5">
+        <f>[12]table2_upper!$D6</f>
+        <v>17.73</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables.xlsx
+++ b/results/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\3. PhD\WQE\WQE II\gmh_econ\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0022846-6480-48F1-AA9B-921AD11BE2F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA6E3B8-FFC6-4566-A334-408171307908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="2100" windowWidth="19005" windowHeight="13365" activeTab="1" xr2:uid="{09EDDA4F-F879-48C5-871F-ACF535CF1A26}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{09EDDA4F-F879-48C5-871F-ACF535CF1A26}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="21">
   <si>
     <t>Global</t>
   </si>
@@ -150,12 +151,21 @@
       <t>GDP/capita</t>
     </r>
   </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>YLLs</t>
+  </si>
+  <si>
+    <t>YLDs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +177,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -209,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -237,32 +256,104 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_global"/>
+      <sheetName val="table1_global_val"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="C2">
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
             <v>125.31100000000001</v>
           </cell>
-          <cell r="D2">
+          <cell r="E3">
             <v>4.9400000000000004</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="C3">
+        <row r="4">
+          <cell r="D4">
+            <v>125.294</v>
+          </cell>
+          <cell r="E4">
+            <v>14.55</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1.7000000000000001E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>2.899</v>
+          </cell>
+          <cell r="E6">
+            <v>5.13</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
             <v>300.72699999999998</v>
           </cell>
-          <cell r="D3">
+          <cell r="E7">
             <v>11.85</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="C4">
+        <row r="8">
+          <cell r="D8">
+            <v>238.31200000000001</v>
+          </cell>
+          <cell r="E8">
+            <v>27.68</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>62.414999999999999</v>
+          </cell>
+          <cell r="E9">
+            <v>3.72</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>4.05</v>
+          </cell>
+          <cell r="E14">
+            <v>7.16</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
             <v>358.46600000000001</v>
           </cell>
-          <cell r="D4">
+          <cell r="E15">
             <v>14.12</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>238.31200000000001</v>
+          </cell>
+          <cell r="E16">
+            <v>27.68</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>120.155</v>
+          </cell>
+          <cell r="E17">
+            <v>7.16</v>
           </cell>
         </row>
       </sheetData>
@@ -275,63 +366,485 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table2_lower"/>
+      <sheetName val="table1_region_upper"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2" t="str">
-            <v>Original GBD method</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Revised - Vigo et al. method</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Revised - Composite method</v>
+          <cell r="E2">
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3">
-            <v>0.09</v>
-          </cell>
-          <cell r="C3">
-            <v>0.16</v>
-          </cell>
-          <cell r="D3">
-            <v>0.21</v>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="B4">
-            <v>0.46</v>
-          </cell>
-          <cell r="C4">
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>18.937000000000001</v>
+          </cell>
+          <cell r="F7">
+            <v>6.52</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>91.448999999999998</v>
+          </cell>
+          <cell r="F8">
+            <v>5.79</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>1.153</v>
+          </cell>
+          <cell r="F9">
+            <v>7.6</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>26.640999999999998</v>
+          </cell>
+          <cell r="F10">
+            <v>7.65</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>25.948</v>
+          </cell>
+          <cell r="F11">
+            <v>3.89</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>18.931999999999999</v>
+          </cell>
+          <cell r="F12">
+            <v>14.32</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>91.438000000000002</v>
+          </cell>
+          <cell r="F13">
+            <v>14.07</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>26.638000000000002</v>
+          </cell>
+          <cell r="F14">
+            <v>15.88</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>25.946999999999999</v>
+          </cell>
+          <cell r="F15">
+            <v>16.329999999999998</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>1.153</v>
+          </cell>
+          <cell r="F16">
+            <v>17.010000000000002</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>1.2999999999999999E-2</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>3.0000000000000001E-3</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>3.069</v>
+          </cell>
+          <cell r="F22">
+            <v>8.6199999999999992</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>1.2589999999999999</v>
+          </cell>
+          <cell r="F23">
+            <v>14.02</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>0.98499999999999999</v>
+          </cell>
+          <cell r="F24">
+            <v>12.65</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>0.40699999999999997</v>
+          </cell>
+          <cell r="F25">
+            <v>3.9</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="F26">
+            <v>13.86</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>63.347999999999999</v>
+          </cell>
+          <cell r="F27">
+            <v>21.82</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>273.88600000000002</v>
+          </cell>
+          <cell r="F28">
+            <v>17.329999999999998</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>3.0329999999999999</v>
+          </cell>
+          <cell r="F29">
+            <v>19.98</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>75.671999999999997</v>
+          </cell>
+          <cell r="F30">
+            <v>21.74</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>62.441000000000003</v>
+          </cell>
+          <cell r="F31">
+            <v>9.36</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>46.777999999999999</v>
+          </cell>
+          <cell r="F32">
+            <v>35.380000000000003</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>217.00700000000001</v>
+          </cell>
+          <cell r="F33">
+            <v>33.4</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>61.576999999999998</v>
+          </cell>
+          <cell r="F34">
+            <v>36.71</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>52.677999999999997</v>
+          </cell>
+          <cell r="F35">
+            <v>33.159999999999997</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>2.4020000000000001</v>
+          </cell>
+          <cell r="F36">
+            <v>35.42</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>17.350999999999999</v>
+          </cell>
+          <cell r="F37">
+            <v>10.4</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>59.47</v>
+          </cell>
+          <cell r="F38">
+            <v>5.89</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>14.727</v>
+          </cell>
+          <cell r="F39">
+            <v>7.75</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>0.65500000000000003</v>
+          </cell>
+          <cell r="F40">
+            <v>7.45</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>10.439</v>
+          </cell>
+          <cell r="F41">
+            <v>1.93</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>2.7610000000000001</v>
+          </cell>
+          <cell r="F42">
+            <v>7.76</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>0.78100000000000003</v>
+          </cell>
+          <cell r="F43">
+            <v>8.6999999999999993</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>0.753</v>
+          </cell>
+          <cell r="F44">
+            <v>9.68</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0.745</v>
+          </cell>
+          <cell r="F45">
+            <v>7.14</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>3.3000000000000002E-2</v>
+          </cell>
+          <cell r="F46">
+            <v>10.039999999999999</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>60.942999999999998</v>
+          </cell>
+          <cell r="F47">
+            <v>20.99</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>296.53699999999998</v>
+          </cell>
+          <cell r="F48">
+            <v>18.77</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>3.1920000000000002</v>
+          </cell>
+          <cell r="F49">
+            <v>21.03</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>79.807000000000002</v>
+          </cell>
+          <cell r="F50">
+            <v>22.93</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>90.141999999999996</v>
+          </cell>
+          <cell r="F51">
+            <v>13.51</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>46.777999999999999</v>
+          </cell>
+          <cell r="F52">
+            <v>35.380000000000003</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>217.00700000000001</v>
+          </cell>
+          <cell r="F53">
+            <v>33.4</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>61.576999999999998</v>
+          </cell>
+          <cell r="F54">
+            <v>36.71</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>52.677999999999997</v>
+          </cell>
+          <cell r="F55">
+            <v>33.159999999999997</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56">
+            <v>2.4020000000000001</v>
+          </cell>
+          <cell r="F56">
+            <v>35.42</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>14.164999999999999</v>
+          </cell>
+          <cell r="F57">
+            <v>8.49</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>79.53</v>
+          </cell>
+          <cell r="F58">
+            <v>7.88</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>18.23</v>
+          </cell>
+          <cell r="F59">
+            <v>9.59</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
             <v>0.79</v>
           </cell>
-          <cell r="D4">
-            <v>1.06</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>1.06</v>
-          </cell>
-          <cell r="C5">
-            <v>1.8</v>
-          </cell>
-          <cell r="D5">
-            <v>2.41</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>3.17</v>
-          </cell>
-          <cell r="C6">
-            <v>5.4</v>
-          </cell>
-          <cell r="D6">
-            <v>7.23</v>
+          <cell r="F60">
+            <v>8.99</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61">
+            <v>37.463999999999999</v>
+          </cell>
+          <cell r="F61">
+            <v>6.94</v>
           </cell>
         </row>
       </sheetData>
@@ -344,6 +857,75 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="table2_lower"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Original GBD method</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Revised - Vigo et al. method</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Revised - Composite method</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.09</v>
+          </cell>
+          <cell r="C3">
+            <v>0.16</v>
+          </cell>
+          <cell r="D3">
+            <v>0.21</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.46</v>
+          </cell>
+          <cell r="C4">
+            <v>0.79</v>
+          </cell>
+          <cell r="D4">
+            <v>1.06</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>1.06</v>
+          </cell>
+          <cell r="C5">
+            <v>1.8</v>
+          </cell>
+          <cell r="D5">
+            <v>2.41</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>3.17</v>
+          </cell>
+          <cell r="C6">
+            <v>5.4</v>
+          </cell>
+          <cell r="D6">
+            <v>7.23</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="table2"/>
     </sheetNames>
     <sheetDataSet>
@@ -398,7 +980,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -465,27 +1047,99 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="C2">
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
             <v>92.995000000000005</v>
           </cell>
-          <cell r="D2">
+          <cell r="E3">
             <v>4.07</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="C3">
+        <row r="4">
+          <cell r="D4">
+            <v>92.977999999999994</v>
+          </cell>
+          <cell r="E4">
+            <v>14.52</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>1.6E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1.52</v>
+          </cell>
+          <cell r="E6">
+            <v>2.83</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
             <v>158.57</v>
           </cell>
-          <cell r="D3">
+          <cell r="E7">
             <v>6.94</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="C4">
+        <row r="8">
+          <cell r="D8">
+            <v>112.33199999999999</v>
+          </cell>
+          <cell r="E8">
+            <v>17.54</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>43.771999999999998</v>
+          </cell>
+          <cell r="E9">
+            <v>2.8</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>3.4409999999999998</v>
+          </cell>
+          <cell r="E14">
+            <v>6.4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
             <v>212.29499999999999</v>
           </cell>
-          <cell r="D4">
+          <cell r="E15">
             <v>9.2899999999999991</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>112.33199999999999</v>
+          </cell>
+          <cell r="E16">
+            <v>17.54</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>99.962000000000003</v>
+          </cell>
+          <cell r="E17">
+            <v>6.4</v>
           </cell>
         </row>
       </sheetData>
@@ -503,27 +1157,99 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="C2">
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
             <v>163.178</v>
           </cell>
-          <cell r="D2">
+          <cell r="E3">
             <v>5.81</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="C3">
+        <row r="4">
+          <cell r="D4">
+            <v>163.16200000000001</v>
+          </cell>
+          <cell r="E4">
+            <v>14.74</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>2.1000000000000001E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>5.6109999999999998</v>
+          </cell>
+          <cell r="E6">
+            <v>9.48</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
             <v>468.55</v>
           </cell>
-          <cell r="D3">
+          <cell r="E7">
             <v>16.670000000000002</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="C4">
+        <row r="8">
+          <cell r="D8">
+            <v>375.85300000000001</v>
+          </cell>
+          <cell r="E8">
+            <v>33.950000000000003</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>96.471999999999994</v>
+          </cell>
+          <cell r="E9">
+            <v>5.33</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>4.7359999999999998</v>
+          </cell>
+          <cell r="E14">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
             <v>520.76400000000001</v>
           </cell>
-          <cell r="D4">
+          <cell r="E15">
             <v>18.53</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>375.85300000000001</v>
+          </cell>
+          <cell r="E16">
+            <v>33.950000000000003</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>144.911</v>
+          </cell>
+          <cell r="E17">
+            <v>8</v>
           </cell>
         </row>
       </sheetData>
@@ -536,104 +1262,392 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_income"/>
+      <sheetName val="table1_income_val"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="D2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
             <v>24.52</v>
           </cell>
-          <cell r="E2">
+          <cell r="F7">
             <v>6.68</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="D3">
+        <row r="8">
+          <cell r="E8">
             <v>45.645000000000003</v>
           </cell>
-          <cell r="E3">
+          <cell r="F8">
             <v>5.57</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="D4">
+        <row r="9">
+          <cell r="E9">
             <v>44.924999999999997</v>
           </cell>
-          <cell r="E4">
+          <cell r="F9">
             <v>4.28</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="D5">
+        <row r="10">
+          <cell r="E10">
             <v>10.146000000000001</v>
           </cell>
-          <cell r="E5">
+          <cell r="F10">
             <v>3.36</v>
           </cell>
         </row>
-        <row r="7">
-          <cell r="D7">
+        <row r="12">
+          <cell r="E12">
+            <v>24.51</v>
+          </cell>
+          <cell r="F12">
+            <v>14.12</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>45.640999999999998</v>
+          </cell>
+          <cell r="F13">
+            <v>14.49</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>44.921999999999997</v>
+          </cell>
+          <cell r="F14">
+            <v>14.47</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>10.146000000000001</v>
+          </cell>
+          <cell r="F15">
+            <v>16.5</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>1.0999999999999999E-2</v>
+          </cell>
+          <cell r="F17">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>2E-3</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>0.73299999999999998</v>
+          </cell>
+          <cell r="F22">
+            <v>3.69</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>1.02</v>
+          </cell>
+          <cell r="F23">
+            <v>9.1199999999999992</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>1.042</v>
+          </cell>
+          <cell r="F24">
+            <v>4.99</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>0.10299999999999999</v>
+          </cell>
+          <cell r="F25">
+            <v>2.2400000000000002</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
             <v>66.054000000000002</v>
           </cell>
-          <cell r="E7">
+          <cell r="F27">
             <v>17.989999999999998</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="D8">
+        <row r="28">
+          <cell r="E28">
             <v>110.012</v>
           </cell>
-          <cell r="E8">
+          <cell r="F28">
             <v>13.43</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="D9">
+        <row r="29">
+          <cell r="E29">
             <v>105.06699999999999</v>
           </cell>
-          <cell r="E9">
+          <cell r="F29">
             <v>10.02</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="D10">
+        <row r="30">
+          <cell r="E30">
             <v>19.427</v>
           </cell>
-          <cell r="E10">
+          <cell r="F30">
             <v>6.44</v>
           </cell>
         </row>
-        <row r="12">
-          <cell r="D12">
+        <row r="32">
+          <cell r="E32">
+            <v>50.798999999999999</v>
+          </cell>
+          <cell r="F32">
+            <v>29.26</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>89.167000000000002</v>
+          </cell>
+          <cell r="F33">
+            <v>28.31</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>82.046999999999997</v>
+          </cell>
+          <cell r="F34">
+            <v>26.43</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>16.161999999999999</v>
+          </cell>
+          <cell r="F35">
+            <v>26.28</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>15.254</v>
+          </cell>
+          <cell r="F37">
+            <v>7.88</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>20.844999999999999</v>
+          </cell>
+          <cell r="F38">
+            <v>4.1399999999999997</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>23.02</v>
+          </cell>
+          <cell r="F39">
+            <v>3.12</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>3.2650000000000001</v>
+          </cell>
+          <cell r="F40">
+            <v>1.36</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>1.3819999999999999</v>
+          </cell>
+          <cell r="F42">
+            <v>6.96</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>0.92</v>
+          </cell>
+          <cell r="F43">
+            <v>8.23</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>1.4410000000000001</v>
+          </cell>
+          <cell r="F44">
+            <v>6.91</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0.30399999999999999</v>
+          </cell>
+          <cell r="F45">
+            <v>6.62</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
             <v>66.816000000000003</v>
           </cell>
-          <cell r="E12">
+          <cell r="F47">
             <v>18.2</v>
           </cell>
         </row>
-        <row r="13">
-          <cell r="D13">
+        <row r="48">
+          <cell r="E48">
             <v>124.20099999999999</v>
           </cell>
-          <cell r="E13">
+          <cell r="F48">
             <v>15.16</v>
           </cell>
         </row>
-        <row r="14">
-          <cell r="D14">
+        <row r="49">
+          <cell r="E49">
             <v>132.161</v>
           </cell>
-          <cell r="E14">
+          <cell r="F49">
             <v>12.6</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="D15">
+        <row r="50">
+          <cell r="E50">
             <v>31.835000000000001</v>
           </cell>
-          <cell r="E15">
+          <cell r="F50">
             <v>10.55</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>50.798999999999999</v>
+          </cell>
+          <cell r="F52">
+            <v>29.26</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>89.167000000000002</v>
+          </cell>
+          <cell r="F53">
+            <v>28.31</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>82.046999999999997</v>
+          </cell>
+          <cell r="F54">
+            <v>26.43</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>16.161999999999999</v>
+          </cell>
+          <cell r="F55">
+            <v>26.28</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>16.015999999999998</v>
+          </cell>
+          <cell r="F57">
+            <v>8.2799999999999994</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>35.033999999999999</v>
+          </cell>
+          <cell r="F58">
+            <v>6.95</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>50.113999999999997</v>
+          </cell>
+          <cell r="F59">
+            <v>6.79</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>15.673</v>
+          </cell>
+          <cell r="F60">
+            <v>6.53</v>
           </cell>
         </row>
       </sheetData>
@@ -651,99 +1665,387 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="D2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
             <v>18.146000000000001</v>
           </cell>
-          <cell r="E2">
+          <cell r="F7">
             <v>5.67</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="D3">
+        <row r="8">
+          <cell r="E8">
             <v>33.823999999999998</v>
           </cell>
-          <cell r="E3">
+          <cell r="F8">
             <v>4.74</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="D4">
+        <row r="9">
+          <cell r="E9">
             <v>33</v>
           </cell>
-          <cell r="E4">
+          <cell r="F9">
             <v>3.59</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="D5">
+        <row r="10">
+          <cell r="E10">
             <v>7.3680000000000003</v>
           </cell>
-          <cell r="E5">
+          <cell r="F10">
             <v>2.85</v>
           </cell>
         </row>
-        <row r="7">
-          <cell r="D7">
+        <row r="12">
+          <cell r="E12">
+            <v>18.135999999999999</v>
+          </cell>
+          <cell r="F12">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>33.82</v>
+          </cell>
+          <cell r="F13">
+            <v>14.39</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>32.997999999999998</v>
+          </cell>
+          <cell r="F14">
+            <v>14.31</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>7.3680000000000003</v>
+          </cell>
+          <cell r="F15">
+            <v>16.28</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>8.9999999999999993E-3</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>3.0000000000000001E-3</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>1E-3</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>0.41799999999999998</v>
+          </cell>
+          <cell r="F22">
+            <v>2.4</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>0.45900000000000002</v>
+          </cell>
+          <cell r="F23">
+            <v>4.24</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>0.49199999999999999</v>
+          </cell>
+          <cell r="F24">
+            <v>2.68</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>5.5E-2</v>
+          </cell>
+          <cell r="F25">
+            <v>1.4</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
             <v>32.859000000000002</v>
           </cell>
-          <cell r="E7">
+          <cell r="F27">
             <v>10.26</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="D8">
+        <row r="28">
+          <cell r="E28">
             <v>54.555</v>
           </cell>
-          <cell r="E8">
+          <cell r="F28">
             <v>7.64</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="D9">
+        <row r="29">
+          <cell r="E29">
             <v>55.308</v>
           </cell>
-          <cell r="E9">
+          <cell r="F29">
             <v>6.02</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="D10">
+        <row r="30">
+          <cell r="E30">
             <v>10.48</v>
           </cell>
-          <cell r="E10">
+          <cell r="F30">
             <v>4.05</v>
           </cell>
         </row>
-        <row r="12">
-          <cell r="D12">
+        <row r="32">
+          <cell r="E32">
+            <v>22.64</v>
+          </cell>
+          <cell r="F32">
+            <v>17.48</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>40.927999999999997</v>
+          </cell>
+          <cell r="F33">
+            <v>17.420000000000002</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>38.281999999999996</v>
+          </cell>
+          <cell r="F34">
+            <v>16.600000000000001</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>8.23</v>
+          </cell>
+          <cell r="F35">
+            <v>18.18</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>9.3409999999999993</v>
+          </cell>
+          <cell r="F37">
+            <v>5.04</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>12.568</v>
+          </cell>
+          <cell r="F38">
+            <v>2.86</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>16.033999999999999</v>
+          </cell>
+          <cell r="F39">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>2.0249999999999999</v>
+          </cell>
+          <cell r="F40">
+            <v>1.01</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>1.0549999999999999</v>
+          </cell>
+          <cell r="F42">
+            <v>6.05</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>0.79700000000000004</v>
+          </cell>
+          <cell r="F43">
+            <v>7.37</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>1.133</v>
+          </cell>
+          <cell r="F44">
+            <v>6.17</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0.224</v>
+          </cell>
+          <cell r="F45">
+            <v>5.74</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
             <v>36.39</v>
           </cell>
-          <cell r="E12">
+          <cell r="F47">
             <v>11.37</v>
           </cell>
         </row>
-        <row r="13">
-          <cell r="D13">
+        <row r="48">
+          <cell r="E48">
             <v>68.236999999999995</v>
           </cell>
-          <cell r="E13">
+          <cell r="F48">
             <v>9.56</v>
           </cell>
         </row>
-        <row r="14">
-          <cell r="D14">
+        <row r="49">
+          <cell r="E49">
             <v>76.222999999999999</v>
           </cell>
-          <cell r="E14">
+          <cell r="F49">
             <v>8.3000000000000007</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="D15">
+        <row r="50">
+          <cell r="E50">
             <v>19.614000000000001</v>
           </cell>
-          <cell r="E15">
+          <cell r="F50">
             <v>7.59</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>22.64</v>
+          </cell>
+          <cell r="F52">
+            <v>17.48</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>40.927999999999997</v>
+          </cell>
+          <cell r="F53">
+            <v>17.420000000000002</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>38.281999999999996</v>
+          </cell>
+          <cell r="F54">
+            <v>16.600000000000001</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>8.23</v>
+          </cell>
+          <cell r="F55">
+            <v>18.18</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>13.749000000000001</v>
+          </cell>
+          <cell r="F57">
+            <v>7.42</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>27.309000000000001</v>
+          </cell>
+          <cell r="F58">
+            <v>6.21</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>37.941000000000003</v>
+          </cell>
+          <cell r="F59">
+            <v>5.91</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>11.384</v>
+          </cell>
+          <cell r="F60">
+            <v>5.66</v>
           </cell>
         </row>
       </sheetData>
@@ -761,99 +2063,387 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="D2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
             <v>32.036000000000001</v>
           </cell>
-          <cell r="E2">
+          <cell r="F7">
             <v>7.63</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="D3">
+        <row r="8">
+          <cell r="E8">
             <v>59.694000000000003</v>
           </cell>
-          <cell r="E3">
+          <cell r="F8">
             <v>6.4</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="D4">
+        <row r="9">
+          <cell r="E9">
             <v>58.929000000000002</v>
           </cell>
-          <cell r="E4">
+          <cell r="F9">
             <v>4.93</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="D5">
+        <row r="10">
+          <cell r="E10">
             <v>13.468</v>
           </cell>
-          <cell r="E5">
+          <cell r="F10">
             <v>3.82</v>
           </cell>
         </row>
-        <row r="7">
-          <cell r="D7">
+        <row r="12">
+          <cell r="E12">
+            <v>32.026000000000003</v>
+          </cell>
+          <cell r="F12">
+            <v>14.34</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>59.689</v>
+          </cell>
+          <cell r="F13">
+            <v>14.62</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>58.923999999999999</v>
+          </cell>
+          <cell r="F14">
+            <v>14.61</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>13.468</v>
+          </cell>
+          <cell r="F15">
+            <v>16.75</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>1.2999999999999999E-2</v>
+          </cell>
+          <cell r="F17">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>6.0000000000000001E-3</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>1E-3</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>1.335</v>
+          </cell>
+          <cell r="F22">
+            <v>5.92</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>2.0950000000000002</v>
+          </cell>
+          <cell r="F23">
+            <v>18.05</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>2.14</v>
+          </cell>
+          <cell r="F24">
+            <v>9.09</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>0.19500000000000001</v>
+          </cell>
+          <cell r="F25">
+            <v>3.6</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
             <v>105.119</v>
           </cell>
-          <cell r="E7">
+          <cell r="F27">
             <v>25.05</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="D8">
+        <row r="28">
+          <cell r="E28">
             <v>177.09700000000001</v>
           </cell>
-          <cell r="E8">
+          <cell r="F28">
             <v>18.98</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="D9">
+        <row r="29">
+          <cell r="E29">
             <v>165.34200000000001</v>
           </cell>
-          <cell r="E9">
+          <cell r="F29">
             <v>13.83</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="D10">
+        <row r="30">
+          <cell r="E30">
             <v>30.821000000000002</v>
           </cell>
-          <cell r="E10">
+          <cell r="F30">
             <v>8.74</v>
           </cell>
         </row>
-        <row r="12">
-          <cell r="D12">
+        <row r="32">
+          <cell r="E32">
+            <v>79.933000000000007</v>
+          </cell>
+          <cell r="F32">
+            <v>35.79</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>142.15700000000001</v>
+          </cell>
+          <cell r="F33">
+            <v>34.82</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>132.411</v>
+          </cell>
+          <cell r="F34">
+            <v>32.83</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>25.939</v>
+          </cell>
+          <cell r="F35">
+            <v>32.26</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>26.324000000000002</v>
+          </cell>
+          <cell r="F37">
+            <v>12.96</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>36.801000000000002</v>
+          </cell>
+          <cell r="F38">
+            <v>6.4</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>34.286999999999999</v>
+          </cell>
+          <cell r="F39">
+            <v>4.04</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>5.2279999999999998</v>
+          </cell>
+          <cell r="F40">
+            <v>1.82</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>1.7809999999999999</v>
+          </cell>
+          <cell r="F42">
+            <v>7.89</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>1.0669999999999999</v>
+          </cell>
+          <cell r="F43">
+            <v>9.19</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>1.8140000000000001</v>
+          </cell>
+          <cell r="F44">
+            <v>7.7</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0.41099999999999998</v>
+          </cell>
+          <cell r="F45">
+            <v>7.6</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
             <v>98.707999999999998</v>
           </cell>
-          <cell r="E12">
+          <cell r="F47">
             <v>23.52</v>
           </cell>
         </row>
-        <row r="13">
-          <cell r="D13">
+        <row r="48">
+          <cell r="E48">
             <v>186.78399999999999</v>
           </cell>
-          <cell r="E13">
+          <cell r="F48">
             <v>20.02</v>
           </cell>
         </row>
-        <row r="14">
-          <cell r="D14">
+        <row r="49">
+          <cell r="E49">
             <v>197.64400000000001</v>
           </cell>
-          <cell r="E14">
+          <cell r="F49">
             <v>16.53</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="D15">
+        <row r="50">
+          <cell r="E50">
             <v>47.482999999999997</v>
           </cell>
-          <cell r="E15">
+          <cell r="F50">
             <v>13.47</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>79.933000000000007</v>
+          </cell>
+          <cell r="F52">
+            <v>35.79</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>142.15700000000001</v>
+          </cell>
+          <cell r="F53">
+            <v>34.82</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>132.411</v>
+          </cell>
+          <cell r="F54">
+            <v>32.83</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>25.939</v>
+          </cell>
+          <cell r="F55">
+            <v>32.26</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>18.774999999999999</v>
+          </cell>
+          <cell r="F57">
+            <v>9.24</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>44.627000000000002</v>
+          </cell>
+          <cell r="F58">
+            <v>7.76</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>65.231999999999999</v>
+          </cell>
+          <cell r="F59">
+            <v>7.69</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>21.544</v>
+          </cell>
+          <cell r="F60">
+            <v>7.49</v>
           </cell>
         </row>
       </sheetData>
@@ -869,140 +2459,30 @@
       <sheetName val="table1_region"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="B2" t="str">
             <v>Europe</v>
           </cell>
-          <cell r="D2">
-            <v>14.439</v>
-          </cell>
-          <cell r="E2">
-            <v>5.69</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="B3" t="str">
             <v>Asia</v>
           </cell>
-          <cell r="D3">
-            <v>70.012</v>
-          </cell>
-          <cell r="E3">
-            <v>5.04</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
             <v>Oceania</v>
           </cell>
-          <cell r="D4">
-            <v>0.877</v>
-          </cell>
-          <cell r="E4">
-            <v>6.81</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
             <v>Americas</v>
           </cell>
-          <cell r="D5">
-            <v>20.359000000000002</v>
-          </cell>
-          <cell r="E5">
-            <v>6.68</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
             <v>Africa</v>
-          </cell>
-          <cell r="D6">
-            <v>19.547999999999998</v>
-          </cell>
-          <cell r="E6">
-            <v>3.4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>39.512999999999998</v>
-          </cell>
-          <cell r="E7">
-            <v>15.56</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>172.024</v>
-          </cell>
-          <cell r="E8">
-            <v>12.37</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1.94</v>
-          </cell>
-          <cell r="E9">
-            <v>15.06</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>48.06</v>
-          </cell>
-          <cell r="E10">
-            <v>15.77</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>39.023000000000003</v>
-          </cell>
-          <cell r="E11">
-            <v>6.79</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>41.031999999999996</v>
-          </cell>
-          <cell r="E12">
-            <v>16.16</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>197.46899999999999</v>
-          </cell>
-          <cell r="E13">
-            <v>14.21</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>2.1619999999999999</v>
-          </cell>
-          <cell r="E14">
-            <v>16.78</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>54.113999999999997</v>
-          </cell>
-          <cell r="E15">
-            <v>17.760000000000002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>60.235999999999997</v>
-          </cell>
-          <cell r="E16">
-            <v>10.48</v>
           </cell>
         </row>
       </sheetData>
@@ -1015,128 +2495,488 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_region_lower"/>
+      <sheetName val="table1_region_val"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="D2">
-            <v>10.643000000000001</v>
-          </cell>
           <cell r="E2">
-            <v>4.8</v>
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="D3">
-            <v>51.761000000000003</v>
-          </cell>
           <cell r="E3">
-            <v>4.25</v>
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="D4">
-            <v>0.64500000000000002</v>
-          </cell>
           <cell r="E4">
-            <v>5.9</v>
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="D5">
-            <v>15.061</v>
-          </cell>
           <cell r="E5">
-            <v>5.66</v>
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="D6">
-            <v>14.228</v>
-          </cell>
           <cell r="E6">
-            <v>2.87</v>
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="D7">
-            <v>20.509</v>
-          </cell>
           <cell r="E7">
-            <v>9.25</v>
+            <v>14.439</v>
+          </cell>
+          <cell r="F7">
+            <v>5.69</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="D8">
-            <v>87.001999999999995</v>
-          </cell>
           <cell r="E8">
-            <v>7.15</v>
+            <v>70.012</v>
+          </cell>
+          <cell r="F8">
+            <v>5.04</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="D9">
-            <v>1.028</v>
-          </cell>
           <cell r="E9">
-            <v>9.4</v>
+            <v>0.877</v>
+          </cell>
+          <cell r="F9">
+            <v>6.81</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="D10">
-            <v>24.084</v>
-          </cell>
           <cell r="E10">
-            <v>9.0399999999999991</v>
+            <v>20.359000000000002</v>
+          </cell>
+          <cell r="F10">
+            <v>6.68</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="D11">
-            <v>20.579000000000001</v>
-          </cell>
           <cell r="E11">
-            <v>4.16</v>
+            <v>19.547999999999998</v>
+          </cell>
+          <cell r="F11">
+            <v>3.4</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="D12">
-            <v>23.170999999999999</v>
-          </cell>
           <cell r="E12">
-            <v>10.45</v>
+            <v>14.433999999999999</v>
+          </cell>
+          <cell r="F12">
+            <v>14.11</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="D13">
-            <v>109.18</v>
-          </cell>
           <cell r="E13">
-            <v>8.9700000000000006</v>
+            <v>70.004000000000005</v>
+          </cell>
+          <cell r="F13">
+            <v>13.97</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="D14">
-            <v>1.242</v>
-          </cell>
           <cell r="E14">
-            <v>11.36</v>
+            <v>20.356000000000002</v>
+          </cell>
+          <cell r="F14">
+            <v>15.62</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="D15">
-            <v>30.268000000000001</v>
-          </cell>
           <cell r="E15">
-            <v>11.37</v>
+            <v>19.547999999999998</v>
+          </cell>
+          <cell r="F15">
+            <v>16.079999999999998</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="D16">
-            <v>36.603000000000002</v>
-          </cell>
           <cell r="E16">
-            <v>7.39</v>
+            <v>0.877</v>
+          </cell>
+          <cell r="F16">
+            <v>16.77</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>8.0000000000000002E-3</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>3.0000000000000001E-3</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>1E-3</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>1.5649999999999999</v>
+          </cell>
+          <cell r="F22">
+            <v>4.95</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>0.60899999999999999</v>
+          </cell>
+          <cell r="F23">
+            <v>7.32</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>0.49</v>
+          </cell>
+          <cell r="F24">
+            <v>6.71</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>0.21099999999999999</v>
+          </cell>
+          <cell r="F25">
+            <v>2.36</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>2.1999999999999999E-2</v>
+          </cell>
+          <cell r="F26">
+            <v>7.43</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>39.512999999999998</v>
+          </cell>
+          <cell r="F27">
+            <v>15.56</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>172.024</v>
+          </cell>
+          <cell r="F28">
+            <v>12.37</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>1.94</v>
+          </cell>
+          <cell r="F29">
+            <v>15.06</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>48.06</v>
+          </cell>
+          <cell r="F30">
+            <v>15.77</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>39.023000000000003</v>
+          </cell>
+          <cell r="F31">
+            <v>6.79</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>29.436</v>
+          </cell>
+          <cell r="F32">
+            <v>28.78</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>135.41499999999999</v>
+          </cell>
+          <cell r="F33">
+            <v>27.03</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>39.125999999999998</v>
+          </cell>
+          <cell r="F34">
+            <v>30.02</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>32.655999999999999</v>
+          </cell>
+          <cell r="F35">
+            <v>26.86</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>1.5429999999999999</v>
+          </cell>
+          <cell r="F36">
+            <v>29.49</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>10.077</v>
+          </cell>
+          <cell r="F37">
+            <v>6.64</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>36.609000000000002</v>
+          </cell>
+          <cell r="F38">
+            <v>4.12</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>8.9339999999999993</v>
+          </cell>
+          <cell r="F39">
+            <v>5.12</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>0.39800000000000002</v>
+          </cell>
+          <cell r="F40">
+            <v>5.2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>6.3659999999999997</v>
+          </cell>
+          <cell r="F41">
+            <v>1.4</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>2.1760000000000002</v>
+          </cell>
+          <cell r="F42">
+            <v>6.88</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>0.65100000000000002</v>
+          </cell>
+          <cell r="F43">
+            <v>7.82</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>0.63300000000000001</v>
+          </cell>
+          <cell r="F44">
+            <v>8.67</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0.56100000000000005</v>
+          </cell>
+          <cell r="F45">
+            <v>6.26</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>2.7E-2</v>
+          </cell>
+          <cell r="F46">
+            <v>9.06</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>41.031999999999996</v>
+          </cell>
+          <cell r="F47">
+            <v>16.16</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>197.46899999999999</v>
+          </cell>
+          <cell r="F48">
+            <v>14.21</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>2.1619999999999999</v>
+          </cell>
+          <cell r="F49">
+            <v>16.78</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>54.113999999999997</v>
+          </cell>
+          <cell r="F50">
+            <v>17.760000000000002</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>60.235999999999997</v>
+          </cell>
+          <cell r="F51">
+            <v>10.48</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>29.436</v>
+          </cell>
+          <cell r="F52">
+            <v>28.78</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>135.41499999999999</v>
+          </cell>
+          <cell r="F53">
+            <v>27.03</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>39.125999999999998</v>
+          </cell>
+          <cell r="F54">
+            <v>30.02</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>32.655999999999999</v>
+          </cell>
+          <cell r="F55">
+            <v>26.86</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56">
+            <v>1.5429999999999999</v>
+          </cell>
+          <cell r="F56">
+            <v>29.49</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>11.596</v>
+          </cell>
+          <cell r="F57">
+            <v>7.65</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>62.054000000000002</v>
+          </cell>
+          <cell r="F58">
+            <v>6.98</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>14.988</v>
+          </cell>
+          <cell r="F59">
+            <v>8.59</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>0.61899999999999999</v>
+          </cell>
+          <cell r="F60">
+            <v>8.09</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61">
+            <v>27.58</v>
+          </cell>
+          <cell r="F61">
+            <v>6.08</v>
           </cell>
         </row>
       </sheetData>
@@ -1149,128 +2989,485 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="table1_region_upper"/>
+      <sheetName val="table1_region_lower"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="D2">
-            <v>18.937000000000001</v>
-          </cell>
           <cell r="E2">
-            <v>6.52</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="D3">
-            <v>91.448999999999998</v>
-          </cell>
           <cell r="E3">
-            <v>5.79</v>
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="D4">
-            <v>1.153</v>
-          </cell>
           <cell r="E4">
-            <v>7.6</v>
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="D5">
-            <v>26.640999999999998</v>
-          </cell>
           <cell r="E5">
-            <v>7.65</v>
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="D6">
-            <v>25.948</v>
-          </cell>
           <cell r="E6">
-            <v>3.89</v>
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="D7">
-            <v>63.347999999999999</v>
-          </cell>
           <cell r="E7">
-            <v>21.82</v>
+            <v>10.643000000000001</v>
+          </cell>
+          <cell r="F7">
+            <v>4.8</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="D8">
-            <v>273.88600000000002</v>
-          </cell>
           <cell r="E8">
-            <v>17.329999999999998</v>
+            <v>51.761000000000003</v>
+          </cell>
+          <cell r="F8">
+            <v>4.25</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="D9">
-            <v>3.0329999999999999</v>
-          </cell>
           <cell r="E9">
-            <v>19.98</v>
+            <v>0.64500000000000002</v>
+          </cell>
+          <cell r="F9">
+            <v>5.9</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="D10">
-            <v>75.671999999999997</v>
-          </cell>
           <cell r="E10">
-            <v>21.74</v>
+            <v>15.061</v>
+          </cell>
+          <cell r="F10">
+            <v>5.66</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="D11">
-            <v>62.441000000000003</v>
-          </cell>
           <cell r="E11">
-            <v>9.36</v>
+            <v>14.228</v>
+          </cell>
+          <cell r="F11">
+            <v>2.87</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="D12">
-            <v>60.942999999999998</v>
-          </cell>
           <cell r="E12">
-            <v>20.99</v>
+            <v>10.638</v>
+          </cell>
+          <cell r="F12">
+            <v>14</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="D13">
-            <v>296.53699999999998</v>
-          </cell>
           <cell r="E13">
-            <v>18.77</v>
+            <v>51.753999999999998</v>
+          </cell>
+          <cell r="F13">
+            <v>13.86</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="D14">
-            <v>3.1920000000000002</v>
-          </cell>
           <cell r="E14">
-            <v>21.03</v>
+            <v>15.058</v>
+          </cell>
+          <cell r="F14">
+            <v>15.48</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="D15">
-            <v>79.807000000000002</v>
-          </cell>
           <cell r="E15">
-            <v>22.93</v>
+            <v>14.227</v>
+          </cell>
+          <cell r="F15">
+            <v>15.86</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="D16">
-            <v>90.141999999999996</v>
-          </cell>
           <cell r="E16">
-            <v>13.51</v>
+            <v>0.64500000000000002</v>
+          </cell>
+          <cell r="F16">
+            <v>16.59</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>3.0000000000000001E-3</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>0.78600000000000003</v>
+          </cell>
+          <cell r="F22">
+            <v>2.82</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>0.28399999999999997</v>
+          </cell>
+          <cell r="F23">
+            <v>3.66</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>0.23300000000000001</v>
+          </cell>
+          <cell r="F24">
+            <v>3.39</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>0.11</v>
+          </cell>
+          <cell r="F25">
+            <v>1.43</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>0.01</v>
+          </cell>
+          <cell r="F26">
+            <v>3.76</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>20.509</v>
+          </cell>
+          <cell r="F27">
+            <v>9.25</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>87.001999999999995</v>
+          </cell>
+          <cell r="F28">
+            <v>7.15</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>1.028</v>
+          </cell>
+          <cell r="F29">
+            <v>9.4</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>24.084</v>
+          </cell>
+          <cell r="F30">
+            <v>9.0399999999999991</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>20.579000000000001</v>
+          </cell>
+          <cell r="F31">
+            <v>4.16</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>13.65</v>
+          </cell>
+          <cell r="F32">
+            <v>17.96</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>61.621000000000002</v>
+          </cell>
+          <cell r="F33">
+            <v>16.5</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>17.811</v>
+          </cell>
+          <cell r="F34">
+            <v>18.309999999999999</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>16.251000000000001</v>
+          </cell>
+          <cell r="F35">
+            <v>18.11</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>0.749</v>
+          </cell>
+          <cell r="F36">
+            <v>19.25</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>6.31</v>
+          </cell>
+          <cell r="F37">
+            <v>4.55</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>23.65</v>
+          </cell>
+          <cell r="F38">
+            <v>3.04</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>5.8170000000000002</v>
+          </cell>
+          <cell r="F39">
+            <v>3.61</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>0.25600000000000001</v>
+          </cell>
+          <cell r="F40">
+            <v>3.81</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>3.9359999999999999</v>
+          </cell>
+          <cell r="F41">
+            <v>1.03</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>1.6850000000000001</v>
+          </cell>
+          <cell r="F42">
+            <v>6.04</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>0.54300000000000004</v>
+          </cell>
+          <cell r="F43">
+            <v>7.02</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>0.53700000000000003</v>
+          </cell>
+          <cell r="F44">
+            <v>7.81</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0.42099999999999999</v>
+          </cell>
+          <cell r="F45">
+            <v>5.47</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>2.3E-2</v>
+          </cell>
+          <cell r="F46">
+            <v>8.1999999999999993</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>23.170999999999999</v>
+          </cell>
+          <cell r="F47">
+            <v>10.45</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>109.18</v>
+          </cell>
+          <cell r="F48">
+            <v>8.9700000000000006</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>1.242</v>
+          </cell>
+          <cell r="F49">
+            <v>11.36</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>30.268000000000001</v>
+          </cell>
+          <cell r="F50">
+            <v>11.37</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>36.603000000000002</v>
+          </cell>
+          <cell r="F51">
+            <v>7.39</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>13.65</v>
+          </cell>
+          <cell r="F52">
+            <v>17.96</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>61.621000000000002</v>
+          </cell>
+          <cell r="F53">
+            <v>16.5</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>17.811</v>
+          </cell>
+          <cell r="F54">
+            <v>18.309999999999999</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>16.251000000000001</v>
+          </cell>
+          <cell r="F55">
+            <v>18.11</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56">
+            <v>0.749</v>
+          </cell>
+          <cell r="F56">
+            <v>19.25</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>9.5210000000000008</v>
+          </cell>
+          <cell r="F57">
+            <v>6.86</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>47.558999999999997</v>
+          </cell>
+          <cell r="F58">
+            <v>6.11</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>12.457000000000001</v>
+          </cell>
+          <cell r="F59">
+            <v>7.74</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>0.49399999999999999</v>
+          </cell>
+          <cell r="F60">
+            <v>7.34</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61">
+            <v>20.352</v>
+          </cell>
+          <cell r="F61">
+            <v>5.32</v>
           </cell>
         </row>
       </sheetData>
@@ -1576,20 +3773,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9EF483-04C1-4FD9-B6B8-F8A403B1D01C}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X15" sqref="B4:X15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="1" customWidth="1"/>
     <col min="6" max="8" width="8.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="1" style="4" customWidth="1"/>
-    <col min="10" max="12" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="13" max="13" width="1" customWidth="1"/>
     <col min="14" max="16" width="8.42578125" customWidth="1"/>
     <col min="17" max="17" width="1" customWidth="1"/>
@@ -1598,75 +3797,77 @@
     <col min="22" max="24" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="J2" s="8" t="str">
+        <f>B2</f>
+        <v>Deaths</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="R2" s="8" t="str">
+        <f>J2</f>
+        <v>Deaths</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
     </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1722,786 +3923,3546 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <f>[1]table1_global!$C$2</f>
-        <v>125.31100000000001</v>
+        <f>[1]table1_global_val!$D$2</f>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f>[2]table1_global_lower!$C$2</f>
-        <v>92.995000000000005</v>
+        <f>[2]table1_global_lower!$D$2</f>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f>[3]table1_global_upper!$C$2</f>
-        <v>163.178</v>
+        <f>[3]table1_global_upper!$D$2</f>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
-        <f>[1]table1_global!$D$2</f>
-        <v>4.9400000000000004</v>
+        <f>[1]table1_global_val!$E$2</f>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <f>[2]table1_global_lower!$D$2</f>
-        <v>4.07</v>
+        <f>[2]table1_global_lower!$E$2</f>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>[3]table1_global_upper!$D$2</f>
-        <v>5.81</v>
+        <f>[3]table1_global_upper!$E$2</f>
+        <v>0</v>
       </c>
       <c r="J4">
-        <f>[1]table1_global!$C$3</f>
-        <v>300.72699999999998</v>
+        <f>[1]table1_global_val!$D$6</f>
+        <v>2.899</v>
       </c>
       <c r="K4">
-        <f>[2]table1_global_lower!$C$3</f>
-        <v>158.57</v>
+        <f>[2]table1_global_lower!$D$6</f>
+        <v>1.52</v>
       </c>
       <c r="L4">
-        <f>[3]table1_global_upper!$C$3</f>
-        <v>468.55</v>
+        <f>[3]table1_global_upper!$D$6</f>
+        <v>5.6109999999999998</v>
       </c>
       <c r="N4">
-        <f>[1]table1_global!$D$3</f>
-        <v>11.85</v>
+        <f>[1]table1_global_val!$E$6</f>
+        <v>5.13</v>
       </c>
       <c r="O4">
-        <f>[2]table1_global_lower!$D$3</f>
-        <v>6.94</v>
+        <f>[2]table1_global_lower!$E$6</f>
+        <v>2.83</v>
       </c>
       <c r="P4">
-        <f>[3]table1_global_upper!$D$3</f>
-        <v>16.670000000000002</v>
+        <f>[3]table1_global_upper!$E$6</f>
+        <v>9.48</v>
       </c>
       <c r="R4">
-        <f>[1]table1_global!$C$4</f>
-        <v>358.46600000000001</v>
+        <f>[1]table1_global_val!$D$14</f>
+        <v>4.05</v>
       </c>
       <c r="S4">
-        <f>[2]table1_global_lower!$C$4</f>
-        <v>212.29499999999999</v>
+        <f>[2]table1_global_lower!$D$14</f>
+        <v>3.4409999999999998</v>
       </c>
       <c r="T4">
-        <f>[3]table1_global_upper!$C$4</f>
-        <v>520.76400000000001</v>
+        <f>[3]table1_global_upper!$D$14</f>
+        <v>4.7359999999999998</v>
       </c>
       <c r="V4">
-        <f>[1]table1_global!$D$4</f>
-        <v>14.12</v>
+        <f>[1]table1_global_val!$E$14</f>
+        <v>7.16</v>
       </c>
       <c r="W4">
-        <f>[2]table1_global_lower!$D$4</f>
-        <v>9.2899999999999991</v>
+        <f>[2]table1_global_lower!$E$14</f>
+        <v>6.4</v>
       </c>
       <c r="X4">
-        <f>[3]table1_global_upper!$D$4</f>
-        <v>18.53</v>
+        <f>[3]table1_global_upper!$E$14</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <f>[4]table1_income!D2</f>
-        <v>24.52</v>
+        <f>[4]table1_income_val!$E$3</f>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>[5]table1_income_lower!D2</f>
-        <v>18.146000000000001</v>
+        <f>[5]table1_income_lower!$E$3</f>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f>[6]table1_income_upper!D2</f>
-        <v>32.036000000000001</v>
+        <f>[6]table1_income_upper!$E$3</f>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <f>[4]table1_income!E2</f>
-        <v>6.68</v>
+        <f>[4]table1_income_val!$F$3</f>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <f>[5]table1_income_lower!E2</f>
-        <v>5.67</v>
+        <f>[5]table1_income_lower!$F$3</f>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>[6]table1_income_upper!E2</f>
-        <v>7.63</v>
+        <f>[6]table1_income_upper!$F$3</f>
+        <v>0</v>
       </c>
       <c r="J6">
-        <f>[4]table1_income!D7</f>
-        <v>66.054000000000002</v>
+        <f>[4]table1_income_val!$E$23</f>
+        <v>1.02</v>
       </c>
       <c r="K6">
-        <f>[5]table1_income_lower!D7</f>
-        <v>32.859000000000002</v>
+        <f>[5]table1_income_lower!$E$23</f>
+        <v>0.45900000000000002</v>
       </c>
       <c r="L6">
-        <f>[6]table1_income_upper!D7</f>
-        <v>105.119</v>
+        <f>[6]table1_income_upper!$E$23</f>
+        <v>2.0950000000000002</v>
       </c>
       <c r="N6">
-        <f>[4]table1_income!E7</f>
-        <v>17.989999999999998</v>
+        <f>[4]table1_income_val!$F$23</f>
+        <v>9.1199999999999992</v>
       </c>
       <c r="O6">
-        <f>[5]table1_income_lower!E7</f>
-        <v>10.26</v>
+        <f>[5]table1_income_lower!$F$23</f>
+        <v>4.24</v>
       </c>
       <c r="P6">
-        <f>[6]table1_income_upper!E7</f>
-        <v>25.05</v>
+        <f>[6]table1_income_upper!$F$23</f>
+        <v>18.05</v>
       </c>
       <c r="R6">
-        <f>[4]table1_income!D12</f>
-        <v>66.816000000000003</v>
+        <f>[4]table1_income_val!$E$43</f>
+        <v>0.92</v>
       </c>
       <c r="S6">
-        <f>[5]table1_income_lower!D12</f>
-        <v>36.39</v>
+        <f>[5]table1_income_lower!$E$43</f>
+        <v>0.79700000000000004</v>
       </c>
       <c r="T6">
-        <f>[6]table1_income_upper!D12</f>
-        <v>98.707999999999998</v>
+        <f>[6]table1_income_upper!$E$43</f>
+        <v>1.0669999999999999</v>
       </c>
       <c r="V6">
-        <f>[4]table1_income!E12</f>
-        <v>18.2</v>
+        <f>[4]table1_income_val!$F$43</f>
+        <v>8.23</v>
       </c>
       <c r="W6">
-        <f>[5]table1_income_lower!E12</f>
-        <v>11.37</v>
+        <f>[5]table1_income_lower!$F$43</f>
+        <v>7.37</v>
       </c>
       <c r="X6">
-        <f>[6]table1_income_upper!E12</f>
-        <v>23.52</v>
+        <f>[6]table1_income_upper!$F$43</f>
+        <v>9.19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <f>[4]table1_income!D3</f>
-        <v>45.645000000000003</v>
+        <f>[4]table1_income_val!$E$4</f>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f>[5]table1_income_lower!D3</f>
-        <v>33.823999999999998</v>
+        <f>[5]table1_income_lower!$E$4</f>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f>[6]table1_income_upper!D3</f>
-        <v>59.694000000000003</v>
+        <f>[6]table1_income_upper!$E$4</f>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <f>[4]table1_income!E3</f>
-        <v>5.57</v>
+        <f>[4]table1_income_val!$F$4</f>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f>[5]table1_income_lower!E3</f>
-        <v>4.74</v>
+        <f>[5]table1_income_lower!$F$4</f>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>[6]table1_income_upper!E3</f>
-        <v>6.4</v>
+        <f>[6]table1_income_upper!$F$4</f>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f>[4]table1_income!D8</f>
-        <v>110.012</v>
+        <f>[4]table1_income_val!$E$24</f>
+        <v>1.042</v>
       </c>
       <c r="K7">
-        <f>[5]table1_income_lower!D8</f>
-        <v>54.555</v>
+        <f>[5]table1_income_lower!$E$24</f>
+        <v>0.49199999999999999</v>
       </c>
       <c r="L7">
-        <f>[6]table1_income_upper!D8</f>
-        <v>177.09700000000001</v>
+        <f>[6]table1_income_upper!$E$24</f>
+        <v>2.14</v>
       </c>
       <c r="N7">
-        <f>[4]table1_income!E8</f>
-        <v>13.43</v>
+        <f>[4]table1_income_val!$F$24</f>
+        <v>4.99</v>
       </c>
       <c r="O7">
-        <f>[5]table1_income_lower!E8</f>
-        <v>7.64</v>
+        <f>[5]table1_income_lower!$F$24</f>
+        <v>2.68</v>
       </c>
       <c r="P7">
-        <f>[6]table1_income_upper!E8</f>
-        <v>18.98</v>
+        <f>[6]table1_income_upper!$F$24</f>
+        <v>9.09</v>
       </c>
       <c r="R7">
-        <f>[4]table1_income!D13</f>
-        <v>124.20099999999999</v>
+        <f>[4]table1_income_val!$E$44</f>
+        <v>1.4410000000000001</v>
       </c>
       <c r="S7">
-        <f>[5]table1_income_lower!D13</f>
-        <v>68.236999999999995</v>
+        <f>[5]table1_income_lower!$E$44</f>
+        <v>1.133</v>
       </c>
       <c r="T7">
-        <f>[6]table1_income_upper!D13</f>
-        <v>186.78399999999999</v>
+        <f>[6]table1_income_upper!$E$44</f>
+        <v>1.8140000000000001</v>
       </c>
       <c r="V7">
-        <f>[4]table1_income!E13</f>
-        <v>15.16</v>
+        <f>[4]table1_income_val!$F$44</f>
+        <v>6.91</v>
       </c>
       <c r="W7">
-        <f>[5]table1_income_lower!E13</f>
-        <v>9.56</v>
+        <f>[5]table1_income_lower!$F$44</f>
+        <v>6.17</v>
       </c>
       <c r="X7">
-        <f>[6]table1_income_upper!E13</f>
-        <v>20.02</v>
+        <f>[6]table1_income_upper!$F$44</f>
+        <v>7.7</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <f>[4]table1_income!D4</f>
-        <v>44.924999999999997</v>
+        <f>[4]table1_income_val!$E$2</f>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f>[5]table1_income_lower!D4</f>
-        <v>33</v>
+        <f>[5]table1_income_lower!$E$2</f>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f>[6]table1_income_upper!D4</f>
-        <v>58.929000000000002</v>
+        <f>[6]table1_income_upper!$E$2</f>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
-        <f>[4]table1_income!E4</f>
-        <v>4.28</v>
+        <f>[4]table1_income_val!$F$2</f>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <f>[5]table1_income_lower!E4</f>
-        <v>3.59</v>
+        <f>[5]table1_income_lower!$F$2</f>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>[6]table1_income_upper!E4</f>
-        <v>4.93</v>
+        <f>[6]table1_income_upper!$F$2</f>
+        <v>0</v>
       </c>
       <c r="J8">
-        <f>[4]table1_income!D9</f>
-        <v>105.06699999999999</v>
+        <f>[4]table1_income_val!$E$22</f>
+        <v>0.73299999999999998</v>
       </c>
       <c r="K8">
-        <f>[5]table1_income_lower!D9</f>
-        <v>55.308</v>
+        <f>[5]table1_income_lower!$E$22</f>
+        <v>0.41799999999999998</v>
       </c>
       <c r="L8">
-        <f>[6]table1_income_upper!D9</f>
-        <v>165.34200000000001</v>
+        <f>[6]table1_income_upper!$E$22</f>
+        <v>1.335</v>
       </c>
       <c r="N8">
-        <f>[4]table1_income!E9</f>
-        <v>10.02</v>
+        <f>[4]table1_income_val!$F$22</f>
+        <v>3.69</v>
       </c>
       <c r="O8">
-        <f>[5]table1_income_lower!E9</f>
-        <v>6.02</v>
+        <f>[5]table1_income_lower!$F$22</f>
+        <v>2.4</v>
       </c>
       <c r="P8">
-        <f>[6]table1_income_upper!E9</f>
-        <v>13.83</v>
+        <f>[6]table1_income_upper!$F$22</f>
+        <v>5.92</v>
       </c>
       <c r="R8">
-        <f>[4]table1_income!D14</f>
-        <v>132.161</v>
+        <f>[4]table1_income_val!$E$42</f>
+        <v>1.3819999999999999</v>
       </c>
       <c r="S8">
-        <f>[5]table1_income_lower!D14</f>
-        <v>76.222999999999999</v>
+        <f>[5]table1_income_lower!$E$42</f>
+        <v>1.0549999999999999</v>
       </c>
       <c r="T8">
-        <f>[6]table1_income_upper!D14</f>
-        <v>197.64400000000001</v>
+        <f>[6]table1_income_upper!$E$42</f>
+        <v>1.7809999999999999</v>
       </c>
       <c r="V8">
-        <f>[4]table1_income!E14</f>
-        <v>12.6</v>
+        <f>[4]table1_income_val!$F$42</f>
+        <v>6.96</v>
       </c>
       <c r="W8">
-        <f>[5]table1_income_lower!E14</f>
-        <v>8.3000000000000007</v>
+        <f>[5]table1_income_lower!$F$42</f>
+        <v>6.05</v>
       </c>
       <c r="X8">
-        <f>[6]table1_income_upper!E14</f>
-        <v>16.53</v>
+        <f>[6]table1_income_upper!$F$42</f>
+        <v>7.89</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <f>[4]table1_income!D5</f>
-        <v>10.146000000000001</v>
+        <f>[4]table1_income_val!$E$5</f>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f>[5]table1_income_lower!D5</f>
-        <v>7.3680000000000003</v>
+        <f>[5]table1_income_lower!$E$5</f>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f>[6]table1_income_upper!D5</f>
-        <v>13.468</v>
+        <f>[6]table1_income_upper!$E$5</f>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
-        <f>[4]table1_income!E5</f>
-        <v>3.36</v>
+        <f>[4]table1_income_val!$F$5</f>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <f>[5]table1_income_lower!E5</f>
-        <v>2.85</v>
+        <f>[5]table1_income_lower!$F$5</f>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>[6]table1_income_upper!E5</f>
-        <v>3.82</v>
+        <f>[6]table1_income_upper!$F$5</f>
+        <v>0</v>
       </c>
       <c r="J9">
-        <f>[4]table1_income!D10</f>
-        <v>19.427</v>
+        <f>[4]table1_income_val!$E$25</f>
+        <v>0.10299999999999999</v>
       </c>
       <c r="K9">
-        <f>[5]table1_income_lower!D10</f>
-        <v>10.48</v>
+        <f>[5]table1_income_lower!$E$25</f>
+        <v>5.5E-2</v>
       </c>
       <c r="L9">
-        <f>[6]table1_income_upper!D10</f>
-        <v>30.821000000000002</v>
+        <f>[6]table1_income_upper!$E$25</f>
+        <v>0.19500000000000001</v>
       </c>
       <c r="N9">
-        <f>[4]table1_income!E10</f>
-        <v>6.44</v>
+        <f>[4]table1_income_val!$F$25</f>
+        <v>2.2400000000000002</v>
       </c>
       <c r="O9">
-        <f>[5]table1_income_lower!E10</f>
-        <v>4.05</v>
+        <f>[5]table1_income_lower!$F$25</f>
+        <v>1.4</v>
       </c>
       <c r="P9">
-        <f>[6]table1_income_upper!E10</f>
-        <v>8.74</v>
+        <f>[6]table1_income_upper!$F$25</f>
+        <v>3.6</v>
       </c>
       <c r="R9">
-        <f>[4]table1_income!D15</f>
-        <v>31.835000000000001</v>
+        <f>[4]table1_income_val!$E$45</f>
+        <v>0.30399999999999999</v>
       </c>
       <c r="S9">
-        <f>[5]table1_income_lower!D15</f>
-        <v>19.614000000000001</v>
+        <f>[5]table1_income_lower!$E$45</f>
+        <v>0.224</v>
       </c>
       <c r="T9">
-        <f>[6]table1_income_upper!D15</f>
-        <v>47.482999999999997</v>
+        <f>[6]table1_income_upper!$E$45</f>
+        <v>0.41099999999999998</v>
       </c>
       <c r="V9">
-        <f>[4]table1_income!E15</f>
-        <v>10.55</v>
+        <f>[4]table1_income_val!$F$45</f>
+        <v>6.62</v>
       </c>
       <c r="W9">
-        <f>[5]table1_income_lower!E15</f>
-        <v>7.59</v>
+        <f>[5]table1_income_lower!$F$45</f>
+        <v>5.74</v>
       </c>
       <c r="X9">
-        <f>[6]table1_income_upper!E15</f>
-        <v>13.47</v>
+        <f>[6]table1_income_upper!$F$45</f>
+        <v>7.6</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>[7]table1_region!B2</f>
         <v>Europe</v>
       </c>
       <c r="B11">
-        <f>[7]table1_region!D2</f>
-        <v>14.439</v>
+        <f>[8]table1_region_val!E2</f>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f>[8]table1_region_lower!D2</f>
-        <v>10.643000000000001</v>
+        <f>[9]table1_region_lower!E2</f>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f>[9]table1_region_upper!D2</f>
-        <v>18.937000000000001</v>
+        <f>[10]table1_region_upper!E2</f>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
-        <f>[7]table1_region!E2</f>
-        <v>5.69</v>
+        <f>[8]table1_region_val!F2</f>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <f>[8]table1_region_lower!E2</f>
-        <v>4.8</v>
+        <f>[9]table1_region_lower!F3</f>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f>[9]table1_region_upper!E2</f>
-        <v>6.52</v>
+        <f>[10]table1_region_upper!F4</f>
+        <v>0</v>
       </c>
       <c r="J11">
-        <f>[7]table1_region!D7</f>
-        <v>39.512999999999998</v>
-      </c>
-      <c r="K11" s="4">
-        <f>[8]table1_region_lower!D7</f>
-        <v>20.509</v>
+        <f>[8]table1_region_val!E22</f>
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="K11">
+        <f>[9]table1_region_lower!E22</f>
+        <v>0.78600000000000003</v>
       </c>
       <c r="L11">
-        <f>[9]table1_region_upper!D7</f>
-        <v>63.347999999999999</v>
+        <f>[10]table1_region_upper!E22</f>
+        <v>3.069</v>
       </c>
       <c r="N11">
-        <f>[7]table1_region!E7</f>
-        <v>15.56</v>
+        <f>[8]table1_region_val!F22</f>
+        <v>4.95</v>
       </c>
       <c r="O11">
-        <f>[8]table1_region_lower!E7</f>
-        <v>9.25</v>
+        <f>[9]table1_region_lower!F22</f>
+        <v>2.82</v>
       </c>
       <c r="P11">
-        <f>[9]table1_region_upper!E7</f>
-        <v>21.82</v>
+        <f>[10]table1_region_upper!F22</f>
+        <v>8.6199999999999992</v>
       </c>
       <c r="R11">
-        <f>[7]table1_region!D12</f>
-        <v>41.031999999999996</v>
+        <f>[8]table1_region_val!E42</f>
+        <v>2.1760000000000002</v>
       </c>
       <c r="S11">
-        <f>[8]table1_region_lower!D12</f>
-        <v>23.170999999999999</v>
+        <f>[9]table1_region_lower!E42</f>
+        <v>1.6850000000000001</v>
       </c>
       <c r="T11">
-        <f>[9]table1_region_upper!D12</f>
-        <v>60.942999999999998</v>
+        <f>[10]table1_region_upper!E42</f>
+        <v>2.7610000000000001</v>
       </c>
       <c r="V11">
-        <f>[7]table1_region!E12</f>
-        <v>16.16</v>
+        <f>[8]table1_region_val!F42</f>
+        <v>6.88</v>
       </c>
       <c r="W11">
-        <f>[8]table1_region_lower!E12</f>
-        <v>10.45</v>
+        <f>[9]table1_region_lower!F42</f>
+        <v>6.04</v>
       </c>
       <c r="X11">
-        <f>[9]table1_region_upper!E12</f>
-        <v>20.99</v>
+        <f>[10]table1_region_upper!F42</f>
+        <v>7.76</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>[7]table1_region!B3</f>
         <v>Asia</v>
       </c>
       <c r="B12">
-        <f>[7]table1_region!D3</f>
-        <v>70.012</v>
+        <f>[8]table1_region_val!E3</f>
+        <v>0</v>
       </c>
       <c r="C12">
-        <f>[8]table1_region_lower!D3</f>
-        <v>51.761000000000003</v>
+        <f>[9]table1_region_lower!E3</f>
+        <v>0</v>
       </c>
       <c r="D12">
-        <f>[9]table1_region_upper!D3</f>
-        <v>91.448999999999998</v>
+        <f>[10]table1_region_upper!E3</f>
+        <v>0</v>
       </c>
       <c r="F12" s="4">
-        <f>[7]table1_region!E3</f>
-        <v>5.04</v>
+        <f>[8]table1_region_val!F3</f>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <f>[8]table1_region_lower!E3</f>
-        <v>4.25</v>
+        <f>[9]table1_region_lower!F3</f>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>[9]table1_region_upper!E3</f>
-        <v>5.79</v>
+        <f>[10]table1_region_upper!F3</f>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f>[7]table1_region!D8</f>
-        <v>172.024</v>
-      </c>
-      <c r="K12" s="4">
-        <f>[8]table1_region_lower!D8</f>
-        <v>87.001999999999995</v>
+        <f>[8]table1_region_val!E23</f>
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="K12">
+        <f>[9]table1_region_lower!E23</f>
+        <v>0.28399999999999997</v>
       </c>
       <c r="L12">
-        <f>[9]table1_region_upper!D8</f>
-        <v>273.88600000000002</v>
+        <f>[10]table1_region_upper!E23</f>
+        <v>1.2589999999999999</v>
       </c>
       <c r="N12">
-        <f>[7]table1_region!E8</f>
-        <v>12.37</v>
+        <f>[8]table1_region_val!F23</f>
+        <v>7.32</v>
       </c>
       <c r="O12">
-        <f>[8]table1_region_lower!E8</f>
-        <v>7.15</v>
+        <f>[9]table1_region_lower!F23</f>
+        <v>3.66</v>
       </c>
       <c r="P12">
-        <f>[9]table1_region_upper!E8</f>
-        <v>17.329999999999998</v>
+        <f>[10]table1_region_upper!F23</f>
+        <v>14.02</v>
       </c>
       <c r="R12">
-        <f>[7]table1_region!D13</f>
-        <v>197.46899999999999</v>
+        <f>[8]table1_region_val!E43</f>
+        <v>0.65100000000000002</v>
       </c>
       <c r="S12">
-        <f>[8]table1_region_lower!D13</f>
-        <v>109.18</v>
+        <f>[9]table1_region_lower!E43</f>
+        <v>0.54300000000000004</v>
       </c>
       <c r="T12">
-        <f>[9]table1_region_upper!D13</f>
-        <v>296.53699999999998</v>
+        <f>[10]table1_region_upper!E43</f>
+        <v>0.78100000000000003</v>
       </c>
       <c r="V12">
-        <f>[7]table1_region!E13</f>
-        <v>14.21</v>
+        <f>[8]table1_region_val!F43</f>
+        <v>7.82</v>
       </c>
       <c r="W12">
-        <f>[8]table1_region_lower!E13</f>
-        <v>8.9700000000000006</v>
+        <f>[9]table1_region_lower!F43</f>
+        <v>7.02</v>
       </c>
       <c r="X12">
-        <f>[9]table1_region_upper!E13</f>
-        <v>18.77</v>
+        <f>[10]table1_region_upper!F43</f>
+        <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>[7]table1_region!B4</f>
         <v>Oceania</v>
       </c>
       <c r="B13">
-        <f>[7]table1_region!D4</f>
-        <v>0.877</v>
+        <f>[8]table1_region_val!E4</f>
+        <v>0</v>
       </c>
       <c r="C13">
-        <f>[8]table1_region_lower!D4</f>
-        <v>0.64500000000000002</v>
+        <f>[9]table1_region_lower!E4</f>
+        <v>0</v>
       </c>
       <c r="D13">
-        <f>[9]table1_region_upper!D4</f>
-        <v>1.153</v>
+        <f>[10]table1_region_upper!E4</f>
+        <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f>[7]table1_region!E4</f>
-        <v>6.81</v>
+        <f>[8]table1_region_val!F4</f>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f>[8]table1_region_lower!E4</f>
-        <v>5.9</v>
+        <f>[9]table1_region_lower!F4</f>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>[9]table1_region_upper!E4</f>
-        <v>7.6</v>
+        <f>[10]table1_region_upper!F4</f>
+        <v>0</v>
       </c>
       <c r="J13">
-        <f>[7]table1_region!D9</f>
-        <v>1.94</v>
-      </c>
-      <c r="K13" s="4">
-        <f>[8]table1_region_lower!D9</f>
-        <v>1.028</v>
+        <f>[8]table1_region_val!E24</f>
+        <v>0.49</v>
+      </c>
+      <c r="K13">
+        <f>[9]table1_region_lower!E24</f>
+        <v>0.23300000000000001</v>
       </c>
       <c r="L13">
-        <f>[9]table1_region_upper!D9</f>
-        <v>3.0329999999999999</v>
+        <f>[10]table1_region_upper!E24</f>
+        <v>0.98499999999999999</v>
       </c>
       <c r="N13">
-        <f>[7]table1_region!E9</f>
-        <v>15.06</v>
+        <f>[8]table1_region_val!F24</f>
+        <v>6.71</v>
       </c>
       <c r="O13">
-        <f>[8]table1_region_lower!E9</f>
-        <v>9.4</v>
+        <f>[9]table1_region_lower!F24</f>
+        <v>3.39</v>
       </c>
       <c r="P13">
-        <f>[9]table1_region_upper!E9</f>
-        <v>19.98</v>
+        <f>[10]table1_region_upper!F24</f>
+        <v>12.65</v>
       </c>
       <c r="R13">
-        <f>[7]table1_region!D14</f>
-        <v>2.1619999999999999</v>
+        <f>[8]table1_region_val!E44</f>
+        <v>0.63300000000000001</v>
       </c>
       <c r="S13">
-        <f>[8]table1_region_lower!D14</f>
-        <v>1.242</v>
+        <f>[9]table1_region_lower!E44</f>
+        <v>0.53700000000000003</v>
       </c>
       <c r="T13">
-        <f>[9]table1_region_upper!D14</f>
-        <v>3.1920000000000002</v>
+        <f>[10]table1_region_upper!E44</f>
+        <v>0.753</v>
       </c>
       <c r="V13">
-        <f>[7]table1_region!E14</f>
-        <v>16.78</v>
+        <f>[8]table1_region_val!F44</f>
+        <v>8.67</v>
       </c>
       <c r="W13">
-        <f>[8]table1_region_lower!E14</f>
-        <v>11.36</v>
+        <f>[9]table1_region_lower!F44</f>
+        <v>7.81</v>
       </c>
       <c r="X13">
-        <f>[9]table1_region_upper!E14</f>
-        <v>21.03</v>
+        <f>[10]table1_region_upper!F44</f>
+        <v>9.68</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>[7]table1_region!B5</f>
         <v>Americas</v>
       </c>
       <c r="B14">
-        <f>[7]table1_region!D5</f>
-        <v>20.359000000000002</v>
+        <f>[8]table1_region_val!E5</f>
+        <v>0</v>
       </c>
       <c r="C14">
-        <f>[8]table1_region_lower!D5</f>
-        <v>15.061</v>
+        <f>[9]table1_region_lower!E5</f>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f>[9]table1_region_upper!D5</f>
-        <v>26.640999999999998</v>
+        <f>[10]table1_region_upper!E5</f>
+        <v>0</v>
       </c>
       <c r="F14" s="4">
-        <f>[7]table1_region!E5</f>
-        <v>6.68</v>
+        <f>[8]table1_region_val!F5</f>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <f>[8]table1_region_lower!E5</f>
-        <v>5.66</v>
+        <f>[9]table1_region_lower!F5</f>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>[9]table1_region_upper!E5</f>
-        <v>7.65</v>
+        <f>[10]table1_region_upper!F5</f>
+        <v>0</v>
       </c>
       <c r="J14">
-        <f>[7]table1_region!D10</f>
-        <v>48.06</v>
-      </c>
-      <c r="K14" s="4">
-        <f>[8]table1_region_lower!D10</f>
-        <v>24.084</v>
+        <f>[8]table1_region_val!E25</f>
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="K14">
+        <f>[9]table1_region_lower!E25</f>
+        <v>0.11</v>
       </c>
       <c r="L14">
-        <f>[9]table1_region_upper!D10</f>
-        <v>75.671999999999997</v>
+        <f>[10]table1_region_upper!E25</f>
+        <v>0.40699999999999997</v>
       </c>
       <c r="N14">
-        <f>[7]table1_region!E10</f>
-        <v>15.77</v>
+        <f>[8]table1_region_val!F25</f>
+        <v>2.36</v>
       </c>
       <c r="O14">
-        <f>[8]table1_region_lower!E10</f>
-        <v>9.0399999999999991</v>
+        <f>[9]table1_region_lower!F25</f>
+        <v>1.43</v>
       </c>
       <c r="P14">
-        <f>[9]table1_region_upper!E10</f>
-        <v>21.74</v>
+        <f>[10]table1_region_upper!F25</f>
+        <v>3.9</v>
       </c>
       <c r="R14">
-        <f>[7]table1_region!D15</f>
-        <v>54.113999999999997</v>
+        <f>[8]table1_region_val!E45</f>
+        <v>0.56100000000000005</v>
       </c>
       <c r="S14">
-        <f>[8]table1_region_lower!D15</f>
-        <v>30.268000000000001</v>
+        <f>[9]table1_region_lower!E45</f>
+        <v>0.42099999999999999</v>
       </c>
       <c r="T14">
-        <f>[9]table1_region_upper!D15</f>
-        <v>79.807000000000002</v>
+        <f>[10]table1_region_upper!E45</f>
+        <v>0.745</v>
       </c>
       <c r="V14">
-        <f>[7]table1_region!E15</f>
-        <v>17.760000000000002</v>
+        <f>[8]table1_region_val!F45</f>
+        <v>6.26</v>
       </c>
       <c r="W14">
-        <f>[8]table1_region_lower!E15</f>
-        <v>11.37</v>
+        <f>[9]table1_region_lower!F45</f>
+        <v>5.47</v>
       </c>
       <c r="X14">
-        <f>[9]table1_region_upper!E15</f>
-        <v>22.93</v>
+        <f>[10]table1_region_upper!F45</f>
+        <v>7.14</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>[7]table1_region!B6</f>
         <v>Africa</v>
       </c>
       <c r="B15">
-        <f>[7]table1_region!D6</f>
+        <f>[8]table1_region_val!E6</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>[9]table1_region_lower!E6</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>[10]table1_region_upper!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>[8]table1_region_val!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f>[9]table1_region_lower!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>[10]table1_region_upper!F6</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>[8]table1_region_val!E26</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K15">
+        <f>[9]table1_region_lower!E26</f>
+        <v>0.01</v>
+      </c>
+      <c r="L15">
+        <f>[10]table1_region_upper!E26</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N15">
+        <f>[8]table1_region_val!F26</f>
+        <v>7.43</v>
+      </c>
+      <c r="O15">
+        <f>[9]table1_region_lower!F26</f>
+        <v>3.76</v>
+      </c>
+      <c r="P15">
+        <f>[10]table1_region_upper!F26</f>
+        <v>13.86</v>
+      </c>
+      <c r="R15">
+        <f>[8]table1_region_val!E46</f>
+        <v>2.7E-2</v>
+      </c>
+      <c r="S15">
+        <f>[9]table1_region_lower!E46</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="T15">
+        <f>[10]table1_region_upper!E46</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="V15">
+        <f>[8]table1_region_val!F46</f>
+        <v>9.06</v>
+      </c>
+      <c r="W15">
+        <f>[9]table1_region_lower!F46</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="X15">
+        <f>[10]table1_region_upper!F46</f>
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8" t="str">
+        <f>B18</f>
+        <v>DALYs</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="8" t="str">
+        <f>J18</f>
+        <v>DALYs</v>
+      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f>[1]table1_global_val!$D$3</f>
+        <v>125.31100000000001</v>
+      </c>
+      <c r="C20">
+        <f>[2]table1_global_lower!$D$3</f>
+        <v>92.995000000000005</v>
+      </c>
+      <c r="D20">
+        <f>[3]table1_global_upper!$D$3</f>
+        <v>163.178</v>
+      </c>
+      <c r="F20" s="4">
+        <f>[1]table1_global_val!$E$3</f>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G20" s="4">
+        <f>[2]table1_global_lower!$E$3</f>
+        <v>4.07</v>
+      </c>
+      <c r="H20" s="4">
+        <f>[3]table1_global_upper!$E$3</f>
+        <v>5.81</v>
+      </c>
+      <c r="J20">
+        <f>[1]table1_global_val!$D$7</f>
+        <v>300.72699999999998</v>
+      </c>
+      <c r="K20">
+        <f>[2]table1_global_lower!$D$7</f>
+        <v>158.57</v>
+      </c>
+      <c r="L20">
+        <f>[3]table1_global_upper!$D$7</f>
+        <v>468.55</v>
+      </c>
+      <c r="N20">
+        <f>[1]table1_global_val!$E$7</f>
+        <v>11.85</v>
+      </c>
+      <c r="O20">
+        <f>[2]table1_global_lower!$E$7</f>
+        <v>6.94</v>
+      </c>
+      <c r="P20">
+        <f>[3]table1_global_upper!$E$7</f>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="R20">
+        <f>[1]table1_global_val!$D$15</f>
+        <v>358.46600000000001</v>
+      </c>
+      <c r="S20">
+        <f>[2]table1_global_lower!$D$15</f>
+        <v>212.29499999999999</v>
+      </c>
+      <c r="T20">
+        <f>[3]table1_global_upper!$D$15</f>
+        <v>520.76400000000001</v>
+      </c>
+      <c r="V20">
+        <f>[1]table1_global_val!$E$15</f>
+        <v>14.12</v>
+      </c>
+      <c r="W20">
+        <f>[2]table1_global_lower!$E$15</f>
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="X20">
+        <f>[3]table1_global_upper!$E$15</f>
+        <v>18.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <f>[4]table1_income_val!E7</f>
+        <v>24.52</v>
+      </c>
+      <c r="C22">
+        <f>[5]table1_income_lower!E7</f>
+        <v>18.146000000000001</v>
+      </c>
+      <c r="D22">
+        <f>[6]table1_income_upper!E7</f>
+        <v>32.036000000000001</v>
+      </c>
+      <c r="F22">
+        <f>[4]table1_income_val!F7</f>
+        <v>6.68</v>
+      </c>
+      <c r="G22">
+        <f>[5]table1_income_lower!F7</f>
+        <v>5.67</v>
+      </c>
+      <c r="H22">
+        <f>[6]table1_income_upper!F7</f>
+        <v>7.63</v>
+      </c>
+      <c r="J22">
+        <f>[4]table1_income_val!E27</f>
+        <v>66.054000000000002</v>
+      </c>
+      <c r="K22">
+        <f>[5]table1_income_lower!E27</f>
+        <v>32.859000000000002</v>
+      </c>
+      <c r="L22">
+        <f>[6]table1_income_upper!E27</f>
+        <v>105.119</v>
+      </c>
+      <c r="N22">
+        <f>[4]table1_income_val!F27</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="O22">
+        <f>[5]table1_income_lower!F27</f>
+        <v>10.26</v>
+      </c>
+      <c r="P22">
+        <f>[6]table1_income_upper!F27</f>
+        <v>25.05</v>
+      </c>
+      <c r="R22">
+        <f>[4]table1_income_val!E47</f>
+        <v>66.816000000000003</v>
+      </c>
+      <c r="S22">
+        <f>[5]table1_income_lower!E47</f>
+        <v>36.39</v>
+      </c>
+      <c r="T22">
+        <f>[6]table1_income_upper!E47</f>
+        <v>98.707999999999998</v>
+      </c>
+      <c r="V22">
+        <f>[4]table1_income_val!F47</f>
+        <v>18.2</v>
+      </c>
+      <c r="W22">
+        <f>[5]table1_income_lower!F47</f>
+        <v>11.37</v>
+      </c>
+      <c r="X22">
+        <f>[6]table1_income_upper!F47</f>
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f>[4]table1_income_val!E8</f>
+        <v>45.645000000000003</v>
+      </c>
+      <c r="C23">
+        <f>[5]table1_income_lower!E8</f>
+        <v>33.823999999999998</v>
+      </c>
+      <c r="D23">
+        <f>[6]table1_income_upper!E8</f>
+        <v>59.694000000000003</v>
+      </c>
+      <c r="F23">
+        <f>[4]table1_income_val!F8</f>
+        <v>5.57</v>
+      </c>
+      <c r="G23">
+        <f>[5]table1_income_lower!F8</f>
+        <v>4.74</v>
+      </c>
+      <c r="H23">
+        <f>[6]table1_income_upper!F8</f>
+        <v>6.4</v>
+      </c>
+      <c r="J23">
+        <f>[4]table1_income_val!E28</f>
+        <v>110.012</v>
+      </c>
+      <c r="K23">
+        <f>[5]table1_income_lower!E28</f>
+        <v>54.555</v>
+      </c>
+      <c r="L23">
+        <f>[6]table1_income_upper!E28</f>
+        <v>177.09700000000001</v>
+      </c>
+      <c r="N23">
+        <f>[4]table1_income_val!F28</f>
+        <v>13.43</v>
+      </c>
+      <c r="O23">
+        <f>[5]table1_income_lower!F28</f>
+        <v>7.64</v>
+      </c>
+      <c r="P23">
+        <f>[6]table1_income_upper!F28</f>
+        <v>18.98</v>
+      </c>
+      <c r="R23">
+        <f>[4]table1_income_val!E48</f>
+        <v>124.20099999999999</v>
+      </c>
+      <c r="S23">
+        <f>[5]table1_income_lower!E48</f>
+        <v>68.236999999999995</v>
+      </c>
+      <c r="T23">
+        <f>[6]table1_income_upper!E48</f>
+        <v>186.78399999999999</v>
+      </c>
+      <c r="V23">
+        <f>[4]table1_income_val!F48</f>
+        <v>15.16</v>
+      </c>
+      <c r="W23">
+        <f>[5]table1_income_lower!F48</f>
+        <v>9.56</v>
+      </c>
+      <c r="X23">
+        <f>[6]table1_income_upper!F48</f>
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <f>[4]table1_income_val!E9</f>
+        <v>44.924999999999997</v>
+      </c>
+      <c r="C24">
+        <f>[5]table1_income_lower!E9</f>
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <f>[6]table1_income_upper!E9</f>
+        <v>58.929000000000002</v>
+      </c>
+      <c r="F24">
+        <f>[4]table1_income_val!F9</f>
+        <v>4.28</v>
+      </c>
+      <c r="G24">
+        <f>[5]table1_income_lower!F9</f>
+        <v>3.59</v>
+      </c>
+      <c r="H24">
+        <f>[6]table1_income_upper!F9</f>
+        <v>4.93</v>
+      </c>
+      <c r="J24">
+        <f>[4]table1_income_val!E29</f>
+        <v>105.06699999999999</v>
+      </c>
+      <c r="K24">
+        <f>[5]table1_income_lower!E29</f>
+        <v>55.308</v>
+      </c>
+      <c r="L24">
+        <f>[6]table1_income_upper!E29</f>
+        <v>165.34200000000001</v>
+      </c>
+      <c r="N24">
+        <f>[4]table1_income_val!F29</f>
+        <v>10.02</v>
+      </c>
+      <c r="O24">
+        <f>[5]table1_income_lower!F29</f>
+        <v>6.02</v>
+      </c>
+      <c r="P24">
+        <f>[6]table1_income_upper!F29</f>
+        <v>13.83</v>
+      </c>
+      <c r="R24">
+        <f>[4]table1_income_val!E49</f>
+        <v>132.161</v>
+      </c>
+      <c r="S24">
+        <f>[5]table1_income_lower!E49</f>
+        <v>76.222999999999999</v>
+      </c>
+      <c r="T24">
+        <f>[6]table1_income_upper!E49</f>
+        <v>197.64400000000001</v>
+      </c>
+      <c r="V24">
+        <f>[4]table1_income_val!F49</f>
+        <v>12.6</v>
+      </c>
+      <c r="W24">
+        <f>[5]table1_income_lower!F49</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="X24">
+        <f>[6]table1_income_upper!F49</f>
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <f>[4]table1_income_val!E10</f>
+        <v>10.146000000000001</v>
+      </c>
+      <c r="C25">
+        <f>[5]table1_income_lower!E10</f>
+        <v>7.3680000000000003</v>
+      </c>
+      <c r="D25">
+        <f>[6]table1_income_upper!E10</f>
+        <v>13.468</v>
+      </c>
+      <c r="F25">
+        <f>[4]table1_income_val!F10</f>
+        <v>3.36</v>
+      </c>
+      <c r="G25">
+        <f>[5]table1_income_lower!F10</f>
+        <v>2.85</v>
+      </c>
+      <c r="H25">
+        <f>[6]table1_income_upper!F10</f>
+        <v>3.82</v>
+      </c>
+      <c r="J25">
+        <f>[4]table1_income_val!E30</f>
+        <v>19.427</v>
+      </c>
+      <c r="K25">
+        <f>[5]table1_income_lower!E30</f>
+        <v>10.48</v>
+      </c>
+      <c r="L25">
+        <f>[6]table1_income_upper!E30</f>
+        <v>30.821000000000002</v>
+      </c>
+      <c r="N25">
+        <f>[4]table1_income_val!F30</f>
+        <v>6.44</v>
+      </c>
+      <c r="O25">
+        <f>[5]table1_income_lower!F30</f>
+        <v>4.05</v>
+      </c>
+      <c r="P25">
+        <f>[6]table1_income_upper!F30</f>
+        <v>8.74</v>
+      </c>
+      <c r="R25">
+        <f>[4]table1_income_val!E50</f>
+        <v>31.835000000000001</v>
+      </c>
+      <c r="S25">
+        <f>[5]table1_income_lower!E50</f>
+        <v>19.614000000000001</v>
+      </c>
+      <c r="T25">
+        <f>[6]table1_income_upper!E50</f>
+        <v>47.482999999999997</v>
+      </c>
+      <c r="V25">
+        <f>[4]table1_income_val!F50</f>
+        <v>10.55</v>
+      </c>
+      <c r="W25">
+        <f>[5]table1_income_lower!F50</f>
+        <v>7.59</v>
+      </c>
+      <c r="X25">
+        <f>[6]table1_income_upper!F50</f>
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>A11</f>
+        <v>Europe</v>
+      </c>
+      <c r="B27">
+        <f>[8]table1_region_val!E7</f>
+        <v>14.439</v>
+      </c>
+      <c r="C27">
+        <f>[9]table1_region_lower!E7</f>
+        <v>10.643000000000001</v>
+      </c>
+      <c r="D27">
+        <f>[10]table1_region_upper!E7</f>
+        <v>18.937000000000001</v>
+      </c>
+      <c r="F27" s="4">
+        <f>[8]table1_region_val!F7</f>
+        <v>5.69</v>
+      </c>
+      <c r="G27" s="4">
+        <f>[9]table1_region_lower!F7</f>
+        <v>4.8</v>
+      </c>
+      <c r="H27" s="4">
+        <f>[10]table1_region_upper!F7</f>
+        <v>6.52</v>
+      </c>
+      <c r="J27">
+        <f>[8]table1_region_val!E27</f>
+        <v>39.512999999999998</v>
+      </c>
+      <c r="K27">
+        <f>[9]table1_region_lower!E27</f>
+        <v>20.509</v>
+      </c>
+      <c r="L27">
+        <f>[10]table1_region_upper!E27</f>
+        <v>63.347999999999999</v>
+      </c>
+      <c r="N27">
+        <f>[8]table1_region_val!F27</f>
+        <v>15.56</v>
+      </c>
+      <c r="O27">
+        <f>[9]table1_region_lower!F27</f>
+        <v>9.25</v>
+      </c>
+      <c r="P27">
+        <f>[10]table1_region_upper!F27</f>
+        <v>21.82</v>
+      </c>
+      <c r="R27">
+        <f>[8]table1_region_val!E47</f>
+        <v>41.031999999999996</v>
+      </c>
+      <c r="S27">
+        <f>[9]table1_region_lower!E47</f>
+        <v>23.170999999999999</v>
+      </c>
+      <c r="T27">
+        <f>[10]table1_region_upper!E47</f>
+        <v>60.942999999999998</v>
+      </c>
+      <c r="V27">
+        <f>[8]table1_region_val!F47</f>
+        <v>16.16</v>
+      </c>
+      <c r="W27">
+        <f>[9]table1_region_lower!F47</f>
+        <v>10.45</v>
+      </c>
+      <c r="X27">
+        <f>[10]table1_region_upper!F47</f>
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>A12</f>
+        <v>Asia</v>
+      </c>
+      <c r="B28">
+        <f>[8]table1_region_val!E8</f>
+        <v>70.012</v>
+      </c>
+      <c r="C28">
+        <f>[9]table1_region_lower!E8</f>
+        <v>51.761000000000003</v>
+      </c>
+      <c r="D28">
+        <f>[10]table1_region_upper!E8</f>
+        <v>91.448999999999998</v>
+      </c>
+      <c r="F28" s="4">
+        <f>[8]table1_region_val!F8</f>
+        <v>5.04</v>
+      </c>
+      <c r="G28" s="4">
+        <f>[9]table1_region_lower!F8</f>
+        <v>4.25</v>
+      </c>
+      <c r="H28" s="4">
+        <f>[10]table1_region_upper!F8</f>
+        <v>5.79</v>
+      </c>
+      <c r="J28">
+        <f>[8]table1_region_val!E28</f>
+        <v>172.024</v>
+      </c>
+      <c r="K28">
+        <f>[9]table1_region_lower!E28</f>
+        <v>87.001999999999995</v>
+      </c>
+      <c r="L28">
+        <f>[10]table1_region_upper!E28</f>
+        <v>273.88600000000002</v>
+      </c>
+      <c r="N28">
+        <f>[8]table1_region_val!F28</f>
+        <v>12.37</v>
+      </c>
+      <c r="O28">
+        <f>[9]table1_region_lower!F28</f>
+        <v>7.15</v>
+      </c>
+      <c r="P28">
+        <f>[10]table1_region_upper!F28</f>
+        <v>17.329999999999998</v>
+      </c>
+      <c r="R28">
+        <f>[8]table1_region_val!E48</f>
+        <v>197.46899999999999</v>
+      </c>
+      <c r="S28">
+        <f>[9]table1_region_lower!E48</f>
+        <v>109.18</v>
+      </c>
+      <c r="T28">
+        <f>[10]table1_region_upper!E48</f>
+        <v>296.53699999999998</v>
+      </c>
+      <c r="V28">
+        <f>[8]table1_region_val!F48</f>
+        <v>14.21</v>
+      </c>
+      <c r="W28">
+        <f>[9]table1_region_lower!F48</f>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="X28">
+        <f>[10]table1_region_upper!F48</f>
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>A13</f>
+        <v>Oceania</v>
+      </c>
+      <c r="B29">
+        <f>[8]table1_region_val!E9</f>
+        <v>0.877</v>
+      </c>
+      <c r="C29">
+        <f>[9]table1_region_lower!E9</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D29">
+        <f>[10]table1_region_upper!E9</f>
+        <v>1.153</v>
+      </c>
+      <c r="F29" s="4">
+        <f>[8]table1_region_val!F9</f>
+        <v>6.81</v>
+      </c>
+      <c r="G29" s="4">
+        <f>[9]table1_region_lower!F9</f>
+        <v>5.9</v>
+      </c>
+      <c r="H29" s="4">
+        <f>[10]table1_region_upper!F9</f>
+        <v>7.6</v>
+      </c>
+      <c r="J29">
+        <f>[8]table1_region_val!E29</f>
+        <v>1.94</v>
+      </c>
+      <c r="K29">
+        <f>[9]table1_region_lower!E29</f>
+        <v>1.028</v>
+      </c>
+      <c r="L29">
+        <f>[10]table1_region_upper!E29</f>
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="N29">
+        <f>[8]table1_region_val!F29</f>
+        <v>15.06</v>
+      </c>
+      <c r="O29">
+        <f>[9]table1_region_lower!F29</f>
+        <v>9.4</v>
+      </c>
+      <c r="P29">
+        <f>[10]table1_region_upper!F29</f>
+        <v>19.98</v>
+      </c>
+      <c r="R29">
+        <f>[8]table1_region_val!E49</f>
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="S29">
+        <f>[9]table1_region_lower!E49</f>
+        <v>1.242</v>
+      </c>
+      <c r="T29">
+        <f>[10]table1_region_upper!E49</f>
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="V29">
+        <f>[8]table1_region_val!F49</f>
+        <v>16.78</v>
+      </c>
+      <c r="W29">
+        <f>[9]table1_region_lower!F49</f>
+        <v>11.36</v>
+      </c>
+      <c r="X29">
+        <f>[10]table1_region_upper!F49</f>
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>A14</f>
+        <v>Americas</v>
+      </c>
+      <c r="B30">
+        <f>[8]table1_region_val!E10</f>
+        <v>20.359000000000002</v>
+      </c>
+      <c r="C30">
+        <f>[9]table1_region_lower!E10</f>
+        <v>15.061</v>
+      </c>
+      <c r="D30">
+        <f>[10]table1_region_upper!E10</f>
+        <v>26.640999999999998</v>
+      </c>
+      <c r="F30" s="4">
+        <f>[8]table1_region_val!F10</f>
+        <v>6.68</v>
+      </c>
+      <c r="G30" s="4">
+        <f>[9]table1_region_lower!F10</f>
+        <v>5.66</v>
+      </c>
+      <c r="H30" s="4">
+        <f>[10]table1_region_upper!F10</f>
+        <v>7.65</v>
+      </c>
+      <c r="J30">
+        <f>[8]table1_region_val!E30</f>
+        <v>48.06</v>
+      </c>
+      <c r="K30">
+        <f>[9]table1_region_lower!E30</f>
+        <v>24.084</v>
+      </c>
+      <c r="L30">
+        <f>[10]table1_region_upper!E30</f>
+        <v>75.671999999999997</v>
+      </c>
+      <c r="N30">
+        <f>[8]table1_region_val!F30</f>
+        <v>15.77</v>
+      </c>
+      <c r="O30">
+        <f>[9]table1_region_lower!F30</f>
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="P30">
+        <f>[10]table1_region_upper!F30</f>
+        <v>21.74</v>
+      </c>
+      <c r="R30">
+        <f>[8]table1_region_val!E50</f>
+        <v>54.113999999999997</v>
+      </c>
+      <c r="S30">
+        <f>[9]table1_region_lower!E50</f>
+        <v>30.268000000000001</v>
+      </c>
+      <c r="T30">
+        <f>[10]table1_region_upper!E50</f>
+        <v>79.807000000000002</v>
+      </c>
+      <c r="V30">
+        <f>[8]table1_region_val!F50</f>
+        <v>17.760000000000002</v>
+      </c>
+      <c r="W30">
+        <f>[9]table1_region_lower!F50</f>
+        <v>11.37</v>
+      </c>
+      <c r="X30">
+        <f>[10]table1_region_upper!F50</f>
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>A15</f>
+        <v>Africa</v>
+      </c>
+      <c r="B31">
+        <f>[8]table1_region_val!E11</f>
         <v>19.547999999999998</v>
       </c>
-      <c r="C15">
-        <f>[8]table1_region_lower!D6</f>
+      <c r="C31">
+        <f>[9]table1_region_lower!E11</f>
         <v>14.228</v>
       </c>
-      <c r="D15">
-        <f>[9]table1_region_upper!D6</f>
+      <c r="D31">
+        <f>[10]table1_region_upper!E11</f>
         <v>25.948</v>
       </c>
-      <c r="F15" s="4">
-        <f>[7]table1_region!E6</f>
+      <c r="F31" s="4">
+        <f>[8]table1_region_val!F11</f>
         <v>3.4</v>
       </c>
-      <c r="G15" s="4">
-        <f>[8]table1_region_lower!E6</f>
+      <c r="G31" s="4">
+        <f>[9]table1_region_lower!F11</f>
         <v>2.87</v>
       </c>
-      <c r="H15" s="4">
-        <f>[9]table1_region_upper!E6</f>
+      <c r="H31" s="4">
+        <f>[10]table1_region_upper!F11</f>
         <v>3.89</v>
       </c>
-      <c r="J15">
-        <f>[7]table1_region!D11</f>
+      <c r="J31">
+        <f>[8]table1_region_val!E31</f>
         <v>39.023000000000003</v>
       </c>
-      <c r="K15" s="4">
-        <f>[8]table1_region_lower!D11</f>
+      <c r="K31">
+        <f>[9]table1_region_lower!E31</f>
         <v>20.579000000000001</v>
       </c>
-      <c r="L15">
-        <f>[9]table1_region_upper!D11</f>
+      <c r="L31">
+        <f>[10]table1_region_upper!E31</f>
         <v>62.441000000000003</v>
       </c>
-      <c r="N15">
-        <f>[7]table1_region!E11</f>
+      <c r="N31">
+        <f>[8]table1_region_val!F31</f>
         <v>6.79</v>
       </c>
-      <c r="O15">
-        <f>[8]table1_region_lower!E11</f>
+      <c r="O31">
+        <f>[9]table1_region_lower!F31</f>
         <v>4.16</v>
       </c>
-      <c r="P15">
-        <f>[9]table1_region_upper!E11</f>
+      <c r="P31">
+        <f>[10]table1_region_upper!F31</f>
         <v>9.36</v>
       </c>
-      <c r="R15">
-        <f>[7]table1_region!D16</f>
+      <c r="R31">
+        <f>[8]table1_region_val!E51</f>
         <v>60.235999999999997</v>
       </c>
-      <c r="S15">
-        <f>[8]table1_region_lower!D16</f>
+      <c r="S31">
+        <f>[9]table1_region_lower!E51</f>
         <v>36.603000000000002</v>
       </c>
-      <c r="T15">
-        <f>[9]table1_region_upper!D16</f>
+      <c r="T31">
+        <f>[10]table1_region_upper!E51</f>
         <v>90.141999999999996</v>
       </c>
-      <c r="V15">
-        <f>[7]table1_region!E16</f>
+      <c r="V31">
+        <f>[8]table1_region_val!F51</f>
         <v>10.48</v>
       </c>
-      <c r="W15">
-        <f>[8]table1_region_lower!E16</f>
+      <c r="W31">
+        <f>[9]table1_region_lower!F51</f>
         <v>7.39</v>
       </c>
-      <c r="X15">
-        <f>[9]table1_region_upper!E16</f>
+      <c r="X31">
+        <f>[10]table1_region_upper!F51</f>
         <v>13.51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8" t="str">
+        <f>B34</f>
+        <v>YLDs</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="8" t="str">
+        <f>B34</f>
+        <v>YLDs</v>
+      </c>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f>[1]table1_global_val!$D$4</f>
+        <v>125.294</v>
+      </c>
+      <c r="C36">
+        <f>[2]table1_global_lower!$D$4</f>
+        <v>92.977999999999994</v>
+      </c>
+      <c r="D36">
+        <f>[3]table1_global_upper!$D$4</f>
+        <v>163.16200000000001</v>
+      </c>
+      <c r="F36" s="4">
+        <f>[1]table1_global_val!$E$4</f>
+        <v>14.55</v>
+      </c>
+      <c r="G36" s="4">
+        <f>[2]table1_global_lower!$E$4</f>
+        <v>14.52</v>
+      </c>
+      <c r="H36" s="4">
+        <f>[3]table1_global_upper!$E$4</f>
+        <v>14.74</v>
+      </c>
+      <c r="J36">
+        <f>[1]table1_global_val!$D$8</f>
+        <v>238.31200000000001</v>
+      </c>
+      <c r="K36">
+        <f>[2]table1_global_lower!$D$8</f>
+        <v>112.33199999999999</v>
+      </c>
+      <c r="L36">
+        <f>[3]table1_global_upper!$D$8</f>
+        <v>375.85300000000001</v>
+      </c>
+      <c r="N36">
+        <f>[1]table1_global_val!$E$8</f>
+        <v>27.68</v>
+      </c>
+      <c r="O36">
+        <f>[2]table1_global_lower!$E$8</f>
+        <v>17.54</v>
+      </c>
+      <c r="P36">
+        <f>[3]table1_global_upper!$E$8</f>
+        <v>33.950000000000003</v>
+      </c>
+      <c r="R36">
+        <f>[1]table1_global_val!$D$16</f>
+        <v>238.31200000000001</v>
+      </c>
+      <c r="S36">
+        <f>[2]table1_global_lower!$D$16</f>
+        <v>112.33199999999999</v>
+      </c>
+      <c r="T36">
+        <f>[3]table1_global_upper!$D$16</f>
+        <v>375.85300000000001</v>
+      </c>
+      <c r="V36">
+        <f>[1]table1_global_val!$E$16</f>
+        <v>27.68</v>
+      </c>
+      <c r="W36">
+        <f>[2]table1_global_lower!$E$16</f>
+        <v>17.54</v>
+      </c>
+      <c r="X36">
+        <f>[3]table1_global_upper!$E$16</f>
+        <v>33.950000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <f>[4]table1_income_val!E12</f>
+        <v>24.51</v>
+      </c>
+      <c r="C38">
+        <f>[5]table1_income_lower!E12</f>
+        <v>18.135999999999999</v>
+      </c>
+      <c r="D38">
+        <f>[6]table1_income_upper!E12</f>
+        <v>32.026000000000003</v>
+      </c>
+      <c r="F38">
+        <f>[4]table1_income_val!F12</f>
+        <v>14.12</v>
+      </c>
+      <c r="G38">
+        <f>[5]table1_income_lower!F12</f>
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <f>[6]table1_income_upper!F12</f>
+        <v>14.34</v>
+      </c>
+      <c r="J38">
+        <f>[4]table1_income_val!E32</f>
+        <v>50.798999999999999</v>
+      </c>
+      <c r="K38">
+        <f>[5]table1_income_lower!E32</f>
+        <v>22.64</v>
+      </c>
+      <c r="L38">
+        <f>[6]table1_income_upper!E32</f>
+        <v>79.933000000000007</v>
+      </c>
+      <c r="N38">
+        <f>[4]table1_income_val!F32</f>
+        <v>29.26</v>
+      </c>
+      <c r="O38">
+        <f>[5]table1_income_lower!F32</f>
+        <v>17.48</v>
+      </c>
+      <c r="P38">
+        <f>[6]table1_income_upper!F32</f>
+        <v>35.79</v>
+      </c>
+      <c r="R38">
+        <f>[4]table1_income_val!E52</f>
+        <v>50.798999999999999</v>
+      </c>
+      <c r="S38">
+        <f>[5]table1_income_lower!E52</f>
+        <v>22.64</v>
+      </c>
+      <c r="T38">
+        <f>[6]table1_income_upper!E52</f>
+        <v>79.933000000000007</v>
+      </c>
+      <c r="V38">
+        <f>[4]table1_income_val!F52</f>
+        <v>29.26</v>
+      </c>
+      <c r="W38">
+        <f>[5]table1_income_lower!F52</f>
+        <v>17.48</v>
+      </c>
+      <c r="X38">
+        <f>[6]table1_income_upper!F52</f>
+        <v>35.79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <f>[4]table1_income_val!E13</f>
+        <v>45.640999999999998</v>
+      </c>
+      <c r="C39">
+        <f>[5]table1_income_lower!E13</f>
+        <v>33.82</v>
+      </c>
+      <c r="D39">
+        <f>[6]table1_income_upper!E13</f>
+        <v>59.689</v>
+      </c>
+      <c r="F39">
+        <f>[4]table1_income_val!F13</f>
+        <v>14.49</v>
+      </c>
+      <c r="G39">
+        <f>[5]table1_income_lower!F13</f>
+        <v>14.39</v>
+      </c>
+      <c r="H39">
+        <f>[6]table1_income_upper!F13</f>
+        <v>14.62</v>
+      </c>
+      <c r="J39">
+        <f>[4]table1_income_val!E33</f>
+        <v>89.167000000000002</v>
+      </c>
+      <c r="K39">
+        <f>[5]table1_income_lower!E33</f>
+        <v>40.927999999999997</v>
+      </c>
+      <c r="L39">
+        <f>[6]table1_income_upper!E33</f>
+        <v>142.15700000000001</v>
+      </c>
+      <c r="N39">
+        <f>[4]table1_income_val!F33</f>
+        <v>28.31</v>
+      </c>
+      <c r="O39">
+        <f>[5]table1_income_lower!F33</f>
+        <v>17.420000000000002</v>
+      </c>
+      <c r="P39">
+        <f>[6]table1_income_upper!F33</f>
+        <v>34.82</v>
+      </c>
+      <c r="R39">
+        <f>[4]table1_income_val!E53</f>
+        <v>89.167000000000002</v>
+      </c>
+      <c r="S39">
+        <f>[5]table1_income_lower!E53</f>
+        <v>40.927999999999997</v>
+      </c>
+      <c r="T39">
+        <f>[6]table1_income_upper!E53</f>
+        <v>142.15700000000001</v>
+      </c>
+      <c r="V39">
+        <f>[4]table1_income_val!F53</f>
+        <v>28.31</v>
+      </c>
+      <c r="W39">
+        <f>[5]table1_income_lower!F53</f>
+        <v>17.420000000000002</v>
+      </c>
+      <c r="X39">
+        <f>[6]table1_income_upper!F53</f>
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <f>[4]table1_income_val!E14</f>
+        <v>44.921999999999997</v>
+      </c>
+      <c r="C40">
+        <f>[5]table1_income_lower!E14</f>
+        <v>32.997999999999998</v>
+      </c>
+      <c r="D40">
+        <f>[6]table1_income_upper!E14</f>
+        <v>58.923999999999999</v>
+      </c>
+      <c r="F40">
+        <f>[4]table1_income_val!F14</f>
+        <v>14.47</v>
+      </c>
+      <c r="G40">
+        <f>[5]table1_income_lower!F14</f>
+        <v>14.31</v>
+      </c>
+      <c r="H40">
+        <f>[6]table1_income_upper!F14</f>
+        <v>14.61</v>
+      </c>
+      <c r="J40">
+        <f>[4]table1_income_val!E34</f>
+        <v>82.046999999999997</v>
+      </c>
+      <c r="K40">
+        <f>[5]table1_income_lower!E34</f>
+        <v>38.281999999999996</v>
+      </c>
+      <c r="L40">
+        <f>[6]table1_income_upper!E34</f>
+        <v>132.411</v>
+      </c>
+      <c r="N40">
+        <f>[4]table1_income_val!F34</f>
+        <v>26.43</v>
+      </c>
+      <c r="O40">
+        <f>[5]table1_income_lower!F34</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P40">
+        <f>[6]table1_income_upper!F34</f>
+        <v>32.83</v>
+      </c>
+      <c r="R40">
+        <f>[4]table1_income_val!E54</f>
+        <v>82.046999999999997</v>
+      </c>
+      <c r="S40">
+        <f>[5]table1_income_lower!E54</f>
+        <v>38.281999999999996</v>
+      </c>
+      <c r="T40">
+        <f>[6]table1_income_upper!E54</f>
+        <v>132.411</v>
+      </c>
+      <c r="V40">
+        <f>[4]table1_income_val!F54</f>
+        <v>26.43</v>
+      </c>
+      <c r="W40">
+        <f>[5]table1_income_lower!F54</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="X40">
+        <f>[6]table1_income_upper!F54</f>
+        <v>32.83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <f>[4]table1_income_val!E15</f>
+        <v>10.146000000000001</v>
+      </c>
+      <c r="C41">
+        <f>[5]table1_income_lower!E15</f>
+        <v>7.3680000000000003</v>
+      </c>
+      <c r="D41">
+        <f>[6]table1_income_upper!E15</f>
+        <v>13.468</v>
+      </c>
+      <c r="F41">
+        <f>[4]table1_income_val!F15</f>
+        <v>16.5</v>
+      </c>
+      <c r="G41">
+        <f>[5]table1_income_lower!F15</f>
+        <v>16.28</v>
+      </c>
+      <c r="H41">
+        <f>[6]table1_income_upper!F15</f>
+        <v>16.75</v>
+      </c>
+      <c r="J41">
+        <f>[4]table1_income_val!E35</f>
+        <v>16.161999999999999</v>
+      </c>
+      <c r="K41">
+        <f>[5]table1_income_lower!E35</f>
+        <v>8.23</v>
+      </c>
+      <c r="L41">
+        <f>[6]table1_income_upper!E35</f>
+        <v>25.939</v>
+      </c>
+      <c r="N41">
+        <f>[4]table1_income_val!F35</f>
+        <v>26.28</v>
+      </c>
+      <c r="O41">
+        <f>[5]table1_income_lower!F35</f>
+        <v>18.18</v>
+      </c>
+      <c r="P41">
+        <f>[6]table1_income_upper!F35</f>
+        <v>32.26</v>
+      </c>
+      <c r="R41">
+        <f>[4]table1_income_val!E55</f>
+        <v>16.161999999999999</v>
+      </c>
+      <c r="S41">
+        <f>[5]table1_income_lower!E55</f>
+        <v>8.23</v>
+      </c>
+      <c r="T41">
+        <f>[6]table1_income_upper!E55</f>
+        <v>25.939</v>
+      </c>
+      <c r="V41">
+        <f>[4]table1_income_val!F55</f>
+        <v>26.28</v>
+      </c>
+      <c r="W41">
+        <f>[5]table1_income_lower!F55</f>
+        <v>18.18</v>
+      </c>
+      <c r="X41">
+        <f>[6]table1_income_upper!F55</f>
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>A27</f>
+        <v>Europe</v>
+      </c>
+      <c r="B43">
+        <f>[8]table1_region_val!E12</f>
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C43">
+        <f>[9]table1_region_lower!E12</f>
+        <v>10.638</v>
+      </c>
+      <c r="D43">
+        <f>[10]table1_region_upper!E12</f>
+        <v>18.931999999999999</v>
+      </c>
+      <c r="F43" s="4">
+        <f>[8]table1_region_val!F12</f>
+        <v>14.11</v>
+      </c>
+      <c r="G43" s="4">
+        <f>[9]table1_region_lower!F12</f>
+        <v>14</v>
+      </c>
+      <c r="H43" s="4">
+        <f>[10]table1_region_upper!F12</f>
+        <v>14.32</v>
+      </c>
+      <c r="J43">
+        <f>[8]table1_region_val!E32</f>
+        <v>29.436</v>
+      </c>
+      <c r="K43">
+        <f>[9]table1_region_lower!E32</f>
+        <v>13.65</v>
+      </c>
+      <c r="L43">
+        <f>[10]table1_region_upper!E32</f>
+        <v>46.777999999999999</v>
+      </c>
+      <c r="N43">
+        <f>[8]table1_region_val!F32</f>
+        <v>28.78</v>
+      </c>
+      <c r="O43">
+        <f>[9]table1_region_lower!F32</f>
+        <v>17.96</v>
+      </c>
+      <c r="P43">
+        <f>[10]table1_region_upper!F32</f>
+        <v>35.380000000000003</v>
+      </c>
+      <c r="R43">
+        <f>[8]table1_region_val!E52</f>
+        <v>29.436</v>
+      </c>
+      <c r="S43">
+        <f>[9]table1_region_lower!E52</f>
+        <v>13.65</v>
+      </c>
+      <c r="T43">
+        <f>[10]table1_region_upper!E52</f>
+        <v>46.777999999999999</v>
+      </c>
+      <c r="V43">
+        <f>[8]table1_region_val!F52</f>
+        <v>28.78</v>
+      </c>
+      <c r="W43">
+        <f>[9]table1_region_lower!F52</f>
+        <v>17.96</v>
+      </c>
+      <c r="X43">
+        <f>[10]table1_region_upper!F52</f>
+        <v>35.380000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>A28</f>
+        <v>Asia</v>
+      </c>
+      <c r="B44">
+        <f>[8]table1_region_val!E13</f>
+        <v>70.004000000000005</v>
+      </c>
+      <c r="C44">
+        <f>[9]table1_region_lower!E13</f>
+        <v>51.753999999999998</v>
+      </c>
+      <c r="D44">
+        <f>[10]table1_region_upper!E13</f>
+        <v>91.438000000000002</v>
+      </c>
+      <c r="F44" s="4">
+        <f>[8]table1_region_val!F13</f>
+        <v>13.97</v>
+      </c>
+      <c r="G44" s="4">
+        <f>[9]table1_region_lower!F13</f>
+        <v>13.86</v>
+      </c>
+      <c r="H44" s="4">
+        <f>[10]table1_region_upper!F13</f>
+        <v>14.07</v>
+      </c>
+      <c r="J44">
+        <f>[8]table1_region_val!E33</f>
+        <v>135.41499999999999</v>
+      </c>
+      <c r="K44">
+        <f>[9]table1_region_lower!E33</f>
+        <v>61.621000000000002</v>
+      </c>
+      <c r="L44">
+        <f>[10]table1_region_upper!E33</f>
+        <v>217.00700000000001</v>
+      </c>
+      <c r="N44">
+        <f>[8]table1_region_val!F33</f>
+        <v>27.03</v>
+      </c>
+      <c r="O44">
+        <f>[9]table1_region_lower!F33</f>
+        <v>16.5</v>
+      </c>
+      <c r="P44">
+        <f>[10]table1_region_upper!F33</f>
+        <v>33.4</v>
+      </c>
+      <c r="R44">
+        <f>[8]table1_region_val!E53</f>
+        <v>135.41499999999999</v>
+      </c>
+      <c r="S44">
+        <f>[9]table1_region_lower!E53</f>
+        <v>61.621000000000002</v>
+      </c>
+      <c r="T44">
+        <f>[10]table1_region_upper!E53</f>
+        <v>217.00700000000001</v>
+      </c>
+      <c r="V44">
+        <f>[8]table1_region_val!F53</f>
+        <v>27.03</v>
+      </c>
+      <c r="W44">
+        <f>[9]table1_region_lower!F53</f>
+        <v>16.5</v>
+      </c>
+      <c r="X44">
+        <f>[10]table1_region_upper!F53</f>
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>A29</f>
+        <v>Oceania</v>
+      </c>
+      <c r="B45">
+        <f>[8]table1_region_val!E14</f>
+        <v>20.356000000000002</v>
+      </c>
+      <c r="C45">
+        <f>[9]table1_region_lower!E14</f>
+        <v>15.058</v>
+      </c>
+      <c r="D45">
+        <f>[10]table1_region_upper!E14</f>
+        <v>26.638000000000002</v>
+      </c>
+      <c r="F45" s="4">
+        <f>[8]table1_region_val!F14</f>
+        <v>15.62</v>
+      </c>
+      <c r="G45" s="4">
+        <f>[9]table1_region_lower!F14</f>
+        <v>15.48</v>
+      </c>
+      <c r="H45" s="4">
+        <f>[10]table1_region_upper!F14</f>
+        <v>15.88</v>
+      </c>
+      <c r="J45">
+        <f>[8]table1_region_val!E34</f>
+        <v>39.125999999999998</v>
+      </c>
+      <c r="K45">
+        <f>[9]table1_region_lower!E34</f>
+        <v>17.811</v>
+      </c>
+      <c r="L45">
+        <f>[10]table1_region_upper!E34</f>
+        <v>61.576999999999998</v>
+      </c>
+      <c r="N45">
+        <f>[8]table1_region_val!F34</f>
+        <v>30.02</v>
+      </c>
+      <c r="O45">
+        <f>[9]table1_region_lower!F34</f>
+        <v>18.309999999999999</v>
+      </c>
+      <c r="P45">
+        <f>[10]table1_region_upper!F34</f>
+        <v>36.71</v>
+      </c>
+      <c r="R45">
+        <f>[8]table1_region_val!E54</f>
+        <v>39.125999999999998</v>
+      </c>
+      <c r="S45">
+        <f>[9]table1_region_lower!E54</f>
+        <v>17.811</v>
+      </c>
+      <c r="T45">
+        <f>[10]table1_region_upper!E54</f>
+        <v>61.576999999999998</v>
+      </c>
+      <c r="V45">
+        <f>[8]table1_region_val!F54</f>
+        <v>30.02</v>
+      </c>
+      <c r="W45">
+        <f>[9]table1_region_lower!F54</f>
+        <v>18.309999999999999</v>
+      </c>
+      <c r="X45">
+        <f>[10]table1_region_upper!F54</f>
+        <v>36.71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>A30</f>
+        <v>Americas</v>
+      </c>
+      <c r="B46">
+        <f>[8]table1_region_val!E15</f>
+        <v>19.547999999999998</v>
+      </c>
+      <c r="C46">
+        <f>[9]table1_region_lower!E15</f>
+        <v>14.227</v>
+      </c>
+      <c r="D46">
+        <f>[10]table1_region_upper!E15</f>
+        <v>25.946999999999999</v>
+      </c>
+      <c r="F46" s="4">
+        <f>[8]table1_region_val!F15</f>
+        <v>16.079999999999998</v>
+      </c>
+      <c r="G46" s="4">
+        <f>[9]table1_region_lower!F15</f>
+        <v>15.86</v>
+      </c>
+      <c r="H46" s="4">
+        <f>[10]table1_region_upper!F15</f>
+        <v>16.329999999999998</v>
+      </c>
+      <c r="J46">
+        <f>[8]table1_region_val!E35</f>
+        <v>32.655999999999999</v>
+      </c>
+      <c r="K46">
+        <f>[9]table1_region_lower!E35</f>
+        <v>16.251000000000001</v>
+      </c>
+      <c r="L46">
+        <f>[10]table1_region_upper!E35</f>
+        <v>52.677999999999997</v>
+      </c>
+      <c r="N46">
+        <f>[8]table1_region_val!F35</f>
+        <v>26.86</v>
+      </c>
+      <c r="O46">
+        <f>[9]table1_region_lower!F35</f>
+        <v>18.11</v>
+      </c>
+      <c r="P46">
+        <f>[10]table1_region_upper!F35</f>
+        <v>33.159999999999997</v>
+      </c>
+      <c r="R46">
+        <f>[8]table1_region_val!E55</f>
+        <v>32.655999999999999</v>
+      </c>
+      <c r="S46">
+        <f>[9]table1_region_lower!E55</f>
+        <v>16.251000000000001</v>
+      </c>
+      <c r="T46">
+        <f>[10]table1_region_upper!E55</f>
+        <v>52.677999999999997</v>
+      </c>
+      <c r="V46">
+        <f>[8]table1_region_val!F55</f>
+        <v>26.86</v>
+      </c>
+      <c r="W46">
+        <f>[9]table1_region_lower!F55</f>
+        <v>18.11</v>
+      </c>
+      <c r="X46">
+        <f>[10]table1_region_upper!F55</f>
+        <v>33.159999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>A31</f>
+        <v>Africa</v>
+      </c>
+      <c r="B47">
+        <f>[8]table1_region_val!E16</f>
+        <v>0.877</v>
+      </c>
+      <c r="C47">
+        <f>[9]table1_region_lower!E16</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D47">
+        <f>[10]table1_region_upper!E16</f>
+        <v>1.153</v>
+      </c>
+      <c r="F47" s="4">
+        <f>[8]table1_region_val!F16</f>
+        <v>16.77</v>
+      </c>
+      <c r="G47" s="4">
+        <f>[9]table1_region_lower!F16</f>
+        <v>16.59</v>
+      </c>
+      <c r="H47" s="4">
+        <f>[10]table1_region_upper!F16</f>
+        <v>17.010000000000002</v>
+      </c>
+      <c r="J47">
+        <f>[8]table1_region_val!E36</f>
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="K47">
+        <f>[9]table1_region_lower!E36</f>
+        <v>0.749</v>
+      </c>
+      <c r="L47">
+        <f>[10]table1_region_upper!E36</f>
+        <v>2.4020000000000001</v>
+      </c>
+      <c r="N47">
+        <f>[8]table1_region_val!F36</f>
+        <v>29.49</v>
+      </c>
+      <c r="O47">
+        <f>[9]table1_region_lower!F36</f>
+        <v>19.25</v>
+      </c>
+      <c r="P47">
+        <f>[10]table1_region_upper!F36</f>
+        <v>35.42</v>
+      </c>
+      <c r="R47">
+        <f>[8]table1_region_val!E56</f>
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="S47">
+        <f>[9]table1_region_lower!E56</f>
+        <v>0.749</v>
+      </c>
+      <c r="T47">
+        <f>[10]table1_region_upper!E56</f>
+        <v>2.4020000000000001</v>
+      </c>
+      <c r="V47">
+        <f>[8]table1_region_val!F56</f>
+        <v>29.49</v>
+      </c>
+      <c r="W47">
+        <f>[9]table1_region_lower!F56</f>
+        <v>19.25</v>
+      </c>
+      <c r="X47">
+        <f>[10]table1_region_upper!F56</f>
+        <v>35.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+    </row>
+    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="8" t="str">
+        <f>B50</f>
+        <v>YLLs</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="8" t="str">
+        <f>J50</f>
+        <v>YLLs</v>
+      </c>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+    </row>
+    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <f>[1]table1_global_val!$D$5</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C52">
+        <f>[2]table1_global_lower!$D$5</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D52">
+        <f>[3]table1_global_upper!$D$5</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F52" s="4">
+        <f>[1]table1_global_val!$E$5</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <f>[2]table1_global_lower!$E$5</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <f>[3]table1_global_upper!$E$5</f>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>[1]table1_global_val!$D$9</f>
+        <v>62.414999999999999</v>
+      </c>
+      <c r="K52">
+        <f>[2]table1_global_lower!$D$9</f>
+        <v>43.771999999999998</v>
+      </c>
+      <c r="L52">
+        <f>[3]table1_global_upper!$D$9</f>
+        <v>96.471999999999994</v>
+      </c>
+      <c r="N52">
+        <f>[1]table1_global_val!$E$9</f>
+        <v>3.72</v>
+      </c>
+      <c r="O52">
+        <f>[2]table1_global_lower!$E$9</f>
+        <v>2.8</v>
+      </c>
+      <c r="P52">
+        <f>[3]table1_global_upper!$E$9</f>
+        <v>5.33</v>
+      </c>
+      <c r="R52">
+        <f>[1]table1_global_val!$D$17</f>
+        <v>120.155</v>
+      </c>
+      <c r="S52">
+        <f>[2]table1_global_lower!$D$17</f>
+        <v>99.962000000000003</v>
+      </c>
+      <c r="T52">
+        <f>[3]table1_global_upper!$D$17</f>
+        <v>144.911</v>
+      </c>
+      <c r="V52">
+        <f>[1]table1_global_val!$E$17</f>
+        <v>7.16</v>
+      </c>
+      <c r="W52">
+        <f>[2]table1_global_lower!$E$17</f>
+        <v>6.4</v>
+      </c>
+      <c r="X52">
+        <f>[3]table1_global_upper!$E$17</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <f>[4]table1_income_val!E17</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C54">
+        <f>[5]table1_income_lower!E17</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D54">
+        <f>[6]table1_income_upper!E17</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F54">
+        <f>[4]table1_income_val!F17</f>
+        <v>0.01</v>
+      </c>
+      <c r="G54">
+        <f>[5]table1_income_lower!F17</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>[6]table1_income_upper!F17</f>
+        <v>0.01</v>
+      </c>
+      <c r="J54">
+        <f>[4]table1_income_val!E37</f>
+        <v>15.254</v>
+      </c>
+      <c r="K54">
+        <f>[5]table1_income_lower!E37</f>
+        <v>9.3409999999999993</v>
+      </c>
+      <c r="L54">
+        <f>[6]table1_income_upper!E37</f>
+        <v>26.324000000000002</v>
+      </c>
+      <c r="N54">
+        <f>[4]table1_income_val!F37</f>
+        <v>7.88</v>
+      </c>
+      <c r="O54">
+        <f>[5]table1_income_lower!F37</f>
+        <v>5.04</v>
+      </c>
+      <c r="P54">
+        <f>[6]table1_income_upper!F37</f>
+        <v>12.96</v>
+      </c>
+      <c r="R54">
+        <f>[4]table1_income_val!E57</f>
+        <v>16.015999999999998</v>
+      </c>
+      <c r="S54">
+        <f>[5]table1_income_lower!E57</f>
+        <v>13.749000000000001</v>
+      </c>
+      <c r="T54">
+        <f>[6]table1_income_upper!E57</f>
+        <v>18.774999999999999</v>
+      </c>
+      <c r="V54">
+        <f>[4]table1_income_val!F57</f>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="W54">
+        <f>[5]table1_income_lower!F57</f>
+        <v>7.42</v>
+      </c>
+      <c r="X54">
+        <f>[6]table1_income_upper!F57</f>
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <f>[4]table1_income_val!E18</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C55">
+        <f>[5]table1_income_lower!E18</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D55">
+        <f>[6]table1_income_upper!E18</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F55">
+        <f>[4]table1_income_val!F18</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>[5]table1_income_lower!F18</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>[6]table1_income_upper!F18</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>[4]table1_income_val!E38</f>
+        <v>20.844999999999999</v>
+      </c>
+      <c r="K55">
+        <f>[5]table1_income_lower!E38</f>
+        <v>12.568</v>
+      </c>
+      <c r="L55">
+        <f>[6]table1_income_upper!E38</f>
+        <v>36.801000000000002</v>
+      </c>
+      <c r="N55">
+        <f>[4]table1_income_val!F38</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="O55">
+        <f>[5]table1_income_lower!F38</f>
+        <v>2.86</v>
+      </c>
+      <c r="P55">
+        <f>[6]table1_income_upper!F38</f>
+        <v>6.4</v>
+      </c>
+      <c r="R55">
+        <f>[4]table1_income_val!E58</f>
+        <v>35.033999999999999</v>
+      </c>
+      <c r="S55">
+        <f>[5]table1_income_lower!E58</f>
+        <v>27.309000000000001</v>
+      </c>
+      <c r="T55">
+        <f>[6]table1_income_upper!E58</f>
+        <v>44.627000000000002</v>
+      </c>
+      <c r="V55">
+        <f>[4]table1_income_val!F58</f>
+        <v>6.95</v>
+      </c>
+      <c r="W55">
+        <f>[5]table1_income_lower!F58</f>
+        <v>6.21</v>
+      </c>
+      <c r="X55">
+        <f>[6]table1_income_upper!F58</f>
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <f>[4]table1_income_val!E19</f>
+        <v>2E-3</v>
+      </c>
+      <c r="C56">
+        <f>[5]table1_income_lower!E19</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D56">
+        <f>[6]table1_income_upper!E19</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F56">
+        <f>[4]table1_income_val!F19</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>[5]table1_income_lower!F19</f>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f>[6]table1_income_upper!F19</f>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>[4]table1_income_val!E39</f>
+        <v>23.02</v>
+      </c>
+      <c r="K56">
+        <f>[5]table1_income_lower!E39</f>
+        <v>16.033999999999999</v>
+      </c>
+      <c r="L56">
+        <f>[6]table1_income_upper!E39</f>
+        <v>34.286999999999999</v>
+      </c>
+      <c r="N56">
+        <f>[4]table1_income_val!F39</f>
+        <v>3.12</v>
+      </c>
+      <c r="O56">
+        <f>[5]table1_income_lower!F39</f>
+        <v>2.5</v>
+      </c>
+      <c r="P56">
+        <f>[6]table1_income_upper!F39</f>
+        <v>4.04</v>
+      </c>
+      <c r="R56">
+        <f>[4]table1_income_val!E59</f>
+        <v>50.113999999999997</v>
+      </c>
+      <c r="S56">
+        <f>[5]table1_income_lower!E59</f>
+        <v>37.941000000000003</v>
+      </c>
+      <c r="T56">
+        <f>[6]table1_income_upper!E59</f>
+        <v>65.231999999999999</v>
+      </c>
+      <c r="V56">
+        <f>[4]table1_income_val!F59</f>
+        <v>6.79</v>
+      </c>
+      <c r="W56">
+        <f>[5]table1_income_lower!F59</f>
+        <v>5.91</v>
+      </c>
+      <c r="X56">
+        <f>[6]table1_income_upper!F59</f>
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <f>[4]table1_income_val!E20</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>[5]table1_income_lower!E20</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f>[6]table1_income_upper!E20</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F57">
+        <f>[4]table1_income_val!F20</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>[5]table1_income_lower!F20</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f>[6]table1_income_upper!F20</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f>[4]table1_income_val!E40</f>
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="K57">
+        <f>[5]table1_income_lower!E40</f>
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="L57">
+        <f>[6]table1_income_upper!E40</f>
+        <v>5.2279999999999998</v>
+      </c>
+      <c r="N57">
+        <f>[4]table1_income_val!F40</f>
+        <v>1.36</v>
+      </c>
+      <c r="O57">
+        <f>[5]table1_income_lower!F40</f>
+        <v>1.01</v>
+      </c>
+      <c r="P57">
+        <f>[6]table1_income_upper!F40</f>
+        <v>1.82</v>
+      </c>
+      <c r="R57">
+        <f>[4]table1_income_val!E60</f>
+        <v>15.673</v>
+      </c>
+      <c r="S57">
+        <f>[5]table1_income_lower!E60</f>
+        <v>11.384</v>
+      </c>
+      <c r="T57">
+        <f>[6]table1_income_upper!E60</f>
+        <v>21.544</v>
+      </c>
+      <c r="V57">
+        <f>[4]table1_income_val!F60</f>
+        <v>6.53</v>
+      </c>
+      <c r="W57">
+        <f>[5]table1_income_lower!F60</f>
+        <v>5.66</v>
+      </c>
+      <c r="X57">
+        <f>[6]table1_income_upper!F60</f>
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>A43</f>
+        <v>Europe</v>
+      </c>
+      <c r="B59">
+        <f>[8]table1_region_val!E17</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C59">
+        <f>[9]table1_region_lower!E17</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D59">
+        <f>[10]table1_region_upper!E17</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F59" s="4">
+        <f>[8]table1_region_val!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <f>[9]table1_region_lower!F17</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <f>[10]table1_region_upper!F17</f>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>[8]table1_region_val!E37</f>
+        <v>10.077</v>
+      </c>
+      <c r="K59">
+        <f>[9]table1_region_lower!E37</f>
+        <v>6.31</v>
+      </c>
+      <c r="L59">
+        <f>[10]table1_region_upper!E37</f>
+        <v>17.350999999999999</v>
+      </c>
+      <c r="N59">
+        <f>[8]table1_region_val!F37</f>
+        <v>6.64</v>
+      </c>
+      <c r="O59">
+        <f>[9]table1_region_lower!F37</f>
+        <v>4.55</v>
+      </c>
+      <c r="P59">
+        <f>[10]table1_region_upper!F37</f>
+        <v>10.4</v>
+      </c>
+      <c r="R59">
+        <f>[8]table1_region_val!E57</f>
+        <v>11.596</v>
+      </c>
+      <c r="S59">
+        <f>[9]table1_region_lower!E57</f>
+        <v>9.5210000000000008</v>
+      </c>
+      <c r="T59">
+        <f>[10]table1_region_upper!E57</f>
+        <v>14.164999999999999</v>
+      </c>
+      <c r="V59">
+        <f>[8]table1_region_val!F57</f>
+        <v>7.65</v>
+      </c>
+      <c r="W59">
+        <f>[9]table1_region_lower!F57</f>
+        <v>6.86</v>
+      </c>
+      <c r="X59">
+        <f>[10]table1_region_upper!F57</f>
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>A44</f>
+        <v>Asia</v>
+      </c>
+      <c r="B60">
+        <f>[8]table1_region_val!E18</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C60">
+        <f>[9]table1_region_lower!E18</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D60">
+        <f>[10]table1_region_upper!E18</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F60" s="4">
+        <f>[8]table1_region_val!F18</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <f>[9]table1_region_lower!F18</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <f>[10]table1_region_upper!F18</f>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f>[8]table1_region_val!E38</f>
+        <v>36.609000000000002</v>
+      </c>
+      <c r="K60">
+        <f>[9]table1_region_lower!E38</f>
+        <v>23.65</v>
+      </c>
+      <c r="L60">
+        <f>[10]table1_region_upper!E38</f>
+        <v>59.47</v>
+      </c>
+      <c r="N60">
+        <f>[8]table1_region_val!F38</f>
+        <v>4.12</v>
+      </c>
+      <c r="O60">
+        <f>[9]table1_region_lower!F38</f>
+        <v>3.04</v>
+      </c>
+      <c r="P60">
+        <f>[10]table1_region_upper!F38</f>
+        <v>5.89</v>
+      </c>
+      <c r="R60">
+        <f>[8]table1_region_val!E58</f>
+        <v>62.054000000000002</v>
+      </c>
+      <c r="S60">
+        <f>[9]table1_region_lower!E58</f>
+        <v>47.558999999999997</v>
+      </c>
+      <c r="T60">
+        <f>[10]table1_region_upper!E58</f>
+        <v>79.53</v>
+      </c>
+      <c r="V60">
+        <f>[8]table1_region_val!F58</f>
+        <v>6.98</v>
+      </c>
+      <c r="W60">
+        <f>[9]table1_region_lower!F58</f>
+        <v>6.11</v>
+      </c>
+      <c r="X60">
+        <f>[10]table1_region_upper!F58</f>
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>A45</f>
+        <v>Oceania</v>
+      </c>
+      <c r="B61">
+        <f>[8]table1_region_val!E19</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C61">
+        <f>[9]table1_region_lower!E19</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D61">
+        <f>[10]table1_region_upper!E19</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F61" s="4">
+        <f>[8]table1_region_val!F19</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <f>[9]table1_region_lower!F19</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <f>[10]table1_region_upper!F19</f>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f>[8]table1_region_val!E39</f>
+        <v>8.9339999999999993</v>
+      </c>
+      <c r="K61">
+        <f>[9]table1_region_lower!E39</f>
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="L61">
+        <f>[10]table1_region_upper!E39</f>
+        <v>14.727</v>
+      </c>
+      <c r="N61">
+        <f>[8]table1_region_val!F39</f>
+        <v>5.12</v>
+      </c>
+      <c r="O61">
+        <f>[9]table1_region_lower!F39</f>
+        <v>3.61</v>
+      </c>
+      <c r="P61">
+        <f>[10]table1_region_upper!F39</f>
+        <v>7.75</v>
+      </c>
+      <c r="R61">
+        <f>[8]table1_region_val!E59</f>
+        <v>14.988</v>
+      </c>
+      <c r="S61">
+        <f>[9]table1_region_lower!E59</f>
+        <v>12.457000000000001</v>
+      </c>
+      <c r="T61">
+        <f>[10]table1_region_upper!E59</f>
+        <v>18.23</v>
+      </c>
+      <c r="V61">
+        <f>[8]table1_region_val!F59</f>
+        <v>8.59</v>
+      </c>
+      <c r="W61">
+        <f>[9]table1_region_lower!F59</f>
+        <v>7.74</v>
+      </c>
+      <c r="X61">
+        <f>[10]table1_region_upper!F59</f>
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>A46</f>
+        <v>Americas</v>
+      </c>
+      <c r="B62">
+        <f>[8]table1_region_val!E20</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>[9]table1_region_lower!E20</f>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f>[10]table1_region_upper!E20</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <f>[8]table1_region_val!F20</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <f>[9]table1_region_lower!F20</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <f>[10]table1_region_upper!F20</f>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f>[8]table1_region_val!E40</f>
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="K62">
+        <f>[9]table1_region_lower!E40</f>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L62">
+        <f>[10]table1_region_upper!E40</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="N62">
+        <f>[8]table1_region_val!F40</f>
+        <v>5.2</v>
+      </c>
+      <c r="O62">
+        <f>[9]table1_region_lower!F40</f>
+        <v>3.81</v>
+      </c>
+      <c r="P62">
+        <f>[10]table1_region_upper!F40</f>
+        <v>7.45</v>
+      </c>
+      <c r="R62">
+        <f>[8]table1_region_val!E60</f>
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="S62">
+        <f>[9]table1_region_lower!E60</f>
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="T62">
+        <f>[10]table1_region_upper!E60</f>
+        <v>0.79</v>
+      </c>
+      <c r="V62">
+        <f>[8]table1_region_val!F60</f>
+        <v>8.09</v>
+      </c>
+      <c r="W62">
+        <f>[9]table1_region_lower!F60</f>
+        <v>7.34</v>
+      </c>
+      <c r="X62">
+        <f>[10]table1_region_upper!F60</f>
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>A47</f>
+        <v>Africa</v>
+      </c>
+      <c r="B63">
+        <f>[8]table1_region_val!E21</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C63">
+        <f>[9]table1_region_lower!E21</f>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f>[10]table1_region_upper!E21</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F63" s="4">
+        <f>[8]table1_region_val!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <f>[9]table1_region_lower!F21</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <f>[10]table1_region_upper!F21</f>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f>[8]table1_region_val!E41</f>
+        <v>6.3659999999999997</v>
+      </c>
+      <c r="K63">
+        <f>[9]table1_region_lower!E41</f>
+        <v>3.9359999999999999</v>
+      </c>
+      <c r="L63">
+        <f>[10]table1_region_upper!E41</f>
+        <v>10.439</v>
+      </c>
+      <c r="N63">
+        <f>[8]table1_region_val!F41</f>
+        <v>1.4</v>
+      </c>
+      <c r="O63">
+        <f>[9]table1_region_lower!F41</f>
+        <v>1.03</v>
+      </c>
+      <c r="P63">
+        <f>[10]table1_region_upper!F41</f>
+        <v>1.93</v>
+      </c>
+      <c r="R63">
+        <f>[8]table1_region_val!E61</f>
+        <v>27.58</v>
+      </c>
+      <c r="S63">
+        <f>[9]table1_region_lower!E61</f>
+        <v>20.352</v>
+      </c>
+      <c r="T63">
+        <f>[10]table1_region_upper!E61</f>
+        <v>37.463999999999999</v>
+      </c>
+      <c r="V63">
+        <f>[8]table1_region_val!F61</f>
+        <v>6.08</v>
+      </c>
+      <c r="W63">
+        <f>[9]table1_region_lower!F61</f>
+        <v>5.32</v>
+      </c>
+      <c r="X63">
+        <f>[10]table1_region_upper!F61</f>
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="36">
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="R49:X49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="R33:X33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="R17:X17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="V18:X18"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="J1:P1"/>
@@ -2512,6 +7473,7 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="N2:P2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2521,8 +7483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6032342-9069-442B-9B47-D42BBBD0874A}">
   <dimension ref="A2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="B4:L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,26 +7496,26 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="8" t="str">
-        <f>[10]table2_lower!B2</f>
+      <c r="B2" s="9" t="str">
+        <f>[11]table2_lower!B2</f>
         <v>Original GBD method</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="8" t="str">
-        <f>[10]table2_lower!C2</f>
+      <c r="F2" s="9" t="str">
+        <f>[11]table2_lower!C2</f>
         <v>Revised - Vigo et al. method</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="str">
-        <f>[10]table2_lower!D2</f>
+      <c r="J2" s="9" t="str">
+        <f>[11]table2_lower!D2</f>
         <v>Revised - Composite method</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2594,41 +7556,41 @@
         <v>14</v>
       </c>
       <c r="B4" s="5">
-        <f>[11]table2!B3</f>
+        <f>[12]table2!B3</f>
         <v>0.13</v>
       </c>
       <c r="C4" s="5">
-        <f>[10]table2_lower!B3</f>
+        <f>[11]table2_lower!B3</f>
         <v>0.09</v>
       </c>
       <c r="D4" s="5">
-        <f>[12]table2_upper!$B3</f>
+        <f>[13]table2_upper!$B3</f>
         <v>0.16</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>[11]table2!C3</f>
+        <f>[12]table2!C3</f>
         <v>0.3</v>
       </c>
       <c r="G4" s="5">
-        <f>[10]table2_lower!C3</f>
+        <f>[11]table2_lower!C3</f>
         <v>0.16</v>
       </c>
       <c r="H4" s="5">
-        <f>[12]table2_upper!$C3</f>
+        <f>[13]table2_upper!$C3</f>
         <v>0.47</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5">
-        <f>[11]table2!D3</f>
+        <f>[12]table2!D3</f>
         <v>0.36</v>
       </c>
       <c r="K4" s="5">
-        <f>[10]table2_lower!D3</f>
+        <f>[11]table2_lower!D3</f>
         <v>0.21</v>
       </c>
       <c r="L4" s="5">
-        <f>[12]table2_upper!$D3</f>
+        <f>[13]table2_upper!$D3</f>
         <v>0.52</v>
       </c>
     </row>
@@ -2637,41 +7599,41 @@
         <v>15</v>
       </c>
       <c r="B5" s="5">
-        <f>[11]table2!B4</f>
+        <f>[12]table2!B4</f>
         <v>0.63</v>
       </c>
       <c r="C5" s="5">
-        <f>[10]table2_lower!B4</f>
+        <f>[11]table2_lower!B4</f>
         <v>0.46</v>
       </c>
       <c r="D5" s="5">
-        <f>[12]table2_upper!$B4</f>
+        <f>[13]table2_upper!$B4</f>
         <v>0.82</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>[11]table2!C4</f>
+        <f>[12]table2!C4</f>
         <v>1.5</v>
       </c>
       <c r="G5" s="5">
-        <f>[10]table2_lower!C4</f>
+        <f>[11]table2_lower!C4</f>
         <v>0.79</v>
       </c>
       <c r="H5" s="5">
-        <f>[12]table2_upper!$C4</f>
+        <f>[13]table2_upper!$C4</f>
         <v>2.34</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5">
-        <f>[11]table2!D4</f>
+        <f>[12]table2!D4</f>
         <v>1.79</v>
       </c>
       <c r="K5" s="5">
-        <f>[10]table2_lower!D4</f>
+        <f>[11]table2_lower!D4</f>
         <v>1.06</v>
       </c>
       <c r="L5" s="5">
-        <f>[12]table2_upper!$D4</f>
+        <f>[13]table2_upper!$D4</f>
         <v>2.6</v>
       </c>
     </row>
@@ -2680,41 +7642,41 @@
         <v>16</v>
       </c>
       <c r="B6" s="5">
-        <f>[11]table2!B5</f>
+        <f>[12]table2!B5</f>
         <v>1.42</v>
       </c>
       <c r="C6" s="5">
-        <f>[10]table2_lower!B5</f>
+        <f>[11]table2_lower!B5</f>
         <v>1.06</v>
       </c>
       <c r="D6" s="5">
-        <f>[12]table2_upper!$B5</f>
+        <f>[13]table2_upper!$B5</f>
         <v>1.85</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <f>[11]table2!C5</f>
+        <f>[12]table2!C5</f>
         <v>3.41</v>
       </c>
       <c r="G6" s="5">
-        <f>[10]table2_lower!C5</f>
+        <f>[11]table2_lower!C5</f>
         <v>1.8</v>
       </c>
       <c r="H6" s="5">
-        <f>[12]table2_upper!$C5</f>
+        <f>[13]table2_upper!$C5</f>
         <v>5.32</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5">
-        <f>[11]table2!D5</f>
+        <f>[12]table2!D5</f>
         <v>4.07</v>
       </c>
       <c r="K6" s="5">
-        <f>[10]table2_lower!D5</f>
+        <f>[11]table2_lower!D5</f>
         <v>2.41</v>
       </c>
       <c r="L6" s="5">
-        <f>[12]table2_upper!$D5</f>
+        <f>[13]table2_upper!$D5</f>
         <v>5.91</v>
       </c>
     </row>
@@ -2723,41 +7685,41 @@
         <v>17</v>
       </c>
       <c r="B7" s="5">
-        <f>[11]table2!B6</f>
+        <f>[12]table2!B6</f>
         <v>4.2699999999999996</v>
       </c>
       <c r="C7" s="5">
-        <f>[10]table2_lower!B6</f>
+        <f>[11]table2_lower!B6</f>
         <v>3.17</v>
       </c>
       <c r="D7" s="5">
-        <f>[12]table2_upper!$B6</f>
+        <f>[13]table2_upper!$B6</f>
         <v>5.55</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <f>[11]table2!C6</f>
+        <f>[12]table2!C6</f>
         <v>10.24</v>
       </c>
       <c r="G7" s="5">
-        <f>[10]table2_lower!C6</f>
+        <f>[11]table2_lower!C6</f>
         <v>5.4</v>
       </c>
       <c r="H7" s="5">
-        <f>[12]table2_upper!$C6</f>
+        <f>[13]table2_upper!$C6</f>
         <v>15.95</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5">
-        <f>[11]table2!D6</f>
+        <f>[12]table2!D6</f>
         <v>12.2</v>
       </c>
       <c r="K7" s="5">
-        <f>[10]table2_lower!D6</f>
+        <f>[11]table2_lower!D6</f>
         <v>7.23</v>
       </c>
       <c r="L7" s="5">
-        <f>[12]table2_upper!$D6</f>
+        <f>[13]table2_upper!$D6</f>
         <v>17.73</v>
       </c>
     </row>

--- a/results/tables.xlsx
+++ b/results/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\3. PhD\WQE\WQE II\gmh_econ\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA6E3B8-FFC6-4566-A334-408171307908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701BB420-21B6-42DF-B250-06C510E8BFBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{09EDDA4F-F879-48C5-871F-ACF535CF1A26}"/>
+    <workbookView xWindow="3390" yWindow="1680" windowWidth="19425" windowHeight="10425" xr2:uid="{09EDDA4F-F879-48C5-871F-ACF535CF1A26}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
@@ -3775,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9EF483-04C1-4FD9-B6B8-F8A403B1D01C}">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:X63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7436,6 +7436,33 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="R17:X17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="R33:X33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="V34:X34"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="J49:P49"/>
     <mergeCell ref="R49:X49"/>
@@ -7445,33 +7472,6 @@
     <mergeCell ref="N50:P50"/>
     <mergeCell ref="R50:T50"/>
     <mergeCell ref="V50:X50"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="R33:X33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="R17:X17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7484,7 +7484,7 @@
   <dimension ref="A2:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/tables.xlsx
+++ b/results/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\3. PhD\WQE\WQE II\gmh_econ\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701BB420-21B6-42DF-B250-06C510E8BFBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DB5AB5-1910-49A4-97A2-380AC1303A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1680" windowWidth="19425" windowHeight="10425" xr2:uid="{09EDDA4F-F879-48C5-871F-ACF535CF1A26}"/>
+    <workbookView xWindow="12930" yWindow="2205" windowWidth="12795" windowHeight="7185" xr2:uid="{09EDDA4F-F879-48C5-871F-ACF535CF1A26}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
@@ -3775,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9EF483-04C1-4FD9-B6B8-F8A403B1D01C}">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:X63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7436,6 +7436,33 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="R49:X49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="R33:X33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="R17:X17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="V18:X18"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="J1:P1"/>
@@ -7445,33 +7472,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="R17:X17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="R33:X33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="R49:X49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="V50:X50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/tables.xlsx
+++ b/results/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\3. PhD\WQE\WQE II\gmh_econ\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF4FA3D-EFEA-4BEA-9283-D4DF5D4D34C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3127EED0-A423-4F15-BC33-04FBAB1838DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10815" yWindow="5205" windowWidth="12795" windowHeight="7185" firstSheet="1" activeTab="4" xr2:uid="{09EDDA4F-F879-48C5-871F-ACF535CF1A26}"/>
+    <workbookView xWindow="12195" yWindow="6465" windowWidth="12795" windowHeight="7185" firstSheet="1" activeTab="3" xr2:uid="{09EDDA4F-F879-48C5-871F-ACF535CF1A26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -185,7 +185,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +211,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -224,21 +248,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -247,27 +314,77 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5608,7 +5725,7 @@
       <sheetName val="table1_global_val"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="D2">
             <v>0</v>
@@ -5631,14 +5748,6 @@
           </cell>
           <cell r="E4">
             <v>14.55</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
           </cell>
         </row>
         <row r="6">
@@ -5718,7 +5827,7 @@
       <sheetName val="table1_global_lower"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="D2">
             <v>0</v>
@@ -5741,14 +5850,6 @@
           </cell>
           <cell r="E4">
             <v>14.52</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>1.6E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
           </cell>
         </row>
         <row r="6">
@@ -5828,7 +5929,7 @@
       <sheetName val="table1_global_upper"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="D2">
             <v>0</v>
@@ -5851,14 +5952,6 @@
           </cell>
           <cell r="E4">
             <v>14.74</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>2.1000000000000001E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
           </cell>
         </row>
         <row r="6">
@@ -5938,7 +6031,7 @@
       <sheetName val="table1_income_val"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="E2">
             <v>0</v>
@@ -6033,38 +6126,6 @@
           </cell>
           <cell r="F15">
             <v>16.5</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-          <cell r="F17">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="F18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>2E-3</v>
-          </cell>
-          <cell r="F19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>0</v>
-          </cell>
-          <cell r="F20">
-            <v>0</v>
           </cell>
         </row>
         <row r="22">
@@ -6336,7 +6397,7 @@
       <sheetName val="table1_income_lower"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="E2">
             <v>0</v>
@@ -6431,38 +6492,6 @@
           </cell>
           <cell r="F15">
             <v>16.28</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="F17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="F18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>1E-3</v>
-          </cell>
-          <cell r="F19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>0</v>
-          </cell>
-          <cell r="F20">
-            <v>0</v>
           </cell>
         </row>
         <row r="22">
@@ -6734,7 +6763,7 @@
       <sheetName val="table1_income_upper"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="E2">
             <v>0</v>
@@ -6829,38 +6858,6 @@
           </cell>
           <cell r="F15">
             <v>16.75</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>1.2999999999999999E-2</v>
-          </cell>
-          <cell r="F17">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="F18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-          <cell r="F19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>1E-3</v>
-          </cell>
-          <cell r="F20">
-            <v>0</v>
           </cell>
         </row>
         <row r="22">
@@ -13833,31 +13830,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9EF483-04C1-4FD9-B6B8-F8A403B1D01C}">
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:X67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="1" customWidth="1"/>
-    <col min="6" max="8" width="8.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="1" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="1" customWidth="1"/>
-    <col min="14" max="16" width="8.42578125" customWidth="1"/>
-    <col min="17" max="17" width="1" customWidth="1"/>
-    <col min="18" max="20" width="8.42578125" customWidth="1"/>
-    <col min="21" max="21" width="1" customWidth="1"/>
-    <col min="22" max="24" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="1" style="7" customWidth="1"/>
+    <col min="6" max="8" width="8.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="1" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="1" style="8" customWidth="1"/>
+    <col min="14" max="16" width="8.42578125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="1" style="8" customWidth="1"/>
+    <col min="18" max="20" width="8.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="1" style="8" customWidth="1"/>
+    <col min="22" max="24" width="8.42578125" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="9" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
@@ -13867,7 +13866,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="3"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="12" t="s">
         <v>2</v>
       </c>
@@ -13877,7 +13876,7 @@
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="13"/>
       <c r="R1" s="12" t="s">
         <v>3</v>
       </c>
@@ -13888,4308 +13887,4633 @@
       <c r="W1" s="12"/>
       <c r="X1" s="12"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="12" t="str">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="15" t="str">
         <f>B2</f>
         <v>Deaths</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="12" t="str">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="15" t="str">
         <f>J2</f>
         <v>Deaths</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="12" t="s">
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-    </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+    </row>
+    <row r="3" spans="1:24" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="U3" s="16"/>
+      <c r="V3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18">
         <f>[4]table1_global_val!$D$2</f>
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="18">
         <f>[5]table1_global_lower!$D$2</f>
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="18">
         <f>[6]table1_global_upper!$D$2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E4" s="18"/>
+      <c r="F4" s="19">
         <f>[4]table1_global_val!$E$2</f>
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="19">
         <f>[5]table1_global_lower!$E$2</f>
         <v>0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="19">
         <f>[6]table1_global_upper!$E$2</f>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="I4" s="19"/>
+      <c r="J4" s="18">
         <f>[4]table1_global_val!$D$6</f>
         <v>2.899</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="18">
         <f>[5]table1_global_lower!$D$6</f>
         <v>1.52</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="18">
         <f>[6]table1_global_upper!$D$6</f>
         <v>5.6109999999999998</v>
       </c>
-      <c r="N4">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18">
         <f>[4]table1_global_val!$E$6</f>
         <v>5.13</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="18">
         <f>[5]table1_global_lower!$E$6</f>
         <v>2.83</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="18">
         <f>[6]table1_global_upper!$E$6</f>
         <v>9.48</v>
       </c>
-      <c r="R4">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18">
         <f>[4]table1_global_val!$D$14</f>
         <v>4.05</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="18">
         <f>[5]table1_global_lower!$D$14</f>
         <v>3.4409999999999998</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="18">
         <f>[6]table1_global_upper!$D$14</f>
         <v>4.7359999999999998</v>
       </c>
-      <c r="V4">
+      <c r="U4" s="18"/>
+      <c r="V4" s="18">
         <f>[4]table1_global_val!$E$14</f>
         <v>7.16</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="18">
         <f>[5]table1_global_lower!$E$14</f>
         <v>6.4</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="18">
         <f>[6]table1_global_upper!$E$14</f>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="18">
         <f>[7]table1_income_val!$E$3</f>
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="18">
         <f>[8]table1_income_lower!$E$3</f>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="18">
         <f>[9]table1_income_upper!$E$3</f>
         <v>0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="E7" s="18"/>
+      <c r="F7" s="19">
         <f>[7]table1_income_val!$F$3</f>
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="19">
         <f>[8]table1_income_lower!$F$3</f>
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="19">
         <f>[9]table1_income_upper!$F$3</f>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18">
         <f>[7]table1_income_val!$E$23</f>
         <v>1.02</v>
       </c>
-      <c r="K6">
+      <c r="K7" s="18">
         <f>[8]table1_income_lower!$E$23</f>
         <v>0.45900000000000002</v>
       </c>
-      <c r="L6">
+      <c r="L7" s="18">
         <f>[9]table1_income_upper!$E$23</f>
         <v>2.0950000000000002</v>
       </c>
-      <c r="N6">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18">
         <f>[7]table1_income_val!$F$23</f>
         <v>9.1199999999999992</v>
       </c>
-      <c r="O6">
+      <c r="O7" s="18">
         <f>[8]table1_income_lower!$F$23</f>
         <v>4.24</v>
       </c>
-      <c r="P6">
+      <c r="P7" s="18">
         <f>[9]table1_income_upper!$F$23</f>
         <v>18.05</v>
       </c>
-      <c r="R6">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18">
         <f>[7]table1_income_val!$E$43</f>
         <v>0.92</v>
       </c>
-      <c r="S6">
+      <c r="S7" s="18">
         <f>[8]table1_income_lower!$E$43</f>
         <v>0.79700000000000004</v>
       </c>
-      <c r="T6">
+      <c r="T7" s="18">
         <f>[9]table1_income_upper!$E$43</f>
         <v>1.0669999999999999</v>
       </c>
-      <c r="V6">
+      <c r="U7" s="18"/>
+      <c r="V7" s="18">
         <f>[7]table1_income_val!$F$43</f>
         <v>8.23</v>
       </c>
-      <c r="W6">
+      <c r="W7" s="18">
         <f>[8]table1_income_lower!$F$43</f>
         <v>7.37</v>
       </c>
-      <c r="X6">
+      <c r="X7" s="18">
         <f>[9]table1_income_upper!$F$43</f>
         <v>9.19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="18">
         <f>[7]table1_income_val!$E$4</f>
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="18">
         <f>[8]table1_income_lower!$E$4</f>
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="18">
         <f>[9]table1_income_upper!$E$4</f>
         <v>0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="E8" s="18"/>
+      <c r="F8" s="19">
         <f>[7]table1_income_val!$F$4</f>
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="19">
         <f>[8]table1_income_lower!$F$4</f>
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="19">
         <f>[9]table1_income_upper!$F$4</f>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="I8" s="19"/>
+      <c r="J8" s="18">
         <f>[7]table1_income_val!$E$24</f>
         <v>1.042</v>
       </c>
-      <c r="K7">
+      <c r="K8" s="18">
         <f>[8]table1_income_lower!$E$24</f>
         <v>0.49199999999999999</v>
       </c>
-      <c r="L7">
+      <c r="L8" s="18">
         <f>[9]table1_income_upper!$E$24</f>
         <v>2.14</v>
       </c>
-      <c r="N7">
+      <c r="M8" s="18"/>
+      <c r="N8" s="18">
         <f>[7]table1_income_val!$F$24</f>
         <v>4.99</v>
       </c>
-      <c r="O7">
+      <c r="O8" s="18">
         <f>[8]table1_income_lower!$F$24</f>
         <v>2.68</v>
       </c>
-      <c r="P7">
+      <c r="P8" s="18">
         <f>[9]table1_income_upper!$F$24</f>
         <v>9.09</v>
       </c>
-      <c r="R7">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18">
         <f>[7]table1_income_val!$E$44</f>
         <v>1.4410000000000001</v>
       </c>
-      <c r="S7">
+      <c r="S8" s="18">
         <f>[8]table1_income_lower!$E$44</f>
         <v>1.133</v>
       </c>
-      <c r="T7">
+      <c r="T8" s="18">
         <f>[9]table1_income_upper!$E$44</f>
         <v>1.8140000000000001</v>
       </c>
-      <c r="V7">
+      <c r="U8" s="18"/>
+      <c r="V8" s="18">
         <f>[7]table1_income_val!$F$44</f>
         <v>6.91</v>
       </c>
-      <c r="W7">
+      <c r="W8" s="18">
         <f>[8]table1_income_lower!$F$44</f>
         <v>6.17</v>
       </c>
-      <c r="X7">
+      <c r="X8" s="18">
         <f>[9]table1_income_upper!$F$44</f>
         <v>7.7</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="18">
         <f>[7]table1_income_val!$E$2</f>
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="18">
         <f>[8]table1_income_lower!$E$2</f>
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="18">
         <f>[9]table1_income_upper!$E$2</f>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="E9" s="18"/>
+      <c r="F9" s="19">
         <f>[7]table1_income_val!$F$2</f>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="19">
         <f>[8]table1_income_lower!$F$2</f>
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="19">
         <f>[9]table1_income_upper!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="I9" s="19"/>
+      <c r="J9" s="18">
         <f>[7]table1_income_val!$E$22</f>
         <v>0.73299999999999998</v>
       </c>
-      <c r="K8">
+      <c r="K9" s="18">
         <f>[8]table1_income_lower!$E$22</f>
         <v>0.41799999999999998</v>
       </c>
-      <c r="L8">
+      <c r="L9" s="18">
         <f>[9]table1_income_upper!$E$22</f>
         <v>1.335</v>
       </c>
-      <c r="N8">
+      <c r="M9" s="18"/>
+      <c r="N9" s="18">
         <f>[7]table1_income_val!$F$22</f>
         <v>3.69</v>
       </c>
-      <c r="O8">
+      <c r="O9" s="18">
         <f>[8]table1_income_lower!$F$22</f>
         <v>2.4</v>
       </c>
-      <c r="P8">
+      <c r="P9" s="18">
         <f>[9]table1_income_upper!$F$22</f>
         <v>5.92</v>
       </c>
-      <c r="R8">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18">
         <f>[7]table1_income_val!$E$42</f>
         <v>1.3819999999999999</v>
       </c>
-      <c r="S8">
+      <c r="S9" s="18">
         <f>[8]table1_income_lower!$E$42</f>
         <v>1.0549999999999999</v>
       </c>
-      <c r="T8">
+      <c r="T9" s="18">
         <f>[9]table1_income_upper!$E$42</f>
         <v>1.7809999999999999</v>
       </c>
-      <c r="V8">
+      <c r="U9" s="18"/>
+      <c r="V9" s="18">
         <f>[7]table1_income_val!$F$42</f>
         <v>6.96</v>
       </c>
-      <c r="W8">
+      <c r="W9" s="18">
         <f>[8]table1_income_lower!$F$42</f>
         <v>6.05</v>
       </c>
-      <c r="X8">
+      <c r="X9" s="18">
         <f>[9]table1_income_upper!$F$42</f>
         <v>7.89</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="18">
         <f>[7]table1_income_val!$E$5</f>
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="18">
         <f>[8]table1_income_lower!$E$5</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="18">
         <f>[9]table1_income_upper!$E$5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="E10" s="18"/>
+      <c r="F10" s="19">
         <f>[7]table1_income_val!$F$5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="19">
         <f>[8]table1_income_lower!$F$5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="19">
         <f>[9]table1_income_upper!$F$5</f>
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="I10" s="19"/>
+      <c r="J10" s="18">
         <f>[7]table1_income_val!$E$25</f>
         <v>0.10299999999999999</v>
       </c>
-      <c r="K9">
+      <c r="K10" s="18">
         <f>[8]table1_income_lower!$E$25</f>
         <v>5.5E-2</v>
       </c>
-      <c r="L9">
+      <c r="L10" s="18">
         <f>[9]table1_income_upper!$E$25</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="N9">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18">
         <f>[7]table1_income_val!$F$25</f>
         <v>2.2400000000000002</v>
       </c>
-      <c r="O9">
+      <c r="O10" s="18">
         <f>[8]table1_income_lower!$F$25</f>
         <v>1.4</v>
       </c>
-      <c r="P9">
+      <c r="P10" s="18">
         <f>[9]table1_income_upper!$F$25</f>
         <v>3.6</v>
       </c>
-      <c r="R9">
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18">
         <f>[7]table1_income_val!$E$45</f>
         <v>0.30399999999999999</v>
       </c>
-      <c r="S9">
+      <c r="S10" s="18">
         <f>[8]table1_income_lower!$E$45</f>
         <v>0.224</v>
       </c>
-      <c r="T9">
+      <c r="T10" s="18">
         <f>[9]table1_income_upper!$E$45</f>
         <v>0.41099999999999998</v>
       </c>
-      <c r="V9">
+      <c r="U10" s="18"/>
+      <c r="V10" s="18">
         <f>[7]table1_income_val!$F$45</f>
         <v>6.62</v>
       </c>
-      <c r="W9">
+      <c r="W10" s="18">
         <f>[8]table1_income_lower!$F$45</f>
         <v>5.74</v>
       </c>
-      <c r="X9">
+      <c r="X10" s="18">
         <f>[9]table1_income_upper!$F$45</f>
         <v>7.6</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="B13" s="18">
         <f>Sheet1!$E2</f>
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="18">
         <f>Sheet2!$E2</f>
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D13" s="18">
         <f>Sheet3!$E2</f>
         <v>0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="E13" s="18"/>
+      <c r="F13" s="24">
         <f>Sheet1!$F2</f>
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G13" s="24">
         <f>Sheet2!$F2</f>
         <v>0</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H13" s="24">
         <f>Sheet3!$F2</f>
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="I13" s="19"/>
+      <c r="J13" s="18">
         <f>Sheet1!$E58</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="K11">
+      <c r="K13" s="18">
         <f>Sheet2!$E58</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="L11">
+      <c r="L13" s="18">
         <f>Sheet3!$E58</f>
         <v>0.32900000000000001</v>
       </c>
-      <c r="N11">
+      <c r="M13" s="18"/>
+      <c r="N13" s="18">
         <f>Sheet1!$F58</f>
         <v>2.2799999999999998</v>
       </c>
-      <c r="O11">
+      <c r="O13" s="18">
         <f>Sheet2!$F58</f>
         <v>1.42</v>
       </c>
-      <c r="P11">
+      <c r="P13" s="18">
         <f>Sheet3!$F58</f>
         <v>3.71</v>
       </c>
-      <c r="R11">
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18">
         <f>Sheet1!$E30</f>
         <v>0.45600000000000002</v>
       </c>
-      <c r="S11">
+      <c r="S13" s="18">
         <f>Sheet2!$E30</f>
         <v>0.34699999999999998</v>
       </c>
-      <c r="T11">
+      <c r="T13" s="18">
         <f>Sheet3!$E30</f>
         <v>0.6</v>
       </c>
-      <c r="V11">
+      <c r="U13" s="18"/>
+      <c r="V13" s="18">
         <f>Sheet1!$F30</f>
         <v>5.94</v>
       </c>
-      <c r="W11">
+      <c r="W13" s="18">
         <f>Sheet2!$F30</f>
         <v>5.21</v>
       </c>
-      <c r="X11">
+      <c r="X13" s="18">
         <f>Sheet3!$F30</f>
         <v>6.75</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B14" s="18">
         <f>Sheet1!$E3</f>
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C14" s="18">
         <f>Sheet2!$E3</f>
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="18">
         <f>Sheet3!$E3</f>
         <v>0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="E14" s="18"/>
+      <c r="F14" s="24">
         <f>Sheet1!$F3</f>
         <v>0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G14" s="24">
         <f>Sheet2!$F3</f>
         <v>0</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H14" s="24">
         <f>Sheet3!$F3</f>
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="I14" s="19"/>
+      <c r="J14" s="18">
         <f>Sheet1!$E59</f>
         <v>0.125</v>
       </c>
-      <c r="K12">
+      <c r="K14" s="18">
         <f>Sheet2!$E59</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="L12">
+      <c r="L14" s="18">
         <f>Sheet3!$E59</f>
         <v>0.254</v>
       </c>
-      <c r="N12">
+      <c r="M14" s="18"/>
+      <c r="N14" s="18">
         <f>Sheet1!$F59</f>
         <v>3.02</v>
       </c>
-      <c r="O12">
+      <c r="O14" s="18">
         <f>Sheet2!$F59</f>
         <v>1.65</v>
       </c>
-      <c r="P12">
+      <c r="P14" s="18">
         <f>Sheet3!$F59</f>
         <v>5.28</v>
       </c>
-      <c r="R12">
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18">
         <f>Sheet1!$E31</f>
         <v>0.32900000000000001</v>
       </c>
-      <c r="S12">
+      <c r="S14" s="18">
         <f>Sheet2!$E31</f>
         <v>0.247</v>
       </c>
-      <c r="T12">
+      <c r="T14" s="18">
         <f>Sheet3!$E31</f>
         <v>0.434</v>
       </c>
-      <c r="V12">
+      <c r="U14" s="18"/>
+      <c r="V14" s="18">
         <f>Sheet1!$F31</f>
         <v>7.95</v>
       </c>
-      <c r="W12">
+      <c r="W14" s="18">
         <f>Sheet2!$F31</f>
         <v>6.93</v>
       </c>
-      <c r="X12">
+      <c r="X14" s="18">
         <f>Sheet3!$F31</f>
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="B15" s="18">
         <f>Sheet1!$E4</f>
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="18">
         <f>Sheet2!$E4</f>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D15" s="18">
         <f>Sheet3!$E4</f>
         <v>0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="E15" s="18"/>
+      <c r="F15" s="24">
         <f>Sheet1!$F4</f>
         <v>0</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G15" s="24">
         <f>Sheet2!$F4</f>
         <v>0</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H15" s="24">
         <f>Sheet3!$F4</f>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="I15" s="19"/>
+      <c r="J15" s="18">
         <f>Sheet1!$E60</f>
         <v>0.66600000000000004</v>
       </c>
-      <c r="K13">
+      <c r="K15" s="18">
         <f>Sheet2!$E60</f>
         <v>0.312</v>
       </c>
-      <c r="L13">
+      <c r="L15" s="18">
         <f>Sheet3!$E60</f>
         <v>1.3779999999999999</v>
       </c>
-      <c r="N13">
+      <c r="M15" s="18"/>
+      <c r="N15" s="18">
         <f>Sheet1!$F60</f>
         <v>7.05</v>
       </c>
-      <c r="O13">
+      <c r="O15" s="18">
         <f>Sheet2!$F60</f>
         <v>3.58</v>
       </c>
-      <c r="P13">
+      <c r="P15" s="18">
         <f>Sheet3!$F60</f>
         <v>13.42</v>
       </c>
-      <c r="R13">
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18">
         <f>Sheet1!$E32</f>
         <v>0.72899999999999998</v>
       </c>
-      <c r="S13">
+      <c r="S15" s="18">
         <f>Sheet2!$E32</f>
         <v>0.60299999999999998</v>
       </c>
-      <c r="T13">
+      <c r="T15" s="18">
         <f>Sheet3!$E32</f>
         <v>0.88400000000000001</v>
       </c>
-      <c r="V13">
+      <c r="U15" s="18"/>
+      <c r="V15" s="18">
         <f>Sheet1!$F32</f>
         <v>7.72</v>
       </c>
-      <c r="W13">
+      <c r="W15" s="18">
         <f>Sheet2!$F32</f>
         <v>6.92</v>
       </c>
-      <c r="X13">
+      <c r="X15" s="18">
         <f>Sheet3!$F32</f>
         <v>8.6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="B16" s="18">
         <f>Sheet1!$E6</f>
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C16" s="18">
         <f>Sheet2!$E6</f>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D16" s="18">
         <f>Sheet3!$E6</f>
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="E16" s="18"/>
+      <c r="F16" s="24">
         <f>Sheet1!$F6</f>
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G16" s="24">
         <f>Sheet2!$F6</f>
         <v>0</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H16" s="24">
         <f>Sheet3!$F6</f>
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="I16" s="19"/>
+      <c r="J16" s="18">
         <f>Sheet1!$E62</f>
         <v>0.49</v>
       </c>
-      <c r="K14">
+      <c r="K16" s="18">
         <f>Sheet2!$E62</f>
         <v>0.23300000000000001</v>
       </c>
-      <c r="L14">
+      <c r="L16" s="18">
         <f>Sheet3!$E62</f>
         <v>0.98499999999999999</v>
       </c>
-      <c r="N14">
+      <c r="M16" s="18"/>
+      <c r="N16" s="18">
         <f>Sheet1!$F62</f>
         <v>6.71</v>
       </c>
-      <c r="O14">
+      <c r="O16" s="18">
         <f>Sheet2!$F62</f>
         <v>3.39</v>
       </c>
-      <c r="P14">
+      <c r="P16" s="18">
         <f>Sheet3!$F62</f>
         <v>12.65</v>
       </c>
-      <c r="R14">
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18">
         <f>Sheet1!$E34</f>
         <v>0.63300000000000001</v>
       </c>
-      <c r="S14">
+      <c r="S16" s="18">
         <f>Sheet2!$E34</f>
         <v>0.53700000000000003</v>
       </c>
-      <c r="T14">
+      <c r="T16" s="18">
         <f>Sheet3!$E34</f>
         <v>0.753</v>
       </c>
-      <c r="V14">
+      <c r="U16" s="18"/>
+      <c r="V16" s="18">
         <f>Sheet1!$F34</f>
         <v>8.67</v>
       </c>
-      <c r="W14">
+      <c r="W16" s="18">
         <f>Sheet2!$F34</f>
         <v>7.81</v>
       </c>
-      <c r="X14">
+      <c r="X16" s="18">
         <f>Sheet3!$F34</f>
         <v>9.68</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="B17" s="18">
         <f>Sheet1!$E7</f>
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C17" s="18">
         <f>Sheet2!$E7</f>
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D17" s="18">
         <f>Sheet3!$E7</f>
         <v>0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="E17" s="18"/>
+      <c r="F17" s="24">
         <f>Sheet1!$F7</f>
         <v>0</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G17" s="24">
         <f>Sheet2!$F7</f>
         <v>0</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H17" s="24">
         <f>Sheet3!$F7</f>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="I17" s="19"/>
+      <c r="J17" s="18">
         <f>Sheet1!$E63</f>
         <v>0.55500000000000005</v>
       </c>
-      <c r="K15">
+      <c r="K17" s="18">
         <f>Sheet2!$E63</f>
         <v>0.32400000000000001</v>
       </c>
-      <c r="L15">
+      <c r="L17" s="18">
         <f>Sheet3!$E63</f>
         <v>0.996</v>
       </c>
-      <c r="N15">
+      <c r="M17" s="18"/>
+      <c r="N17" s="18">
         <f>Sheet1!$F63</f>
         <v>4.13</v>
       </c>
-      <c r="O15">
+      <c r="O17" s="18">
         <f>Sheet2!$F63</f>
         <v>2.73</v>
       </c>
-      <c r="P15">
+      <c r="P17" s="18">
         <f>Sheet3!$F63</f>
         <v>6.59</v>
       </c>
-      <c r="R15">
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18">
         <f>Sheet1!$E35</f>
         <v>0.97399999999999998</v>
       </c>
-      <c r="S15">
+      <c r="S17" s="18">
         <f>Sheet2!$E35</f>
         <v>0.74399999999999999</v>
       </c>
-      <c r="T15">
+      <c r="T17" s="18">
         <f>Sheet3!$E35</f>
         <v>1.242</v>
       </c>
-      <c r="V15">
+      <c r="U17" s="18"/>
+      <c r="V17" s="18">
         <f>Sheet1!$F35</f>
         <v>7.24</v>
       </c>
-      <c r="W15">
+      <c r="W17" s="18">
         <f>Sheet2!$F35</f>
         <v>6.27</v>
       </c>
-      <c r="X15">
+      <c r="X17" s="18">
         <f>Sheet3!$F35</f>
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
+      <c r="B18" s="26">
         <f>Sheet1!$E8</f>
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C18" s="26">
         <f>Sheet2!$E8</f>
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D18" s="26">
         <f>Sheet3!$E8</f>
         <v>0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="E18" s="26"/>
+      <c r="F18" s="27">
         <f>Sheet1!$F8</f>
         <v>0</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G18" s="27">
         <f>Sheet2!$F8</f>
         <v>0</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H18" s="27">
         <f>Sheet3!$F8</f>
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="I18" s="28"/>
+      <c r="J18" s="26">
         <f>Sheet1!$E64</f>
         <v>0.871</v>
       </c>
-      <c r="K16">
+      <c r="K18" s="26">
         <f>Sheet2!$E64</f>
         <v>0.39400000000000002</v>
       </c>
-      <c r="L16">
+      <c r="L18" s="26">
         <f>Sheet3!$E64</f>
         <v>1.7909999999999999</v>
       </c>
-      <c r="N16">
+      <c r="M18" s="26"/>
+      <c r="N18" s="26">
         <f>Sheet1!$F64</f>
         <v>6.08</v>
       </c>
-      <c r="O16">
+      <c r="O18" s="26">
         <f>Sheet2!$F64</f>
         <v>3.11</v>
       </c>
-      <c r="P16">
+      <c r="P18" s="26">
         <f>Sheet3!$F64</f>
         <v>11.17</v>
       </c>
-      <c r="R16">
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26">
         <f>Sheet1!$E36</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="S16">
+      <c r="S18" s="26">
         <f>Sheet2!$E36</f>
         <v>0.72299999999999998</v>
       </c>
-      <c r="T16">
+      <c r="T18" s="26">
         <f>Sheet3!$E36</f>
         <v>1.143</v>
       </c>
-      <c r="V16">
+      <c r="U18" s="26"/>
+      <c r="V18" s="26">
         <f>Sheet1!$F36</f>
         <v>6.39</v>
       </c>
-      <c r="W16">
+      <c r="W18" s="26">
         <f>Sheet2!$F36</f>
         <v>5.7</v>
       </c>
-      <c r="X16">
+      <c r="X18" s="26">
         <f>Sheet3!$F36</f>
         <v>7.13</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="12" t="s">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="12" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="12" t="s">
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="12" t="s">
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+    </row>
+    <row r="21" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="12" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="12" t="str">
-        <f>B19</f>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="15" t="str">
+        <f>B21</f>
         <v>DALYs</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="12" t="s">
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="12" t="str">
-        <f>J19</f>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="15" t="str">
+        <f>J21</f>
         <v>DALYs</v>
       </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="12" t="s">
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-    </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+    </row>
+    <row r="22" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="I22" s="16"/>
+      <c r="J22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4" t="s">
+      <c r="M22" s="16"/>
+      <c r="N22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4" t="s">
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="T22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4" t="s">
+      <c r="U22" s="16"/>
+      <c r="V22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="W22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="X22" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="9">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="18">
         <f>[4]table1_global_val!$D$3</f>
         <v>125.31100000000001</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C23" s="18">
         <f>[5]table1_global_lower!$D$3</f>
         <v>92.995000000000005</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D23" s="18">
         <f>[6]table1_global_upper!$D$3</f>
         <v>163.178</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10">
+      <c r="E23" s="18"/>
+      <c r="F23" s="19">
         <f>[4]table1_global_val!$E$3</f>
         <v>4.9400000000000004</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G23" s="19">
         <f>[5]table1_global_lower!$E$3</f>
         <v>4.07</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H23" s="19">
         <f>[6]table1_global_upper!$E$3</f>
         <v>5.81</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="9">
+      <c r="I23" s="19"/>
+      <c r="J23" s="18">
         <f>[4]table1_global_val!$D$7</f>
         <v>300.72699999999998</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K23" s="18">
         <f>[5]table1_global_lower!$D$7</f>
         <v>158.57</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L23" s="18">
         <f>[6]table1_global_upper!$D$7</f>
         <v>468.55</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9">
+      <c r="M23" s="18"/>
+      <c r="N23" s="18">
         <f>[4]table1_global_val!$E$7</f>
         <v>11.85</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O23" s="18">
         <f>[5]table1_global_lower!$E$7</f>
         <v>6.94</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P23" s="18">
         <f>[6]table1_global_upper!$E$7</f>
         <v>16.670000000000002</v>
       </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9">
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18">
         <f>[4]table1_global_val!$D$15</f>
         <v>358.46600000000001</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S23" s="18">
         <f>[5]table1_global_lower!$D$15</f>
         <v>212.29499999999999</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T23" s="18">
         <f>[6]table1_global_upper!$D$15</f>
         <v>520.76400000000001</v>
       </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9">
+      <c r="U23" s="18"/>
+      <c r="V23" s="18">
         <f>[4]table1_global_val!$E$15</f>
         <v>14.12</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W23" s="18">
         <f>[5]table1_global_lower!$E$15</f>
         <v>9.2899999999999991</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X23" s="18">
         <f>[6]table1_global_upper!$E$15</f>
         <v>18.53</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B26" s="18">
         <f>[7]table1_income_val!E7</f>
         <v>24.52</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C26" s="18">
         <f>[8]table1_income_lower!E7</f>
         <v>18.146000000000001</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D26" s="18">
         <f>[9]table1_income_upper!E7</f>
         <v>32.036000000000001</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
+      <c r="E26" s="18"/>
+      <c r="F26" s="19">
         <f>[7]table1_income_val!F7</f>
         <v>6.68</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G26" s="19">
         <f>[8]table1_income_lower!F7</f>
         <v>5.67</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H26" s="19">
         <f>[9]table1_income_upper!F7</f>
         <v>7.63</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="9">
+      <c r="I26" s="19"/>
+      <c r="J26" s="18">
         <f>[7]table1_income_val!E27</f>
         <v>66.054000000000002</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K26" s="18">
         <f>[8]table1_income_lower!E27</f>
         <v>32.859000000000002</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L26" s="18">
         <f>[9]table1_income_upper!E27</f>
         <v>105.119</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9">
+      <c r="M26" s="18"/>
+      <c r="N26" s="18">
         <f>[7]table1_income_val!F27</f>
         <v>17.989999999999998</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O26" s="18">
         <f>[8]table1_income_lower!F27</f>
         <v>10.26</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P26" s="18">
         <f>[9]table1_income_upper!F27</f>
         <v>25.05</v>
       </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9">
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18">
         <f>[7]table1_income_val!E47</f>
         <v>66.816000000000003</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S26" s="18">
         <f>[8]table1_income_lower!E47</f>
         <v>36.39</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T26" s="18">
         <f>[9]table1_income_upper!E47</f>
         <v>98.707999999999998</v>
       </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9">
+      <c r="U26" s="18"/>
+      <c r="V26" s="18">
         <f>[7]table1_income_val!F47</f>
         <v>18.2</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W26" s="18">
         <f>[8]table1_income_lower!F47</f>
         <v>11.37</v>
       </c>
-      <c r="X23" s="9">
+      <c r="X26" s="18">
         <f>[9]table1_income_upper!F47</f>
         <v>23.52</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B27" s="18">
         <f>[7]table1_income_val!E8</f>
         <v>45.645000000000003</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C27" s="18">
         <f>[8]table1_income_lower!E8</f>
         <v>33.823999999999998</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D27" s="18">
         <f>[9]table1_income_upper!E8</f>
         <v>59.694000000000003</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9">
+      <c r="E27" s="18"/>
+      <c r="F27" s="19">
         <f>[7]table1_income_val!F8</f>
         <v>5.57</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G27" s="19">
         <f>[8]table1_income_lower!F8</f>
         <v>4.74</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H27" s="19">
         <f>[9]table1_income_upper!F8</f>
         <v>6.4</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="9">
+      <c r="I27" s="19"/>
+      <c r="J27" s="18">
         <f>[7]table1_income_val!E28</f>
         <v>110.012</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K27" s="18">
         <f>[8]table1_income_lower!E28</f>
         <v>54.555</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L27" s="18">
         <f>[9]table1_income_upper!E28</f>
         <v>177.09700000000001</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9">
+      <c r="M27" s="18"/>
+      <c r="N27" s="18">
         <f>[7]table1_income_val!F28</f>
         <v>13.43</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O27" s="18">
         <f>[8]table1_income_lower!F28</f>
         <v>7.64</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P27" s="18">
         <f>[9]table1_income_upper!F28</f>
         <v>18.98</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9">
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18">
         <f>[7]table1_income_val!E48</f>
         <v>124.20099999999999</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S27" s="18">
         <f>[8]table1_income_lower!E48</f>
         <v>68.236999999999995</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T27" s="18">
         <f>[9]table1_income_upper!E48</f>
         <v>186.78399999999999</v>
       </c>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9">
+      <c r="U27" s="18"/>
+      <c r="V27" s="18">
         <f>[7]table1_income_val!F48</f>
         <v>15.16</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W27" s="18">
         <f>[8]table1_income_lower!F48</f>
         <v>9.56</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X27" s="18">
         <f>[9]table1_income_upper!F48</f>
         <v>20.02</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B28" s="18">
         <f>[7]table1_income_val!E9</f>
         <v>44.924999999999997</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C28" s="18">
         <f>[8]table1_income_lower!E9</f>
         <v>33</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D28" s="18">
         <f>[9]table1_income_upper!E9</f>
         <v>58.929000000000002</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9">
+      <c r="E28" s="18"/>
+      <c r="F28" s="19">
         <f>[7]table1_income_val!F9</f>
         <v>4.28</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G28" s="19">
         <f>[8]table1_income_lower!F9</f>
         <v>3.59</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H28" s="19">
         <f>[9]table1_income_upper!F9</f>
         <v>4.93</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="9">
+      <c r="I28" s="19"/>
+      <c r="J28" s="18">
         <f>[7]table1_income_val!E29</f>
         <v>105.06699999999999</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K28" s="18">
         <f>[8]table1_income_lower!E29</f>
         <v>55.308</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L28" s="18">
         <f>[9]table1_income_upper!E29</f>
         <v>165.34200000000001</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9">
+      <c r="M28" s="18"/>
+      <c r="N28" s="18">
         <f>[7]table1_income_val!F29</f>
         <v>10.02</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O28" s="18">
         <f>[8]table1_income_lower!F29</f>
         <v>6.02</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P28" s="18">
         <f>[9]table1_income_upper!F29</f>
         <v>13.83</v>
       </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9">
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18">
         <f>[7]table1_income_val!E49</f>
         <v>132.161</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S28" s="18">
         <f>[8]table1_income_lower!E49</f>
         <v>76.222999999999999</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T28" s="18">
         <f>[9]table1_income_upper!E49</f>
         <v>197.64400000000001</v>
       </c>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9">
+      <c r="U28" s="18"/>
+      <c r="V28" s="18">
         <f>[7]table1_income_val!F49</f>
         <v>12.6</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W28" s="18">
         <f>[8]table1_income_lower!F49</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X28" s="18">
         <f>[9]table1_income_upper!F49</f>
         <v>16.53</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B29" s="18">
         <f>[7]table1_income_val!E10</f>
         <v>10.146000000000001</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C29" s="18">
         <f>[8]table1_income_lower!E10</f>
         <v>7.3680000000000003</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D29" s="18">
         <f>[9]table1_income_upper!E10</f>
         <v>13.468</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="E29" s="18"/>
+      <c r="F29" s="19">
         <f>[7]table1_income_val!F10</f>
         <v>3.36</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G29" s="19">
         <f>[8]table1_income_lower!F10</f>
         <v>2.85</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H29" s="19">
         <f>[9]table1_income_upper!F10</f>
         <v>3.82</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="9">
+      <c r="I29" s="19"/>
+      <c r="J29" s="18">
         <f>[7]table1_income_val!E30</f>
         <v>19.427</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K29" s="18">
         <f>[8]table1_income_lower!E30</f>
         <v>10.48</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L29" s="18">
         <f>[9]table1_income_upper!E30</f>
         <v>30.821000000000002</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9">
+      <c r="M29" s="18"/>
+      <c r="N29" s="18">
         <f>[7]table1_income_val!F30</f>
         <v>6.44</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O29" s="18">
         <f>[8]table1_income_lower!F30</f>
         <v>4.05</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P29" s="18">
         <f>[9]table1_income_upper!F30</f>
         <v>8.74</v>
       </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9">
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18">
         <f>[7]table1_income_val!E50</f>
         <v>31.835000000000001</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S29" s="18">
         <f>[8]table1_income_lower!E50</f>
         <v>19.614000000000001</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T29" s="18">
         <f>[9]table1_income_upper!E50</f>
         <v>47.482999999999997</v>
       </c>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9">
+      <c r="U29" s="18"/>
+      <c r="V29" s="18">
         <f>[7]table1_income_val!F50</f>
         <v>10.55</v>
       </c>
-      <c r="W26" s="9">
+      <c r="W29" s="18">
         <f>[8]table1_income_lower!F50</f>
         <v>7.59</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X29" s="18">
         <f>[9]table1_income_upper!F50</f>
         <v>13.47</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-    </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" ref="A28:A33" si="0">A11</f>
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="23"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17" t="str">
+        <f>A13</f>
         <v>African Region</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B32" s="18">
         <f>Sheet1!$E9</f>
         <v>15.573</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C32" s="18">
         <f>Sheet2!$E9</f>
         <v>11.32</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D32" s="18">
         <f>Sheet3!$E9</f>
         <v>20.693999999999999</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10">
+      <c r="E32" s="18"/>
+      <c r="F32" s="24">
         <f>Sheet1!$F9</f>
         <v>3.07</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G32" s="24">
         <f>Sheet2!$F9</f>
         <v>2.58</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H32" s="24">
         <f>Sheet3!$F9</f>
         <v>3.53</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9">
+      <c r="I32" s="19"/>
+      <c r="J32" s="18">
         <f>Sheet1!$E65</f>
         <v>31.376000000000001</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K32" s="18">
         <f>Sheet2!$E65</f>
         <v>16.731999999999999</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L32" s="18">
         <f>Sheet3!$E65</f>
         <v>50.055</v>
       </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9">
+      <c r="M32" s="18"/>
+      <c r="N32" s="18">
         <f>Sheet1!$F65</f>
         <v>6.18</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O32" s="18">
         <f>Sheet2!$F65</f>
         <v>3.81</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P32" s="18">
         <f>Sheet3!$F65</f>
         <v>8.5299999999999994</v>
       </c>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9">
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18">
         <f>Sheet1!$E37</f>
         <v>49.777000000000001</v>
       </c>
-      <c r="S28" s="9">
+      <c r="S32" s="18">
         <f>Sheet2!$E37</f>
         <v>30.72</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T32" s="18">
         <f>Sheet3!$E37</f>
         <v>74.024000000000001</v>
       </c>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9">
+      <c r="U32" s="18"/>
+      <c r="V32" s="18">
         <f>Sheet1!$F37</f>
         <v>9.81</v>
       </c>
-      <c r="W28" s="9">
+      <c r="W32" s="18">
         <f>Sheet2!$F37</f>
         <v>7</v>
       </c>
-      <c r="X28" s="9">
+      <c r="X32" s="18">
         <f>Sheet3!$F37</f>
         <v>12.62</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17" t="str">
+        <f>A14</f>
         <v>Eastern Mediterranean Region</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B33" s="18">
         <f>Sheet1!$E10</f>
         <v>13.119</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C33" s="18">
         <f>Sheet2!$E10</f>
         <v>9.6140000000000008</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D33" s="18">
         <f>Sheet3!$E10</f>
         <v>17.366</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10">
+      <c r="E33" s="18"/>
+      <c r="F33" s="24">
         <f>Sheet1!$F10</f>
         <v>5.43</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G33" s="24">
         <f>Sheet2!$F10</f>
         <v>4.6100000000000003</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H33" s="24">
         <f>Sheet3!$F10</f>
         <v>6.22</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9">
+      <c r="I33" s="19"/>
+      <c r="J33" s="18">
         <f>Sheet1!$E66</f>
         <v>25.817</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K33" s="18">
         <f>Sheet2!$E66</f>
         <v>13.217000000000001</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L33" s="18">
         <f>Sheet3!$E66</f>
         <v>41.484000000000002</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9">
+      <c r="M33" s="18"/>
+      <c r="N33" s="18">
         <f>Sheet1!$F66</f>
         <v>10.69</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O33" s="18">
         <f>Sheet2!$F66</f>
         <v>6.33</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P33" s="18">
         <f>Sheet3!$F66</f>
         <v>14.87</v>
       </c>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9">
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18">
         <f>Sheet1!$E38</f>
         <v>35.277000000000001</v>
       </c>
-      <c r="S29" s="9">
+      <c r="S33" s="18">
         <f>Sheet2!$E38</f>
         <v>20.585000000000001</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T33" s="18">
         <f>Sheet3!$E38</f>
         <v>53.095999999999997</v>
       </c>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9">
+      <c r="U33" s="18"/>
+      <c r="V33" s="18">
         <f>Sheet1!$F38</f>
         <v>14.6</v>
       </c>
-      <c r="W29" s="9">
+      <c r="W33" s="18">
         <f>Sheet2!$F38</f>
         <v>9.86</v>
       </c>
-      <c r="X29" s="9">
+      <c r="X33" s="18">
         <f>Sheet3!$F38</f>
         <v>19.03</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17" t="str">
+        <f>A15</f>
         <v>European Region</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B34" s="18">
         <f>Sheet1!$E11</f>
         <v>17.451000000000001</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C34" s="18">
         <f>Sheet2!$E11</f>
         <v>12.849</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D34" s="18">
         <f>Sheet3!$E11</f>
         <v>22.901</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10">
+      <c r="E34" s="18"/>
+      <c r="F34" s="24">
         <f>Sheet1!$F11</f>
         <v>5.76</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G34" s="24">
         <f>Sheet2!$F11</f>
         <v>4.87</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H34" s="24">
         <f>Sheet3!$F11</f>
         <v>6.6</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="9">
+      <c r="I34" s="19"/>
+      <c r="J34" s="18">
         <f>Sheet1!$E67</f>
         <v>46.539000000000001</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K34" s="18">
         <f>Sheet2!$E67</f>
         <v>24.108000000000001</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L34" s="18">
         <f>Sheet3!$E67</f>
         <v>74.646000000000001</v>
       </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9">
+      <c r="M34" s="18"/>
+      <c r="N34" s="18">
         <f>Sheet1!$F67</f>
         <v>15.36</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O34" s="18">
         <f>Sheet2!$F67</f>
         <v>9.1300000000000008</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P34" s="18">
         <f>Sheet3!$F67</f>
         <v>21.52</v>
       </c>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9">
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18">
         <f>Sheet1!$E39</f>
         <v>48.752000000000002</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S34" s="18">
         <f>Sheet2!$E39</f>
         <v>27.350999999999999</v>
       </c>
-      <c r="T30" s="9">
+      <c r="T34" s="18">
         <f>Sheet3!$E39</f>
         <v>72.813999999999993</v>
       </c>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9">
+      <c r="U34" s="18"/>
+      <c r="V34" s="18">
         <f>Sheet1!$F39</f>
         <v>16.09</v>
       </c>
-      <c r="W30" s="9">
+      <c r="W34" s="18">
         <f>Sheet2!$F39</f>
         <v>10.36</v>
       </c>
-      <c r="X30" s="9">
+      <c r="X34" s="18">
         <f>Sheet3!$F39</f>
         <v>20.99</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17" t="str">
+        <f>A16</f>
         <v>Region of the Americas</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B35" s="18">
         <f>Sheet1!$E13</f>
         <v>20.358000000000001</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C35" s="18">
         <f>Sheet2!$E13</f>
         <v>15.06</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D35" s="18">
         <f>Sheet3!$E13</f>
         <v>26.638999999999999</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10">
+      <c r="E35" s="18"/>
+      <c r="F35" s="24">
         <f>Sheet1!$F13</f>
         <v>6.68</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G35" s="24">
         <f>Sheet2!$F13</f>
         <v>5.66</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H35" s="24">
         <f>Sheet3!$F13</f>
         <v>7.65</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="9">
+      <c r="I35" s="19"/>
+      <c r="J35" s="18">
         <f>Sheet1!$E69</f>
         <v>48.055999999999997</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K35" s="18">
         <f>Sheet2!$E69</f>
         <v>24.081</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L35" s="18">
         <f>Sheet3!$E69</f>
         <v>75.665999999999997</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9">
+      <c r="M35" s="18"/>
+      <c r="N35" s="18">
         <f>Sheet1!$F69</f>
         <v>15.77</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O35" s="18">
         <f>Sheet2!$F69</f>
         <v>9.0399999999999991</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P35" s="18">
         <f>Sheet3!$F69</f>
         <v>21.74</v>
       </c>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9">
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18">
         <f>Sheet1!$E41</f>
         <v>54.110999999999997</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S35" s="18">
         <f>Sheet2!$E41</f>
         <v>30.265999999999998</v>
       </c>
-      <c r="T31" s="9">
+      <c r="T35" s="18">
         <f>Sheet3!$E41</f>
         <v>79.801000000000002</v>
       </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9">
+      <c r="U35" s="18"/>
+      <c r="V35" s="18">
         <f>Sheet1!$F41</f>
         <v>17.760000000000002</v>
       </c>
-      <c r="W31" s="9">
+      <c r="W35" s="18">
         <f>Sheet2!$F41</f>
         <v>11.37</v>
       </c>
-      <c r="X31" s="9">
+      <c r="X35" s="18">
         <f>Sheet3!$F41</f>
         <v>22.93</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="str">
+        <f>A17</f>
         <v>South-East Asia Region</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B36" s="18">
         <f>Sheet1!$E14</f>
         <v>30.893999999999998</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C36" s="18">
         <f>Sheet2!$E14</f>
         <v>22.78</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D36" s="18">
         <f>Sheet3!$E14</f>
         <v>40.289000000000001</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10">
+      <c r="E36" s="18"/>
+      <c r="F36" s="24">
         <f>Sheet1!$F14</f>
         <v>4.7300000000000004</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G36" s="24">
         <f>Sheet2!$F14</f>
         <v>3.96</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H36" s="24">
         <f>Sheet3!$F14</f>
         <v>5.45</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="9">
+      <c r="I36" s="19"/>
+      <c r="J36" s="18">
         <f>Sheet1!$E70</f>
         <v>75.668000000000006</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K36" s="18">
         <f>Sheet2!$E70</f>
         <v>39.667000000000002</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L36" s="18">
         <f>Sheet3!$E70</f>
         <v>118.3</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9">
+      <c r="M36" s="18"/>
+      <c r="N36" s="18">
         <f>Sheet1!$F70</f>
         <v>11.59</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O36" s="18">
         <f>Sheet2!$F70</f>
         <v>6.89</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P36" s="18">
         <f>Sheet3!$F70</f>
         <v>15.99</v>
       </c>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9">
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18">
         <f>Sheet1!$E42</f>
         <v>89.394000000000005</v>
       </c>
-      <c r="S32" s="9">
+      <c r="S36" s="18">
         <f>Sheet2!$E42</f>
         <v>50.290999999999997</v>
       </c>
-      <c r="T32" s="9">
+      <c r="T36" s="18">
         <f>Sheet3!$E42</f>
         <v>133.79900000000001</v>
       </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9">
+      <c r="U36" s="18"/>
+      <c r="V36" s="18">
         <f>Sheet1!$F42</f>
         <v>13.69</v>
       </c>
-      <c r="W32" s="9">
+      <c r="W36" s="18">
         <f>Sheet2!$F42</f>
         <v>8.74</v>
       </c>
-      <c r="X32" s="9">
+      <c r="X36" s="18">
         <f>Sheet3!$F42</f>
         <v>18.09</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="str">
+        <f>A18</f>
         <v>Western Pacific Region</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B37" s="26">
         <f>Sheet1!$E15</f>
         <v>27.497</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C37" s="26">
         <f>Sheet2!$E15</f>
         <v>20.462</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D37" s="26">
         <f>Sheet3!$E15</f>
         <v>35.786000000000001</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10">
+      <c r="E37" s="26"/>
+      <c r="F37" s="27">
         <f>Sheet1!$F15</f>
         <v>5.28</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G37" s="27">
         <f>Sheet2!$F15</f>
         <v>4.53</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H37" s="27">
         <f>Sheet3!$F15</f>
         <v>6.04</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="9">
+      <c r="I37" s="28"/>
+      <c r="J37" s="26">
         <f>Sheet1!$E71</f>
         <v>72.037999999999997</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K37" s="26">
         <f>Sheet2!$E71</f>
         <v>34.887999999999998</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L37" s="26">
         <f>Sheet3!$E71</f>
         <v>116.497</v>
       </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9">
+      <c r="M37" s="26"/>
+      <c r="N37" s="26">
         <f>Sheet1!$F71</f>
         <v>13.84</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O37" s="26">
         <f>Sheet2!$F71</f>
         <v>7.72</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P37" s="26">
         <f>Sheet3!$F71</f>
         <v>19.649999999999999</v>
       </c>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9">
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26">
         <f>Sheet1!$E43</f>
         <v>76.698999999999998</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S37" s="26">
         <f>Sheet2!$E43</f>
         <v>40.774000000000001</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T37" s="26">
         <f>Sheet3!$E43</f>
         <v>115.509</v>
       </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9">
+      <c r="U37" s="26"/>
+      <c r="V37" s="26">
         <f>Sheet1!$F43</f>
         <v>14.74</v>
       </c>
-      <c r="W33" s="9">
+      <c r="W37" s="26">
         <f>Sheet2!$F43</f>
         <v>9.02</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X37" s="26">
         <f>Sheet3!$F43</f>
         <v>19.489999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-    </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="13" t="s">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="13" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="13" t="s">
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="13" t="s">
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+    </row>
+    <row r="40" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="13" t="str">
-        <f>B36</f>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="15" t="str">
+        <f>B40</f>
         <v>YLDs</v>
       </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="13" t="s">
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="13" t="str">
-        <f>B36</f>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="15" t="str">
+        <f>B40</f>
         <v>YLDs</v>
       </c>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="13" t="s">
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="10" t="s">
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+    </row>
+    <row r="41" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="14"/>
+      <c r="B41" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D41" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10" t="s">
+      <c r="E41" s="16"/>
+      <c r="F41" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H41" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10" t="s">
+      <c r="I41" s="16"/>
+      <c r="J41" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L41" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10" t="s">
+      <c r="M41" s="16"/>
+      <c r="N41" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O37" s="10" t="s">
+      <c r="O41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P37" s="10" t="s">
+      <c r="P41" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10" t="s">
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="S37" s="10" t="s">
+      <c r="S41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T37" s="10" t="s">
+      <c r="T41" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10" t="s">
+      <c r="U41" s="16"/>
+      <c r="V41" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="W37" s="10" t="s">
+      <c r="W41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X37" s="10" t="s">
+      <c r="X41" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="9">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="18">
         <f>[4]table1_global_val!$D$4</f>
         <v>125.294</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C42" s="18">
         <f>[5]table1_global_lower!$D$4</f>
         <v>92.977999999999994</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D42" s="18">
         <f>[6]table1_global_upper!$D$4</f>
         <v>163.16200000000001</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10">
+      <c r="E42" s="18"/>
+      <c r="F42" s="19">
         <f>[4]table1_global_val!$E$4</f>
         <v>14.55</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G42" s="19">
         <f>[5]table1_global_lower!$E$4</f>
         <v>14.52</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H42" s="19">
         <f>[6]table1_global_upper!$E$4</f>
         <v>14.74</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="9">
+      <c r="I42" s="19"/>
+      <c r="J42" s="18">
         <f>[4]table1_global_val!$D$8</f>
         <v>238.31200000000001</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K42" s="18">
         <f>[5]table1_global_lower!$D$8</f>
         <v>112.33199999999999</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L42" s="18">
         <f>[6]table1_global_upper!$D$8</f>
         <v>375.85300000000001</v>
       </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9">
+      <c r="M42" s="18"/>
+      <c r="N42" s="18">
         <f>[4]table1_global_val!$E$8</f>
         <v>27.68</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O42" s="18">
         <f>[5]table1_global_lower!$E$8</f>
         <v>17.54</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P42" s="18">
         <f>[6]table1_global_upper!$E$8</f>
         <v>33.950000000000003</v>
       </c>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9">
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18">
         <f>[4]table1_global_val!$D$16</f>
         <v>238.31200000000001</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S42" s="18">
         <f>[5]table1_global_lower!$D$16</f>
         <v>112.33199999999999</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T42" s="18">
         <f>[6]table1_global_upper!$D$16</f>
         <v>375.85300000000001</v>
       </c>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9">
+      <c r="U42" s="18"/>
+      <c r="V42" s="18">
         <f>[4]table1_global_val!$E$16</f>
         <v>27.68</v>
       </c>
-      <c r="W38" s="9">
+      <c r="W42" s="18">
         <f>[5]table1_global_lower!$E$16</f>
         <v>17.54</v>
       </c>
-      <c r="X38" s="9">
+      <c r="X42" s="18">
         <f>[6]table1_global_upper!$E$16</f>
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B45" s="18">
         <f>[7]table1_income_val!E12</f>
         <v>24.51</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C45" s="18">
         <f>[8]table1_income_lower!E12</f>
         <v>18.135999999999999</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D45" s="18">
         <f>[9]table1_income_upper!E12</f>
         <v>32.026000000000003</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9">
+      <c r="E45" s="18"/>
+      <c r="F45" s="19">
         <f>[7]table1_income_val!F12</f>
         <v>14.12</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G45" s="19">
         <f>[8]table1_income_lower!F12</f>
         <v>14</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H45" s="19">
         <f>[9]table1_income_upper!F12</f>
         <v>14.34</v>
       </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="9">
+      <c r="I45" s="19"/>
+      <c r="J45" s="18">
         <f>[7]table1_income_val!E32</f>
         <v>50.798999999999999</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K45" s="18">
         <f>[8]table1_income_lower!E32</f>
         <v>22.64</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L45" s="18">
         <f>[9]table1_income_upper!E32</f>
         <v>79.933000000000007</v>
       </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9">
+      <c r="M45" s="18"/>
+      <c r="N45" s="18">
         <f>[7]table1_income_val!F32</f>
         <v>29.26</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O45" s="18">
         <f>[8]table1_income_lower!F32</f>
         <v>17.48</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P45" s="18">
         <f>[9]table1_income_upper!F32</f>
         <v>35.79</v>
       </c>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9">
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18">
         <f>[7]table1_income_val!E52</f>
         <v>50.798999999999999</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S45" s="18">
         <f>[8]table1_income_lower!E52</f>
         <v>22.64</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T45" s="18">
         <f>[9]table1_income_upper!E52</f>
         <v>79.933000000000007</v>
       </c>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9">
+      <c r="U45" s="18"/>
+      <c r="V45" s="18">
         <f>[7]table1_income_val!F52</f>
         <v>29.26</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W45" s="18">
         <f>[8]table1_income_lower!F52</f>
         <v>17.48</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X45" s="18">
         <f>[9]table1_income_upper!F52</f>
         <v>35.79</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B46" s="18">
         <f>[7]table1_income_val!E13</f>
         <v>45.640999999999998</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C46" s="18">
         <f>[8]table1_income_lower!E13</f>
         <v>33.82</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D46" s="18">
         <f>[9]table1_income_upper!E13</f>
         <v>59.689</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9">
+      <c r="E46" s="18"/>
+      <c r="F46" s="19">
         <f>[7]table1_income_val!F13</f>
         <v>14.49</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G46" s="19">
         <f>[8]table1_income_lower!F13</f>
         <v>14.39</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H46" s="19">
         <f>[9]table1_income_upper!F13</f>
         <v>14.62</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="9">
+      <c r="I46" s="19"/>
+      <c r="J46" s="18">
         <f>[7]table1_income_val!E33</f>
         <v>89.167000000000002</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K46" s="18">
         <f>[8]table1_income_lower!E33</f>
         <v>40.927999999999997</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L46" s="18">
         <f>[9]table1_income_upper!E33</f>
         <v>142.15700000000001</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9">
+      <c r="M46" s="18"/>
+      <c r="N46" s="18">
         <f>[7]table1_income_val!F33</f>
         <v>28.31</v>
       </c>
-      <c r="O41" s="9">
+      <c r="O46" s="18">
         <f>[8]table1_income_lower!F33</f>
         <v>17.420000000000002</v>
       </c>
-      <c r="P41" s="9">
+      <c r="P46" s="18">
         <f>[9]table1_income_upper!F33</f>
         <v>34.82</v>
       </c>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9">
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18">
         <f>[7]table1_income_val!E53</f>
         <v>89.167000000000002</v>
       </c>
-      <c r="S41" s="9">
+      <c r="S46" s="18">
         <f>[8]table1_income_lower!E53</f>
         <v>40.927999999999997</v>
       </c>
-      <c r="T41" s="9">
+      <c r="T46" s="18">
         <f>[9]table1_income_upper!E53</f>
         <v>142.15700000000001</v>
       </c>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9">
+      <c r="U46" s="18"/>
+      <c r="V46" s="18">
         <f>[7]table1_income_val!F53</f>
         <v>28.31</v>
       </c>
-      <c r="W41" s="9">
+      <c r="W46" s="18">
         <f>[8]table1_income_lower!F53</f>
         <v>17.420000000000002</v>
       </c>
-      <c r="X41" s="9">
+      <c r="X46" s="18">
         <f>[9]table1_income_upper!F53</f>
         <v>34.82</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B47" s="18">
         <f>[7]table1_income_val!E14</f>
         <v>44.921999999999997</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C47" s="18">
         <f>[8]table1_income_lower!E14</f>
         <v>32.997999999999998</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D47" s="18">
         <f>[9]table1_income_upper!E14</f>
         <v>58.923999999999999</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9">
+      <c r="E47" s="18"/>
+      <c r="F47" s="19">
         <f>[7]table1_income_val!F14</f>
         <v>14.47</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G47" s="19">
         <f>[8]table1_income_lower!F14</f>
         <v>14.31</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H47" s="19">
         <f>[9]table1_income_upper!F14</f>
         <v>14.61</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="9">
+      <c r="I47" s="19"/>
+      <c r="J47" s="18">
         <f>[7]table1_income_val!E34</f>
         <v>82.046999999999997</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K47" s="18">
         <f>[8]table1_income_lower!E34</f>
         <v>38.281999999999996</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L47" s="18">
         <f>[9]table1_income_upper!E34</f>
         <v>132.411</v>
       </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9">
+      <c r="M47" s="18"/>
+      <c r="N47" s="18">
         <f>[7]table1_income_val!F34</f>
         <v>26.43</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O47" s="18">
         <f>[8]table1_income_lower!F34</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P47" s="18">
         <f>[9]table1_income_upper!F34</f>
         <v>32.83</v>
       </c>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9">
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18">
         <f>[7]table1_income_val!E54</f>
         <v>82.046999999999997</v>
       </c>
-      <c r="S42" s="9">
+      <c r="S47" s="18">
         <f>[8]table1_income_lower!E54</f>
         <v>38.281999999999996</v>
       </c>
-      <c r="T42" s="9">
+      <c r="T47" s="18">
         <f>[9]table1_income_upper!E54</f>
         <v>132.411</v>
       </c>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9">
+      <c r="U47" s="18"/>
+      <c r="V47" s="18">
         <f>[7]table1_income_val!F54</f>
         <v>26.43</v>
       </c>
-      <c r="W42" s="9">
+      <c r="W47" s="18">
         <f>[8]table1_income_lower!F54</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="X42" s="9">
+      <c r="X47" s="18">
         <f>[9]table1_income_upper!F54</f>
         <v>32.83</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B48" s="18">
         <f>[7]table1_income_val!E15</f>
         <v>10.146000000000001</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C48" s="18">
         <f>[8]table1_income_lower!E15</f>
         <v>7.3680000000000003</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D48" s="18">
         <f>[9]table1_income_upper!E15</f>
         <v>13.468</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9">
+      <c r="E48" s="18"/>
+      <c r="F48" s="19">
         <f>[7]table1_income_val!F15</f>
         <v>16.5</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G48" s="19">
         <f>[8]table1_income_lower!F15</f>
         <v>16.28</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H48" s="19">
         <f>[9]table1_income_upper!F15</f>
         <v>16.75</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="9">
+      <c r="I48" s="19"/>
+      <c r="J48" s="18">
         <f>[7]table1_income_val!E35</f>
         <v>16.161999999999999</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K48" s="18">
         <f>[8]table1_income_lower!E35</f>
         <v>8.23</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L48" s="18">
         <f>[9]table1_income_upper!E35</f>
         <v>25.939</v>
       </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9">
+      <c r="M48" s="18"/>
+      <c r="N48" s="18">
         <f>[7]table1_income_val!F35</f>
         <v>26.28</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O48" s="18">
         <f>[8]table1_income_lower!F35</f>
         <v>18.18</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P48" s="18">
         <f>[9]table1_income_upper!F35</f>
         <v>32.26</v>
       </c>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9">
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18">
         <f>[7]table1_income_val!E55</f>
         <v>16.161999999999999</v>
       </c>
-      <c r="S43" s="9">
+      <c r="S48" s="18">
         <f>[8]table1_income_lower!E55</f>
         <v>8.23</v>
       </c>
-      <c r="T43" s="9">
+      <c r="T48" s="18">
         <f>[9]table1_income_upper!E55</f>
         <v>25.939</v>
       </c>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9">
+      <c r="U48" s="18"/>
+      <c r="V48" s="18">
         <f>[7]table1_income_val!F55</f>
         <v>26.28</v>
       </c>
-      <c r="W43" s="9">
+      <c r="W48" s="18">
         <f>[8]table1_income_lower!F55</f>
         <v>18.18</v>
       </c>
-      <c r="X43" s="9">
+      <c r="X48" s="18">
         <f>[9]table1_income_upper!F55</f>
         <v>32.26</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f t="shared" ref="A45:A50" si="1">A28</f>
+    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+    </row>
+    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="23"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+    </row>
+    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17" t="str">
+        <f>A32</f>
         <v>African Region</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B51" s="18">
         <f>Sheet1!$E16</f>
         <v>15.571999999999999</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C51" s="18">
         <f>Sheet2!$E16</f>
         <v>11.319000000000001</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D51" s="18">
         <f>Sheet3!$E16</f>
         <v>20.693000000000001</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10">
+      <c r="E51" s="18"/>
+      <c r="F51" s="24">
         <f>Sheet1!$F16</f>
         <v>15.41</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G51" s="24">
         <f>Sheet2!$F16</f>
         <v>15.19</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H51" s="24">
         <f>Sheet3!$F16</f>
         <v>15.67</v>
       </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="9">
+      <c r="I51" s="19"/>
+      <c r="J51" s="18">
         <f>Sheet1!$E72</f>
         <v>25.946999999999999</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K51" s="18">
         <f>Sheet2!$E72</f>
         <v>12.961</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L51" s="18">
         <f>Sheet3!$E72</f>
         <v>41.923000000000002</v>
       </c>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9">
+      <c r="M51" s="18"/>
+      <c r="N51" s="18">
         <f>Sheet1!$F72</f>
         <v>25.68</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O51" s="18">
         <f>Sheet2!$F72</f>
         <v>17.39</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P51" s="18">
         <f>Sheet3!$F72</f>
         <v>31.74</v>
       </c>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9">
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18">
         <f>Sheet1!$E44</f>
         <v>25.946999999999999</v>
       </c>
-      <c r="S45" s="9">
+      <c r="S51" s="18">
         <f>Sheet2!$E44</f>
         <v>12.961</v>
       </c>
-      <c r="T45" s="9">
+      <c r="T51" s="18">
         <f>Sheet3!$E44</f>
         <v>41.923000000000002</v>
       </c>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9">
+      <c r="U51" s="18"/>
+      <c r="V51" s="18">
         <f>Sheet1!$F44</f>
         <v>25.68</v>
       </c>
-      <c r="W45" s="9">
+      <c r="W51" s="18">
         <f>Sheet2!$F44</f>
         <v>17.39</v>
       </c>
-      <c r="X45" s="9">
+      <c r="X51" s="18">
         <f>Sheet3!$F44</f>
         <v>31.74</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="17" t="str">
+        <f>A33</f>
+        <v>Eastern Mediterranean Region</v>
+      </c>
+      <c r="B52" s="18">
+        <f>Sheet1!$E17</f>
+        <v>13.119</v>
+      </c>
+      <c r="C52" s="18">
+        <f>Sheet2!$E17</f>
+        <v>9.6129999999999995</v>
+      </c>
+      <c r="D52" s="18">
+        <f>Sheet3!$E17</f>
+        <v>17.366</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="24">
+        <f>Sheet1!$F17</f>
+        <v>18.39</v>
+      </c>
+      <c r="G52" s="24">
+        <f>Sheet2!$F17</f>
+        <v>18.2</v>
+      </c>
+      <c r="H52" s="24">
+        <f>Sheet3!$F17</f>
+        <v>18.71</v>
+      </c>
+      <c r="I52" s="19"/>
+      <c r="J52" s="18">
+        <f>Sheet1!$E73</f>
+        <v>22.123999999999999</v>
+      </c>
+      <c r="K52" s="18">
+        <f>Sheet2!$E73</f>
+        <v>10.885999999999999</v>
+      </c>
+      <c r="L52" s="18">
+        <f>Sheet3!$E73</f>
+        <v>35.493000000000002</v>
+      </c>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18">
+        <f>Sheet1!$F73</f>
+        <v>31.01</v>
+      </c>
+      <c r="O52" s="18">
+        <f>Sheet2!$F73</f>
+        <v>20.61</v>
+      </c>
+      <c r="P52" s="18">
+        <f>Sheet3!$F73</f>
+        <v>38.24</v>
+      </c>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18">
+        <f>Sheet1!$E45</f>
+        <v>22.123999999999999</v>
+      </c>
+      <c r="S52" s="18">
+        <f>Sheet2!$E45</f>
+        <v>10.885999999999999</v>
+      </c>
+      <c r="T52" s="18">
+        <f>Sheet3!$E45</f>
+        <v>35.493000000000002</v>
+      </c>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18">
+        <f>Sheet1!$F45</f>
+        <v>31.01</v>
+      </c>
+      <c r="W52" s="18">
+        <f>Sheet2!$F45</f>
+        <v>20.61</v>
+      </c>
+      <c r="X52" s="18">
+        <f>Sheet3!$F45</f>
+        <v>38.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="17" t="str">
+        <f>A34</f>
+        <v>European Region</v>
+      </c>
+      <c r="B53" s="18">
+        <f>Sheet1!$E18</f>
+        <v>17.446000000000002</v>
+      </c>
+      <c r="C53" s="18">
+        <f>Sheet2!$E18</f>
+        <v>12.843999999999999</v>
+      </c>
+      <c r="D53" s="18">
+        <f>Sheet3!$E18</f>
+        <v>22.896000000000001</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="24">
+        <f>Sheet1!$F18</f>
+        <v>14.39</v>
+      </c>
+      <c r="G53" s="24">
+        <f>Sheet2!$F18</f>
+        <v>14.26</v>
+      </c>
+      <c r="H53" s="24">
+        <f>Sheet3!$F18</f>
+        <v>14.6</v>
+      </c>
+      <c r="I53" s="19"/>
+      <c r="J53" s="18">
+        <f>Sheet1!$E74</f>
+        <v>35.118000000000002</v>
+      </c>
+      <c r="K53" s="18">
+        <f>Sheet2!$E74</f>
+        <v>16.283999999999999</v>
+      </c>
+      <c r="L53" s="18">
+        <f>Sheet3!$E74</f>
+        <v>55.96</v>
+      </c>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18">
+        <f>Sheet1!$F74</f>
+        <v>28.96</v>
+      </c>
+      <c r="O53" s="18">
+        <f>Sheet2!$F74</f>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="P53" s="18">
+        <f>Sheet3!$F74</f>
+        <v>35.67</v>
+      </c>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18">
+        <f>Sheet1!$E46</f>
+        <v>35.118000000000002</v>
+      </c>
+      <c r="S53" s="18">
+        <f>Sheet2!$E46</f>
+        <v>16.283999999999999</v>
+      </c>
+      <c r="T53" s="18">
+        <f>Sheet3!$E46</f>
+        <v>55.96</v>
+      </c>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18">
+        <f>Sheet1!$F46</f>
+        <v>28.96</v>
+      </c>
+      <c r="W53" s="18">
+        <f>Sheet2!$F46</f>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="X53" s="18">
+        <f>Sheet3!$F46</f>
+        <v>35.67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="17" t="str">
+        <f>A35</f>
+        <v>Region of the Americas</v>
+      </c>
+      <c r="B54" s="18">
+        <f>Sheet1!$E20</f>
+        <v>20.355</v>
+      </c>
+      <c r="C54" s="18">
+        <f>Sheet2!$E20</f>
+        <v>15.057</v>
+      </c>
+      <c r="D54" s="18">
+        <f>Sheet3!$E20</f>
+        <v>26.635999999999999</v>
+      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="24">
+        <f>Sheet1!$F20</f>
+        <v>15.62</v>
+      </c>
+      <c r="G54" s="24">
+        <f>Sheet2!$F20</f>
+        <v>15.48</v>
+      </c>
+      <c r="H54" s="24">
+        <f>Sheet3!$F20</f>
+        <v>15.88</v>
+      </c>
+      <c r="I54" s="19"/>
+      <c r="J54" s="18">
+        <f>Sheet1!$E76</f>
+        <v>39.122999999999998</v>
+      </c>
+      <c r="K54" s="18">
+        <f>Sheet2!$E76</f>
+        <v>17.809999999999999</v>
+      </c>
+      <c r="L54" s="18">
+        <f>Sheet3!$E76</f>
+        <v>61.573</v>
+      </c>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18">
+        <f>Sheet1!$F76</f>
+        <v>30.02</v>
+      </c>
+      <c r="O54" s="18">
+        <f>Sheet2!$F76</f>
+        <v>18.309999999999999</v>
+      </c>
+      <c r="P54" s="18">
+        <f>Sheet3!$F76</f>
+        <v>36.71</v>
+      </c>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18">
+        <f>Sheet1!$E48</f>
+        <v>39.122999999999998</v>
+      </c>
+      <c r="S54" s="18">
+        <f>Sheet2!$E48</f>
+        <v>17.809999999999999</v>
+      </c>
+      <c r="T54" s="18">
+        <f>Sheet3!$E48</f>
+        <v>61.573</v>
+      </c>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18">
+        <f>Sheet1!$F48</f>
+        <v>30.02</v>
+      </c>
+      <c r="W54" s="18">
+        <f>Sheet2!$F48</f>
+        <v>18.309999999999999</v>
+      </c>
+      <c r="X54" s="18">
+        <f>Sheet3!$F48</f>
+        <v>36.71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="17" t="str">
+        <f>A36</f>
+        <v>South-East Asia Region</v>
+      </c>
+      <c r="B55" s="18">
+        <f>Sheet1!$E21</f>
+        <v>30.891999999999999</v>
+      </c>
+      <c r="C55" s="18">
+        <f>Sheet2!$E21</f>
+        <v>22.777999999999999</v>
+      </c>
+      <c r="D55" s="18">
+        <f>Sheet3!$E21</f>
+        <v>40.284999999999997</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="24">
+        <f>Sheet1!$F21</f>
+        <v>13.76</v>
+      </c>
+      <c r="G55" s="24">
+        <f>Sheet2!$F21</f>
+        <v>13.63</v>
+      </c>
+      <c r="H55" s="24">
+        <f>Sheet3!$F21</f>
+        <v>13.84</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="18">
+        <f>Sheet1!$E77</f>
+        <v>58.295000000000002</v>
+      </c>
+      <c r="K55" s="18">
+        <f>Sheet2!$E77</f>
+        <v>26.484999999999999</v>
+      </c>
+      <c r="L55" s="18">
+        <f>Sheet3!$E77</f>
+        <v>93.983999999999995</v>
+      </c>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18">
+        <f>Sheet1!$F77</f>
+        <v>25.97</v>
+      </c>
+      <c r="O55" s="18">
+        <f>Sheet2!$F77</f>
+        <v>15.85</v>
+      </c>
+      <c r="P55" s="18">
+        <f>Sheet3!$F77</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18">
+        <f>Sheet1!$E49</f>
+        <v>58.295000000000002</v>
+      </c>
+      <c r="S55" s="18">
+        <f>Sheet2!$E49</f>
+        <v>26.484999999999999</v>
+      </c>
+      <c r="T55" s="18">
+        <f>Sheet3!$E49</f>
+        <v>93.983999999999995</v>
+      </c>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18">
+        <f>Sheet1!$F49</f>
+        <v>25.97</v>
+      </c>
+      <c r="W55" s="18">
+        <f>Sheet2!$F49</f>
+        <v>15.85</v>
+      </c>
+      <c r="X55" s="18">
+        <f>Sheet3!$F49</f>
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="25" t="str">
+        <f>A37</f>
+        <v>Western Pacific Region</v>
+      </c>
+      <c r="B56" s="26">
+        <f>Sheet1!$E22</f>
+        <v>27.491</v>
+      </c>
+      <c r="C56" s="26">
+        <f>Sheet2!$E22</f>
+        <v>20.456</v>
+      </c>
+      <c r="D56" s="26">
+        <f>Sheet3!$E22</f>
+        <v>35.78</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27">
+        <f>Sheet1!$F22</f>
+        <v>13.13</v>
+      </c>
+      <c r="G56" s="27">
+        <f>Sheet2!$F22</f>
+        <v>13.06</v>
+      </c>
+      <c r="H56" s="27">
+        <f>Sheet3!$F22</f>
+        <v>13.19</v>
+      </c>
+      <c r="I56" s="28"/>
+      <c r="J56" s="26">
+        <f>Sheet1!$E78</f>
+        <v>56.798000000000002</v>
+      </c>
+      <c r="K56" s="26">
+        <f>Sheet2!$E78</f>
+        <v>25.338000000000001</v>
+      </c>
+      <c r="L56" s="26">
+        <f>Sheet3!$E78</f>
+        <v>90.272000000000006</v>
+      </c>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26">
+        <f>Sheet1!$F78</f>
+        <v>27.14</v>
+      </c>
+      <c r="O56" s="26">
+        <f>Sheet2!$F78</f>
+        <v>16.18</v>
+      </c>
+      <c r="P56" s="26">
+        <f>Sheet3!$F78</f>
+        <v>33.270000000000003</v>
+      </c>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26">
+        <f>Sheet1!$E50</f>
+        <v>56.798000000000002</v>
+      </c>
+      <c r="S56" s="26">
+        <f>Sheet2!$E50</f>
+        <v>25.338000000000001</v>
+      </c>
+      <c r="T56" s="26">
+        <f>Sheet3!$E50</f>
+        <v>90.272000000000006</v>
+      </c>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26">
+        <f>Sheet1!$F50</f>
+        <v>27.14</v>
+      </c>
+      <c r="W56" s="26">
+        <f>Sheet2!$F50</f>
+        <v>16.18</v>
+      </c>
+      <c r="X56" s="26">
+        <f>Sheet3!$F50</f>
+        <v>33.270000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+    </row>
+    <row r="59" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="15" t="str">
+        <f>B59</f>
+        <v>YLLs</v>
+      </c>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="15" t="str">
+        <f>J59</f>
+        <v>YLLs</v>
+      </c>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+    </row>
+    <row r="60" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="14"/>
+      <c r="B60" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="T60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W60" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X60" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="18">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="18">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="18">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="18">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="19">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="19">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="19">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="19"/>
+      <c r="J61" s="18">
+        <f>[4]table1_global_val!$D$9</f>
+        <v>62.414999999999999</v>
+      </c>
+      <c r="K61" s="18">
+        <f>[5]table1_global_lower!$D$9</f>
+        <v>43.771999999999998</v>
+      </c>
+      <c r="L61" s="18">
+        <f>[6]table1_global_upper!$D$9</f>
+        <v>96.471999999999994</v>
+      </c>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18">
+        <f>[4]table1_global_val!$E$9</f>
+        <v>3.72</v>
+      </c>
+      <c r="O61" s="18">
+        <f>[5]table1_global_lower!$E$9</f>
+        <v>2.8</v>
+      </c>
+      <c r="P61" s="18">
+        <f>[6]table1_global_upper!$E$9</f>
+        <v>5.33</v>
+      </c>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18">
+        <f>[4]table1_global_val!$D$17</f>
+        <v>120.155</v>
+      </c>
+      <c r="S61" s="18">
+        <f>[5]table1_global_lower!$D$17</f>
+        <v>99.962000000000003</v>
+      </c>
+      <c r="T61" s="18">
+        <f>[6]table1_global_upper!$D$17</f>
+        <v>144.911</v>
+      </c>
+      <c r="U61" s="18"/>
+      <c r="V61" s="18">
+        <f>[4]table1_global_val!$E$17</f>
+        <v>7.16</v>
+      </c>
+      <c r="W61" s="18">
+        <f>[5]table1_global_lower!$E$17</f>
+        <v>6.4</v>
+      </c>
+      <c r="X61" s="18">
+        <f>[6]table1_global_upper!$E$17</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+    </row>
+    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="18">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="18">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="18">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="19">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="19">
+        <f>G6</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="19">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="19"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+    </row>
+    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="18">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="18">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="18">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="18">
+        <f>E7</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="19">
+        <f>F7</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="19">
+        <f>G7</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="19">
+        <f>H7</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="19"/>
+      <c r="J64" s="18">
+        <f>[7]table1_income_val!E37</f>
+        <v>15.254</v>
+      </c>
+      <c r="K64" s="18">
+        <f>[8]table1_income_lower!E37</f>
+        <v>9.3409999999999993</v>
+      </c>
+      <c r="L64" s="18">
+        <f>[9]table1_income_upper!E37</f>
+        <v>26.324000000000002</v>
+      </c>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18">
+        <f>[7]table1_income_val!F37</f>
+        <v>7.88</v>
+      </c>
+      <c r="O64" s="18">
+        <f>[8]table1_income_lower!F37</f>
+        <v>5.04</v>
+      </c>
+      <c r="P64" s="18">
+        <f>[9]table1_income_upper!F37</f>
+        <v>12.96</v>
+      </c>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18">
+        <f>[7]table1_income_val!E57</f>
+        <v>16.015999999999998</v>
+      </c>
+      <c r="S64" s="18">
+        <f>[8]table1_income_lower!E57</f>
+        <v>13.749000000000001</v>
+      </c>
+      <c r="T64" s="18">
+        <f>[9]table1_income_upper!E57</f>
+        <v>18.774999999999999</v>
+      </c>
+      <c r="U64" s="18"/>
+      <c r="V64" s="18">
+        <f>[7]table1_income_val!F57</f>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="W64" s="18">
+        <f>[8]table1_income_lower!F57</f>
+        <v>7.42</v>
+      </c>
+      <c r="X64" s="18">
+        <f>[9]table1_income_upper!F57</f>
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="18">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="18">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="18">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="18">
+        <f>E8</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="19">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="19">
+        <f>G8</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="19">
+        <f>H8</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="19"/>
+      <c r="J65" s="18">
+        <f>[7]table1_income_val!E38</f>
+        <v>20.844999999999999</v>
+      </c>
+      <c r="K65" s="18">
+        <f>[8]table1_income_lower!E38</f>
+        <v>12.568</v>
+      </c>
+      <c r="L65" s="18">
+        <f>[9]table1_income_upper!E38</f>
+        <v>36.801000000000002</v>
+      </c>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18">
+        <f>[7]table1_income_val!F38</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="O65" s="18">
+        <f>[8]table1_income_lower!F38</f>
+        <v>2.86</v>
+      </c>
+      <c r="P65" s="18">
+        <f>[9]table1_income_upper!F38</f>
+        <v>6.4</v>
+      </c>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18">
+        <f>[7]table1_income_val!E58</f>
+        <v>35.033999999999999</v>
+      </c>
+      <c r="S65" s="18">
+        <f>[8]table1_income_lower!E58</f>
+        <v>27.309000000000001</v>
+      </c>
+      <c r="T65" s="18">
+        <f>[9]table1_income_upper!E58</f>
+        <v>44.627000000000002</v>
+      </c>
+      <c r="U65" s="18"/>
+      <c r="V65" s="18">
+        <f>[7]table1_income_val!F58</f>
+        <v>6.95</v>
+      </c>
+      <c r="W65" s="18">
+        <f>[8]table1_income_lower!F58</f>
+        <v>6.21</v>
+      </c>
+      <c r="X65" s="18">
+        <f>[9]table1_income_upper!F58</f>
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="18">
+        <f>B9</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="18">
+        <f>C9</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="18">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="18">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="19">
+        <f>F9</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="19">
+        <f>G9</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="19">
+        <f>H9</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="19"/>
+      <c r="J66" s="18">
+        <f>[7]table1_income_val!E39</f>
+        <v>23.02</v>
+      </c>
+      <c r="K66" s="18">
+        <f>[8]table1_income_lower!E39</f>
+        <v>16.033999999999999</v>
+      </c>
+      <c r="L66" s="18">
+        <f>[9]table1_income_upper!E39</f>
+        <v>34.286999999999999</v>
+      </c>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18">
+        <f>[7]table1_income_val!F39</f>
+        <v>3.12</v>
+      </c>
+      <c r="O66" s="18">
+        <f>[8]table1_income_lower!F39</f>
+        <v>2.5</v>
+      </c>
+      <c r="P66" s="18">
+        <f>[9]table1_income_upper!F39</f>
+        <v>4.04</v>
+      </c>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18">
+        <f>[7]table1_income_val!E59</f>
+        <v>50.113999999999997</v>
+      </c>
+      <c r="S66" s="18">
+        <f>[8]table1_income_lower!E59</f>
+        <v>37.941000000000003</v>
+      </c>
+      <c r="T66" s="18">
+        <f>[9]table1_income_upper!E59</f>
+        <v>65.231999999999999</v>
+      </c>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18">
+        <f>[7]table1_income_val!F59</f>
+        <v>6.79</v>
+      </c>
+      <c r="W66" s="18">
+        <f>[8]table1_income_lower!F59</f>
+        <v>5.91</v>
+      </c>
+      <c r="X66" s="18">
+        <f>[9]table1_income_upper!F59</f>
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="18">
+        <f>B10</f>
+        <v>0</v>
+      </c>
+      <c r="C67" s="18">
+        <f>C10</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="18">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="18">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="19">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="19">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="19">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="19"/>
+      <c r="J67" s="18">
+        <f>[7]table1_income_val!E40</f>
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="K67" s="18">
+        <f>[8]table1_income_lower!E40</f>
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="L67" s="18">
+        <f>[9]table1_income_upper!E40</f>
+        <v>5.2279999999999998</v>
+      </c>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18">
+        <f>[7]table1_income_val!F40</f>
+        <v>1.36</v>
+      </c>
+      <c r="O67" s="18">
+        <f>[8]table1_income_lower!F40</f>
+        <v>1.01</v>
+      </c>
+      <c r="P67" s="18">
+        <f>[9]table1_income_upper!F40</f>
+        <v>1.82</v>
+      </c>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18">
+        <f>[7]table1_income_val!E60</f>
+        <v>15.673</v>
+      </c>
+      <c r="S67" s="18">
+        <f>[8]table1_income_lower!E60</f>
+        <v>11.384</v>
+      </c>
+      <c r="T67" s="18">
+        <f>[9]table1_income_upper!E60</f>
+        <v>21.544</v>
+      </c>
+      <c r="U67" s="18"/>
+      <c r="V67" s="18">
+        <f>[7]table1_income_val!F60</f>
+        <v>6.53</v>
+      </c>
+      <c r="W67" s="18">
+        <f>[8]table1_income_lower!F60</f>
+        <v>5.66</v>
+      </c>
+      <c r="X67" s="18">
+        <f>[9]table1_income_upper!F60</f>
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="21"/>
+      <c r="X68" s="21"/>
+    </row>
+    <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="23"/>
+      <c r="B69" s="18">
+        <f t="shared" ref="B69:H75" si="0">B12</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="19"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18"/>
+      <c r="X69" s="18"/>
+    </row>
+    <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="17" t="str">
+        <f t="shared" ref="A70:A75" si="1">A51</f>
+        <v>African Region</v>
+      </c>
+      <c r="B70" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="19"/>
+      <c r="J70" s="18">
+        <f>Sheet1!$E79</f>
+        <v>5.43</v>
+      </c>
+      <c r="K70" s="18">
+        <f>Sheet2!$E79</f>
+        <v>3.4390000000000001</v>
+      </c>
+      <c r="L70" s="18">
+        <f>Sheet3!$E79</f>
+        <v>8.7080000000000002</v>
+      </c>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18">
+        <f>Sheet1!$F79</f>
+        <v>1.34</v>
+      </c>
+      <c r="O70" s="18">
+        <f>Sheet2!$F79</f>
+        <v>1</v>
+      </c>
+      <c r="P70" s="18">
+        <f>Sheet3!$F79</f>
+        <v>1.81</v>
+      </c>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18">
+        <f>Sheet1!$E51</f>
+        <v>23.831</v>
+      </c>
+      <c r="S70" s="18">
+        <f>Sheet2!$E51</f>
+        <v>17.759</v>
+      </c>
+      <c r="T70" s="18">
+        <f>Sheet3!$E51</f>
+        <v>32.100999999999999</v>
+      </c>
+      <c r="U70" s="18"/>
+      <c r="V70" s="18">
+        <f>Sheet1!$F51</f>
+        <v>5.86</v>
+      </c>
+      <c r="W70" s="18">
+        <f>Sheet2!$F51</f>
+        <v>5.14</v>
+      </c>
+      <c r="X70" s="18">
+        <f>Sheet3!$F51</f>
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Eastern Mediterranean Region</v>
       </c>
-      <c r="B46" s="9">
-        <f>Sheet1!$E17</f>
-        <v>13.119</v>
-      </c>
-      <c r="C46" s="9">
-        <f>Sheet2!$E17</f>
-        <v>9.6129999999999995</v>
-      </c>
-      <c r="D46" s="9">
-        <f>Sheet3!$E17</f>
-        <v>17.366</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="10">
-        <f>Sheet1!$F17</f>
-        <v>18.39</v>
-      </c>
-      <c r="G46" s="10">
-        <f>Sheet2!$F17</f>
-        <v>18.2</v>
-      </c>
-      <c r="H46" s="10">
-        <f>Sheet3!$F17</f>
-        <v>18.71</v>
-      </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="9">
-        <f>Sheet1!$E73</f>
-        <v>22.123999999999999</v>
-      </c>
-      <c r="K46" s="9">
-        <f>Sheet2!$E73</f>
-        <v>10.885999999999999</v>
-      </c>
-      <c r="L46" s="9">
-        <f>Sheet3!$E73</f>
-        <v>35.493000000000002</v>
-      </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9">
-        <f>Sheet1!$F73</f>
-        <v>31.01</v>
-      </c>
-      <c r="O46" s="9">
-        <f>Sheet2!$F73</f>
-        <v>20.61</v>
-      </c>
-      <c r="P46" s="9">
-        <f>Sheet3!$F73</f>
-        <v>38.24</v>
-      </c>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9">
-        <f>Sheet1!$E45</f>
-        <v>22.123999999999999</v>
-      </c>
-      <c r="S46" s="9">
-        <f>Sheet2!$E45</f>
-        <v>10.885999999999999</v>
-      </c>
-      <c r="T46" s="9">
-        <f>Sheet3!$E45</f>
-        <v>35.493000000000002</v>
-      </c>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9">
-        <f>Sheet1!$F45</f>
-        <v>31.01</v>
-      </c>
-      <c r="W46" s="9">
-        <f>Sheet2!$F45</f>
-        <v>20.61</v>
-      </c>
-      <c r="X46" s="9">
-        <f>Sheet3!$F45</f>
-        <v>38.24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
+      <c r="B71" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="19"/>
+      <c r="J71" s="18">
+        <f>Sheet1!$E80</f>
+        <v>3.6920000000000002</v>
+      </c>
+      <c r="K71" s="18">
+        <f>Sheet2!$E80</f>
+        <v>2.1110000000000002</v>
+      </c>
+      <c r="L71" s="18">
+        <f>Sheet3!$E80</f>
+        <v>6.3250000000000002</v>
+      </c>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18">
+        <f>Sheet1!$F80</f>
+        <v>2.17</v>
+      </c>
+      <c r="O71" s="18">
+        <f>Sheet2!$F80</f>
+        <v>1.46</v>
+      </c>
+      <c r="P71" s="18">
+        <f>Sheet3!$F80</f>
+        <v>3.17</v>
+      </c>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18">
+        <f>Sheet1!$E52</f>
+        <v>13.151999999999999</v>
+      </c>
+      <c r="S71" s="18">
+        <f>Sheet2!$E52</f>
+        <v>9.6980000000000004</v>
+      </c>
+      <c r="T71" s="18">
+        <f>Sheet3!$E52</f>
+        <v>17.603000000000002</v>
+      </c>
+      <c r="U71" s="18"/>
+      <c r="V71" s="18">
+        <f>Sheet1!$F52</f>
+        <v>7.73</v>
+      </c>
+      <c r="W71" s="18">
+        <f>Sheet2!$F52</f>
+        <v>6.7</v>
+      </c>
+      <c r="X71" s="18">
+        <f>Sheet3!$F52</f>
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="17" t="str">
         <f t="shared" si="1"/>
         <v>European Region</v>
       </c>
-      <c r="B47" s="9">
-        <f>Sheet1!$E18</f>
-        <v>17.446000000000002</v>
-      </c>
-      <c r="C47" s="9">
-        <f>Sheet2!$E18</f>
-        <v>12.843999999999999</v>
-      </c>
-      <c r="D47" s="9">
-        <f>Sheet3!$E18</f>
-        <v>22.896000000000001</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10">
-        <f>Sheet1!$F18</f>
-        <v>14.39</v>
-      </c>
-      <c r="G47" s="10">
-        <f>Sheet2!$F18</f>
-        <v>14.26</v>
-      </c>
-      <c r="H47" s="10">
-        <f>Sheet3!$F18</f>
-        <v>14.6</v>
-      </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="9">
-        <f>Sheet1!$E74</f>
-        <v>35.118000000000002</v>
-      </c>
-      <c r="K47" s="9">
-        <f>Sheet2!$E74</f>
-        <v>16.283999999999999</v>
-      </c>
-      <c r="L47" s="9">
-        <f>Sheet3!$E74</f>
-        <v>55.96</v>
-      </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9">
-        <f>Sheet1!$F74</f>
-        <v>28.96</v>
-      </c>
-      <c r="O47" s="9">
-        <f>Sheet2!$F74</f>
-        <v>18.079999999999998</v>
-      </c>
-      <c r="P47" s="9">
-        <f>Sheet3!$F74</f>
-        <v>35.67</v>
-      </c>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9">
-        <f>Sheet1!$E46</f>
-        <v>35.118000000000002</v>
-      </c>
-      <c r="S47" s="9">
-        <f>Sheet2!$E46</f>
-        <v>16.283999999999999</v>
-      </c>
-      <c r="T47" s="9">
-        <f>Sheet3!$E46</f>
-        <v>55.96</v>
-      </c>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9">
-        <f>Sheet1!$F46</f>
-        <v>28.96</v>
-      </c>
-      <c r="W47" s="9">
-        <f>Sheet2!$F46</f>
-        <v>18.079999999999998</v>
-      </c>
-      <c r="X47" s="9">
-        <f>Sheet3!$F46</f>
-        <v>35.67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
+      <c r="B72" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C72" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="19"/>
+      <c r="J72" s="18">
+        <f>Sheet1!$E81</f>
+        <v>11.420999999999999</v>
+      </c>
+      <c r="K72" s="18">
+        <f>Sheet2!$E81</f>
+        <v>7.1970000000000001</v>
+      </c>
+      <c r="L72" s="18">
+        <f>Sheet3!$E81</f>
+        <v>19.596</v>
+      </c>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18">
+        <f>Sheet1!$F81</f>
+        <v>6.28</v>
+      </c>
+      <c r="O72" s="18">
+        <f>Sheet2!$F81</f>
+        <v>4.37</v>
+      </c>
+      <c r="P72" s="18">
+        <f>Sheet3!$F81</f>
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18">
+        <f>Sheet1!$E53</f>
+        <v>13.634</v>
+      </c>
+      <c r="S72" s="18">
+        <f>Sheet2!$E53</f>
+        <v>11.066000000000001</v>
+      </c>
+      <c r="T72" s="18">
+        <f>Sheet3!$E53</f>
+        <v>16.853999999999999</v>
+      </c>
+      <c r="U72" s="18"/>
+      <c r="V72" s="18">
+        <f>Sheet1!$F53</f>
+        <v>7.5</v>
+      </c>
+      <c r="W72" s="18">
+        <f>Sheet2!$F53</f>
+        <v>6.72</v>
+      </c>
+      <c r="X72" s="18">
+        <f>Sheet3!$F53</f>
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Region of the Americas</v>
       </c>
-      <c r="B48" s="9">
-        <f>Sheet1!$E20</f>
-        <v>20.355</v>
-      </c>
-      <c r="C48" s="9">
-        <f>Sheet2!$E20</f>
-        <v>15.057</v>
-      </c>
-      <c r="D48" s="9">
-        <f>Sheet3!$E20</f>
-        <v>26.635999999999999</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10">
-        <f>Sheet1!$F20</f>
-        <v>15.62</v>
-      </c>
-      <c r="G48" s="10">
-        <f>Sheet2!$F20</f>
-        <v>15.48</v>
-      </c>
-      <c r="H48" s="10">
-        <f>Sheet3!$F20</f>
-        <v>15.88</v>
-      </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="9">
-        <f>Sheet1!$E76</f>
-        <v>39.122999999999998</v>
-      </c>
-      <c r="K48" s="9">
-        <f>Sheet2!$E76</f>
-        <v>17.809999999999999</v>
-      </c>
-      <c r="L48" s="9">
-        <f>Sheet3!$E76</f>
-        <v>61.573</v>
-      </c>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9">
-        <f>Sheet1!$F76</f>
-        <v>30.02</v>
-      </c>
-      <c r="O48" s="9">
-        <f>Sheet2!$F76</f>
-        <v>18.309999999999999</v>
-      </c>
-      <c r="P48" s="9">
-        <f>Sheet3!$F76</f>
-        <v>36.71</v>
-      </c>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9">
-        <f>Sheet1!$E48</f>
-        <v>39.122999999999998</v>
-      </c>
-      <c r="S48" s="9">
-        <f>Sheet2!$E48</f>
-        <v>17.809999999999999</v>
-      </c>
-      <c r="T48" s="9">
-        <f>Sheet3!$E48</f>
-        <v>61.573</v>
-      </c>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9">
-        <f>Sheet1!$F48</f>
-        <v>30.02</v>
-      </c>
-      <c r="W48" s="9">
-        <f>Sheet2!$F48</f>
-        <v>18.309999999999999</v>
-      </c>
-      <c r="X48" s="9">
-        <f>Sheet3!$F48</f>
-        <v>36.71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
+      <c r="B73" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C73" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D73" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="19"/>
+      <c r="J73" s="18">
+        <f>Sheet1!$E83</f>
+        <v>8.9320000000000004</v>
+      </c>
+      <c r="K73" s="18">
+        <f>Sheet2!$E83</f>
+        <v>5.8150000000000004</v>
+      </c>
+      <c r="L73" s="18">
+        <f>Sheet3!$E83</f>
+        <v>14.724</v>
+      </c>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18">
+        <f>Sheet1!$F83</f>
+        <v>5.12</v>
+      </c>
+      <c r="O73" s="18">
+        <f>Sheet2!$F83</f>
+        <v>3.61</v>
+      </c>
+      <c r="P73" s="18">
+        <f>Sheet3!$F83</f>
+        <v>7.75</v>
+      </c>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18">
+        <f>Sheet1!$E55</f>
+        <v>14.987</v>
+      </c>
+      <c r="S73" s="18">
+        <f>Sheet2!$E55</f>
+        <v>12.456</v>
+      </c>
+      <c r="T73" s="18">
+        <f>Sheet3!$E55</f>
+        <v>18.228000000000002</v>
+      </c>
+      <c r="U73" s="18"/>
+      <c r="V73" s="18">
+        <f>Sheet1!$F55</f>
+        <v>8.59</v>
+      </c>
+      <c r="W73" s="18">
+        <f>Sheet2!$F55</f>
+        <v>7.74</v>
+      </c>
+      <c r="X73" s="18">
+        <f>Sheet3!$F55</f>
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="17" t="str">
         <f t="shared" si="1"/>
         <v>South-East Asia Region</v>
       </c>
-      <c r="B49" s="9">
-        <f>Sheet1!$E21</f>
-        <v>30.891999999999999</v>
-      </c>
-      <c r="C49" s="9">
-        <f>Sheet2!$E21</f>
-        <v>22.777999999999999</v>
-      </c>
-      <c r="D49" s="9">
-        <f>Sheet3!$E21</f>
-        <v>40.284999999999997</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10">
-        <f>Sheet1!$F21</f>
-        <v>13.76</v>
-      </c>
-      <c r="G49" s="10">
-        <f>Sheet2!$F21</f>
-        <v>13.63</v>
-      </c>
-      <c r="H49" s="10">
-        <f>Sheet3!$F21</f>
-        <v>13.84</v>
-      </c>
-      <c r="I49" s="10"/>
-      <c r="J49" s="9">
-        <f>Sheet1!$E77</f>
-        <v>58.295000000000002</v>
-      </c>
-      <c r="K49" s="9">
-        <f>Sheet2!$E77</f>
-        <v>26.484999999999999</v>
-      </c>
-      <c r="L49" s="9">
-        <f>Sheet3!$E77</f>
-        <v>93.983999999999995</v>
-      </c>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9">
-        <f>Sheet1!$F77</f>
-        <v>25.97</v>
-      </c>
-      <c r="O49" s="9">
-        <f>Sheet2!$F77</f>
-        <v>15.85</v>
-      </c>
-      <c r="P49" s="9">
-        <f>Sheet3!$F77</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9">
-        <f>Sheet1!$E49</f>
-        <v>58.295000000000002</v>
-      </c>
-      <c r="S49" s="9">
-        <f>Sheet2!$E49</f>
-        <v>26.484999999999999</v>
-      </c>
-      <c r="T49" s="9">
-        <f>Sheet3!$E49</f>
-        <v>93.983999999999995</v>
-      </c>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9">
-        <f>Sheet1!$F49</f>
-        <v>25.97</v>
-      </c>
-      <c r="W49" s="9">
-        <f>Sheet2!$F49</f>
-        <v>15.85</v>
-      </c>
-      <c r="X49" s="9">
-        <f>Sheet3!$F49</f>
-        <v>32.299999999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
+      <c r="B74" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="19"/>
+      <c r="J74" s="18">
+        <f>Sheet1!$E84</f>
+        <v>17.372</v>
+      </c>
+      <c r="K74" s="18">
+        <f>Sheet2!$E84</f>
+        <v>12.506</v>
+      </c>
+      <c r="L74" s="18">
+        <f>Sheet3!$E84</f>
+        <v>25.102</v>
+      </c>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18">
+        <f>Sheet1!$F84</f>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="O74" s="18">
+        <f>Sheet2!$F84</f>
+        <v>3.3</v>
+      </c>
+      <c r="P74" s="18">
+        <f>Sheet3!$F84</f>
+        <v>5.19</v>
+      </c>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18">
+        <f>Sheet1!$E56</f>
+        <v>31.099</v>
+      </c>
+      <c r="S74" s="18">
+        <f>Sheet2!$E56</f>
+        <v>23.806999999999999</v>
+      </c>
+      <c r="T74" s="18">
+        <f>Sheet3!$E56</f>
+        <v>39.814999999999998</v>
+      </c>
+      <c r="U74" s="18"/>
+      <c r="V74" s="18">
+        <f>Sheet1!$F56</f>
+        <v>7.26</v>
+      </c>
+      <c r="W74" s="18">
+        <f>Sheet2!$F56</f>
+        <v>6.29</v>
+      </c>
+      <c r="X74" s="18">
+        <f>Sheet3!$F56</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Western Pacific Region</v>
       </c>
-      <c r="B50" s="9">
-        <f>Sheet1!$E22</f>
-        <v>27.491</v>
-      </c>
-      <c r="C50" s="9">
-        <f>Sheet2!$E22</f>
-        <v>20.456</v>
-      </c>
-      <c r="D50" s="9">
-        <f>Sheet3!$E22</f>
-        <v>35.78</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10">
-        <f>Sheet1!$F22</f>
-        <v>13.13</v>
-      </c>
-      <c r="G50" s="10">
-        <f>Sheet2!$F22</f>
-        <v>13.06</v>
-      </c>
-      <c r="H50" s="10">
-        <f>Sheet3!$F22</f>
-        <v>13.19</v>
-      </c>
-      <c r="I50" s="10"/>
-      <c r="J50" s="9">
-        <f>Sheet1!$E78</f>
-        <v>56.798000000000002</v>
-      </c>
-      <c r="K50" s="9">
-        <f>Sheet2!$E78</f>
-        <v>25.338000000000001</v>
-      </c>
-      <c r="L50" s="9">
-        <f>Sheet3!$E78</f>
-        <v>90.272000000000006</v>
-      </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9">
-        <f>Sheet1!$F78</f>
-        <v>27.14</v>
-      </c>
-      <c r="O50" s="9">
-        <f>Sheet2!$F78</f>
-        <v>16.18</v>
-      </c>
-      <c r="P50" s="9">
-        <f>Sheet3!$F78</f>
-        <v>33.270000000000003</v>
-      </c>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9">
-        <f>Sheet1!$E50</f>
-        <v>56.798000000000002</v>
-      </c>
-      <c r="S50" s="9">
-        <f>Sheet2!$E50</f>
-        <v>25.338000000000001</v>
-      </c>
-      <c r="T50" s="9">
-        <f>Sheet3!$E50</f>
-        <v>90.272000000000006</v>
-      </c>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9">
-        <f>Sheet1!$F50</f>
-        <v>27.14</v>
-      </c>
-      <c r="W50" s="9">
-        <f>Sheet2!$F50</f>
-        <v>16.18</v>
-      </c>
-      <c r="X50" s="9">
-        <f>Sheet3!$F50</f>
-        <v>33.270000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-    </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-    </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="13" t="str">
-        <f>B53</f>
-        <v>YLLs</v>
-      </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="13" t="str">
-        <f>J53</f>
-        <v>YLLs</v>
-      </c>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-    </row>
-    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="O54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="W54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X54" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="9">
-        <f>[4]table1_global_val!$D$5</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C55" s="9">
-        <f>[5]table1_global_lower!$D$5</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D55" s="9">
-        <f>[6]table1_global_upper!$D$5</f>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10">
-        <f>[4]table1_global_val!$E$5</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="10">
-        <f>[5]table1_global_lower!$E$5</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="10">
-        <f>[6]table1_global_upper!$E$5</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="10"/>
-      <c r="J55" s="9">
-        <f>[4]table1_global_val!$D$9</f>
-        <v>62.414999999999999</v>
-      </c>
-      <c r="K55" s="9">
-        <f>[5]table1_global_lower!$D$9</f>
-        <v>43.771999999999998</v>
-      </c>
-      <c r="L55" s="9">
-        <f>[6]table1_global_upper!$D$9</f>
-        <v>96.471999999999994</v>
-      </c>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9">
-        <f>[4]table1_global_val!$E$9</f>
-        <v>3.72</v>
-      </c>
-      <c r="O55" s="9">
-        <f>[5]table1_global_lower!$E$9</f>
-        <v>2.8</v>
-      </c>
-      <c r="P55" s="9">
-        <f>[6]table1_global_upper!$E$9</f>
-        <v>5.33</v>
-      </c>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9">
-        <f>[4]table1_global_val!$D$17</f>
-        <v>120.155</v>
-      </c>
-      <c r="S55" s="9">
-        <f>[5]table1_global_lower!$D$17</f>
-        <v>99.962000000000003</v>
-      </c>
-      <c r="T55" s="9">
-        <f>[6]table1_global_upper!$D$17</f>
-        <v>144.911</v>
-      </c>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9">
-        <f>[4]table1_global_val!$E$17</f>
-        <v>7.16</v>
-      </c>
-      <c r="W55" s="9">
-        <f>[5]table1_global_lower!$E$17</f>
-        <v>6.4</v>
-      </c>
-      <c r="X55" s="9">
-        <f>[6]table1_global_upper!$E$17</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-    </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="9">
-        <f>[7]table1_income_val!E17</f>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C57" s="9">
-        <f>[8]table1_income_lower!E17</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D57" s="9">
-        <f>[9]table1_income_upper!E17</f>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9">
-        <f>[7]table1_income_val!F17</f>
-        <v>0.01</v>
-      </c>
-      <c r="G57" s="9">
-        <f>[8]table1_income_lower!F17</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="9">
-        <f>[9]table1_income_upper!F17</f>
-        <v>0.01</v>
-      </c>
-      <c r="I57" s="10"/>
-      <c r="J57" s="9">
-        <f>[7]table1_income_val!E37</f>
-        <v>15.254</v>
-      </c>
-      <c r="K57" s="9">
-        <f>[8]table1_income_lower!E37</f>
-        <v>9.3409999999999993</v>
-      </c>
-      <c r="L57" s="9">
-        <f>[9]table1_income_upper!E37</f>
-        <v>26.324000000000002</v>
-      </c>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9">
-        <f>[7]table1_income_val!F37</f>
-        <v>7.88</v>
-      </c>
-      <c r="O57" s="9">
-        <f>[8]table1_income_lower!F37</f>
-        <v>5.04</v>
-      </c>
-      <c r="P57" s="9">
-        <f>[9]table1_income_upper!F37</f>
-        <v>12.96</v>
-      </c>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9">
-        <f>[7]table1_income_val!E57</f>
-        <v>16.015999999999998</v>
-      </c>
-      <c r="S57" s="9">
-        <f>[8]table1_income_lower!E57</f>
-        <v>13.749000000000001</v>
-      </c>
-      <c r="T57" s="9">
-        <f>[9]table1_income_upper!E57</f>
-        <v>18.774999999999999</v>
-      </c>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9">
-        <f>[7]table1_income_val!F57</f>
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="W57" s="9">
-        <f>[8]table1_income_lower!F57</f>
-        <v>7.42</v>
-      </c>
-      <c r="X57" s="9">
-        <f>[9]table1_income_upper!F57</f>
-        <v>9.24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="9">
-        <f>[7]table1_income_val!E18</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C58" s="9">
-        <f>[8]table1_income_lower!E18</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D58" s="9">
-        <f>[9]table1_income_upper!E18</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9">
-        <f>[7]table1_income_val!F18</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
-        <f>[8]table1_income_lower!F18</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="9">
-        <f>[9]table1_income_upper!F18</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="10"/>
-      <c r="J58" s="9">
-        <f>[7]table1_income_val!E38</f>
-        <v>20.844999999999999</v>
-      </c>
-      <c r="K58" s="9">
-        <f>[8]table1_income_lower!E38</f>
-        <v>12.568</v>
-      </c>
-      <c r="L58" s="9">
-        <f>[9]table1_income_upper!E38</f>
-        <v>36.801000000000002</v>
-      </c>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9">
-        <f>[7]table1_income_val!F38</f>
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="O58" s="9">
-        <f>[8]table1_income_lower!F38</f>
-        <v>2.86</v>
-      </c>
-      <c r="P58" s="9">
-        <f>[9]table1_income_upper!F38</f>
-        <v>6.4</v>
-      </c>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9">
-        <f>[7]table1_income_val!E58</f>
-        <v>35.033999999999999</v>
-      </c>
-      <c r="S58" s="9">
-        <f>[8]table1_income_lower!E58</f>
-        <v>27.309000000000001</v>
-      </c>
-      <c r="T58" s="9">
-        <f>[9]table1_income_upper!E58</f>
-        <v>44.627000000000002</v>
-      </c>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9">
-        <f>[7]table1_income_val!F58</f>
-        <v>6.95</v>
-      </c>
-      <c r="W58" s="9">
-        <f>[8]table1_income_lower!F58</f>
-        <v>6.21</v>
-      </c>
-      <c r="X58" s="9">
-        <f>[9]table1_income_upper!F58</f>
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="9">
-        <f>[7]table1_income_val!E19</f>
-        <v>2E-3</v>
-      </c>
-      <c r="C59" s="9">
-        <f>[8]table1_income_lower!E19</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D59" s="9">
-        <f>[9]table1_income_upper!E19</f>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9">
-        <f>[7]table1_income_val!F19</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
-        <f>[8]table1_income_lower!F19</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="9">
-        <f>[9]table1_income_upper!F19</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="9">
-        <f>[7]table1_income_val!E39</f>
-        <v>23.02</v>
-      </c>
-      <c r="K59" s="9">
-        <f>[8]table1_income_lower!E39</f>
-        <v>16.033999999999999</v>
-      </c>
-      <c r="L59" s="9">
-        <f>[9]table1_income_upper!E39</f>
-        <v>34.286999999999999</v>
-      </c>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9">
-        <f>[7]table1_income_val!F39</f>
-        <v>3.12</v>
-      </c>
-      <c r="O59" s="9">
-        <f>[8]table1_income_lower!F39</f>
-        <v>2.5</v>
-      </c>
-      <c r="P59" s="9">
-        <f>[9]table1_income_upper!F39</f>
-        <v>4.04</v>
-      </c>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9">
-        <f>[7]table1_income_val!E59</f>
-        <v>50.113999999999997</v>
-      </c>
-      <c r="S59" s="9">
-        <f>[8]table1_income_lower!E59</f>
-        <v>37.941000000000003</v>
-      </c>
-      <c r="T59" s="9">
-        <f>[9]table1_income_upper!E59</f>
-        <v>65.231999999999999</v>
-      </c>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9">
-        <f>[7]table1_income_val!F59</f>
-        <v>6.79</v>
-      </c>
-      <c r="W59" s="9">
-        <f>[8]table1_income_lower!F59</f>
-        <v>5.91</v>
-      </c>
-      <c r="X59" s="9">
-        <f>[9]table1_income_upper!F59</f>
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="9">
-        <f>[7]table1_income_val!E20</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="9">
-        <f>[8]table1_income_lower!E20</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="9">
-        <f>[9]table1_income_upper!E20</f>
-        <v>1E-3</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9">
-        <f>[7]table1_income_val!F20</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="9">
-        <f>[8]table1_income_lower!F20</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="9">
-        <f>[9]table1_income_upper!F20</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="10"/>
-      <c r="J60" s="9">
-        <f>[7]table1_income_val!E40</f>
-        <v>3.2650000000000001</v>
-      </c>
-      <c r="K60" s="9">
-        <f>[8]table1_income_lower!E40</f>
-        <v>2.0249999999999999</v>
-      </c>
-      <c r="L60" s="9">
-        <f>[9]table1_income_upper!E40</f>
-        <v>5.2279999999999998</v>
-      </c>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9">
-        <f>[7]table1_income_val!F40</f>
-        <v>1.36</v>
-      </c>
-      <c r="O60" s="9">
-        <f>[8]table1_income_lower!F40</f>
-        <v>1.01</v>
-      </c>
-      <c r="P60" s="9">
-        <f>[9]table1_income_upper!F40</f>
-        <v>1.82</v>
-      </c>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9">
-        <f>[7]table1_income_val!E60</f>
-        <v>15.673</v>
-      </c>
-      <c r="S60" s="9">
-        <f>[8]table1_income_lower!E60</f>
-        <v>11.384</v>
-      </c>
-      <c r="T60" s="9">
-        <f>[9]table1_income_upper!E60</f>
-        <v>21.544</v>
-      </c>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9">
-        <f>[7]table1_income_val!F60</f>
-        <v>6.53</v>
-      </c>
-      <c r="W60" s="9">
-        <f>[8]table1_income_lower!F60</f>
-        <v>5.66</v>
-      </c>
-      <c r="X60" s="9">
-        <f>[9]table1_income_upper!F60</f>
-        <v>7.49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-    </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f t="shared" ref="A62:A67" si="2">A45</f>
-        <v>African Region</v>
-      </c>
-      <c r="B62" s="9">
-        <f>Sheet1!$E23</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C62" s="9">
-        <f>Sheet2!$E23</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="9">
-        <f>Sheet3!$E23</f>
-        <v>2E-3</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10">
-        <f>Sheet1!$F23</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="10">
-        <f>Sheet2!$F23</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="10">
-        <f>Sheet3!$F23</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="10"/>
-      <c r="J62" s="9">
-        <f>Sheet1!$E79</f>
-        <v>5.43</v>
-      </c>
-      <c r="K62" s="9">
-        <f>Sheet2!$E79</f>
-        <v>3.4390000000000001</v>
-      </c>
-      <c r="L62" s="9">
-        <f>Sheet3!$E79</f>
-        <v>8.7080000000000002</v>
-      </c>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9">
-        <f>Sheet1!$F79</f>
-        <v>1.34</v>
-      </c>
-      <c r="O62" s="9">
-        <f>Sheet2!$F79</f>
-        <v>1</v>
-      </c>
-      <c r="P62" s="9">
-        <f>Sheet3!$F79</f>
-        <v>1.81</v>
-      </c>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9">
-        <f>Sheet1!$E51</f>
-        <v>23.831</v>
-      </c>
-      <c r="S62" s="9">
-        <f>Sheet2!$E51</f>
-        <v>17.759</v>
-      </c>
-      <c r="T62" s="9">
-        <f>Sheet3!$E51</f>
-        <v>32.100999999999999</v>
-      </c>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9">
-        <f>Sheet1!$F51</f>
-        <v>5.86</v>
-      </c>
-      <c r="W62" s="9">
-        <f>Sheet2!$F51</f>
-        <v>5.14</v>
-      </c>
-      <c r="X62" s="9">
-        <f>Sheet3!$F51</f>
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f t="shared" si="2"/>
-        <v>Eastern Mediterranean Region</v>
-      </c>
-      <c r="B63" s="9">
-        <f>Sheet1!$E24</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="9">
-        <f>Sheet2!$E24</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="9">
-        <f>Sheet3!$E24</f>
-        <v>1E-3</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10">
-        <f>Sheet1!$F24</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="10">
-        <f>Sheet2!$F24</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="10">
-        <f>Sheet3!$F24</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="9">
-        <f>Sheet1!$E80</f>
-        <v>3.6920000000000002</v>
-      </c>
-      <c r="K63" s="9">
-        <f>Sheet2!$E80</f>
-        <v>2.1110000000000002</v>
-      </c>
-      <c r="L63" s="9">
-        <f>Sheet3!$E80</f>
-        <v>6.3250000000000002</v>
-      </c>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9">
-        <f>Sheet1!$F80</f>
-        <v>2.17</v>
-      </c>
-      <c r="O63" s="9">
-        <f>Sheet2!$F80</f>
-        <v>1.46</v>
-      </c>
-      <c r="P63" s="9">
-        <f>Sheet3!$F80</f>
-        <v>3.17</v>
-      </c>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9">
-        <f>Sheet1!$E52</f>
-        <v>13.151999999999999</v>
-      </c>
-      <c r="S63" s="9">
-        <f>Sheet2!$E52</f>
-        <v>9.6980000000000004</v>
-      </c>
-      <c r="T63" s="9">
-        <f>Sheet3!$E52</f>
-        <v>17.603000000000002</v>
-      </c>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9">
-        <f>Sheet1!$F52</f>
-        <v>7.73</v>
-      </c>
-      <c r="W63" s="9">
-        <f>Sheet2!$F52</f>
-        <v>6.7</v>
-      </c>
-      <c r="X63" s="9">
-        <f>Sheet3!$F52</f>
-        <v>8.81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
-        <f t="shared" si="2"/>
-        <v>European Region</v>
-      </c>
-      <c r="B64" s="9">
-        <f>Sheet1!$E25</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C64" s="9">
-        <f>Sheet2!$E25</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D64" s="9">
-        <f>Sheet3!$E25</f>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="10">
-        <f>Sheet1!$F25</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="10">
-        <f>Sheet2!$F25</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="10">
-        <f>Sheet3!$F25</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="10"/>
-      <c r="J64" s="9">
-        <f>Sheet1!$E81</f>
-        <v>11.420999999999999</v>
-      </c>
-      <c r="K64" s="9">
-        <f>Sheet2!$E81</f>
-        <v>7.1970000000000001</v>
-      </c>
-      <c r="L64" s="9">
-        <f>Sheet3!$E81</f>
-        <v>19.596</v>
-      </c>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9">
-        <f>Sheet1!$F81</f>
-        <v>6.28</v>
-      </c>
-      <c r="O64" s="9">
-        <f>Sheet2!$F81</f>
-        <v>4.37</v>
-      </c>
-      <c r="P64" s="9">
-        <f>Sheet3!$F81</f>
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9">
-        <f>Sheet1!$E53</f>
-        <v>13.634</v>
-      </c>
-      <c r="S64" s="9">
-        <f>Sheet2!$E53</f>
-        <v>11.066000000000001</v>
-      </c>
-      <c r="T64" s="9">
-        <f>Sheet3!$E53</f>
-        <v>16.853999999999999</v>
-      </c>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9">
-        <f>Sheet1!$F53</f>
-        <v>7.5</v>
-      </c>
-      <c r="W64" s="9">
-        <f>Sheet2!$F53</f>
-        <v>6.72</v>
-      </c>
-      <c r="X64" s="9">
-        <f>Sheet3!$F53</f>
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
-        <f t="shared" si="2"/>
-        <v>Region of the Americas</v>
-      </c>
-      <c r="B65" s="9">
-        <f>Sheet1!$E27</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C65" s="9">
-        <f>Sheet2!$E27</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D65" s="9">
-        <f>Sheet3!$E27</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="10">
-        <f>Sheet1!$F27</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="10">
-        <f>Sheet2!$F27</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="10">
-        <f>Sheet3!$F27</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="9">
-        <f>Sheet1!$E83</f>
-        <v>8.9320000000000004</v>
-      </c>
-      <c r="K65" s="9">
-        <f>Sheet2!$E83</f>
-        <v>5.8150000000000004</v>
-      </c>
-      <c r="L65" s="9">
-        <f>Sheet3!$E83</f>
-        <v>14.724</v>
-      </c>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9">
-        <f>Sheet1!$F83</f>
-        <v>5.12</v>
-      </c>
-      <c r="O65" s="9">
-        <f>Sheet2!$F83</f>
-        <v>3.61</v>
-      </c>
-      <c r="P65" s="9">
-        <f>Sheet3!$F83</f>
-        <v>7.75</v>
-      </c>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9">
-        <f>Sheet1!$E55</f>
-        <v>14.987</v>
-      </c>
-      <c r="S65" s="9">
-        <f>Sheet2!$E55</f>
-        <v>12.456</v>
-      </c>
-      <c r="T65" s="9">
-        <f>Sheet3!$E55</f>
-        <v>18.228000000000002</v>
-      </c>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9">
-        <f>Sheet1!$F55</f>
-        <v>8.59</v>
-      </c>
-      <c r="W65" s="9">
-        <f>Sheet2!$F55</f>
-        <v>7.74</v>
-      </c>
-      <c r="X65" s="9">
-        <f>Sheet3!$F55</f>
-        <v>9.59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
-        <f t="shared" si="2"/>
-        <v>South-East Asia Region</v>
-      </c>
-      <c r="B66" s="9">
-        <f>Sheet1!$E28</f>
-        <v>2E-3</v>
-      </c>
-      <c r="C66" s="9">
-        <f>Sheet2!$E28</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D66" s="9">
-        <f>Sheet3!$E28</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10">
-        <f>Sheet1!$F28</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="10">
-        <f>Sheet2!$F28</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="10">
-        <f>Sheet3!$F28</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="10"/>
-      <c r="J66" s="9">
-        <f>Sheet1!$E84</f>
-        <v>17.372</v>
-      </c>
-      <c r="K66" s="9">
-        <f>Sheet2!$E84</f>
-        <v>12.506</v>
-      </c>
-      <c r="L66" s="9">
-        <f>Sheet3!$E84</f>
-        <v>25.102</v>
-      </c>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9">
-        <f>Sheet1!$F84</f>
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="O66" s="9">
-        <f>Sheet2!$F84</f>
-        <v>3.3</v>
-      </c>
-      <c r="P66" s="9">
-        <f>Sheet3!$F84</f>
-        <v>5.19</v>
-      </c>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9">
-        <f>Sheet1!$E56</f>
-        <v>31.099</v>
-      </c>
-      <c r="S66" s="9">
-        <f>Sheet2!$E56</f>
-        <v>23.806999999999999</v>
-      </c>
-      <c r="T66" s="9">
-        <f>Sheet3!$E56</f>
-        <v>39.814999999999998</v>
-      </c>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9">
-        <f>Sheet1!$F56</f>
-        <v>7.26</v>
-      </c>
-      <c r="W66" s="9">
-        <f>Sheet2!$F56</f>
-        <v>6.29</v>
-      </c>
-      <c r="X66" s="9">
-        <f>Sheet3!$F56</f>
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f t="shared" si="2"/>
-        <v>Western Pacific Region</v>
-      </c>
-      <c r="B67" s="9">
-        <f>Sheet1!$E29</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C67" s="9">
-        <f>Sheet2!$E29</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D67" s="9">
-        <f>Sheet3!$E29</f>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10">
-        <f>Sheet1!$F29</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="10">
-        <f>Sheet2!$F29</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="10">
-        <f>Sheet3!$F29</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="10"/>
-      <c r="J67" s="9">
+      <c r="B75" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="28"/>
+      <c r="J75" s="26">
         <f>Sheet1!$E85</f>
         <v>15.24</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K75" s="26">
         <f>Sheet2!$E85</f>
         <v>8.7219999999999995</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L75" s="26">
         <f>Sheet3!$E85</f>
         <v>27.666</v>
       </c>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9">
+      <c r="M75" s="26"/>
+      <c r="N75" s="26">
         <f>Sheet1!$F85</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="O67" s="9">
+      <c r="O75" s="26">
         <f>Sheet2!$F85</f>
         <v>3.22</v>
       </c>
-      <c r="P67" s="9">
+      <c r="P75" s="26">
         <f>Sheet3!$F85</f>
         <v>7.83</v>
       </c>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9">
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26">
         <f>Sheet1!$E57</f>
         <v>19.901</v>
       </c>
-      <c r="S67" s="9">
+      <c r="S75" s="26">
         <f>Sheet2!$E57</f>
         <v>15.436999999999999</v>
       </c>
-      <c r="T67" s="9">
+      <c r="T75" s="26">
         <f>Sheet3!$E57</f>
         <v>25.236999999999998</v>
       </c>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9">
+      <c r="U75" s="26"/>
+      <c r="V75" s="26">
         <f>Sheet1!$F57</f>
         <v>6.4</v>
       </c>
-      <c r="W67" s="9">
+      <c r="W75" s="26">
         <f>Sheet2!$F57</f>
         <v>5.7</v>
       </c>
-      <c r="X67" s="9">
+      <c r="X75" s="26">
         <f>Sheet3!$F57</f>
         <v>7.14</v>
       </c>
     </row>
+    <row r="76" spans="1:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="R52:X52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:P35"/>
-    <mergeCell ref="R35:X35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="V19:X19"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="J1:P1"/>
@@ -18199,10 +18523,37 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="R20:X20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="R39:X39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="R58:X58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="V59:X59"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18210,7 +18561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6032342-9069-442B-9B47-D42BBBD0874A}">
   <dimension ref="A2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -18222,230 +18573,230 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="14" t="str">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="str">
         <f>[10]table2_lower!B2</f>
         <v>Original GBD method</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="14" t="str">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="str">
         <f>[10]table2_lower!C2</f>
         <v>Original GBD method</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="14" t="str">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="4" t="str">
         <f>[10]table2_lower!D2</f>
         <v>Original GBD method</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <f>[11]table2!B3</f>
         <v>0.13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <f>[10]table2_lower!C3</f>
         <v>0.09</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <f>[12]table2_upper!$B3</f>
         <v>0.16</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <f>[11]table2!C3</f>
         <v>0.3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <f>[10]table2_lower!G3</f>
         <v>0.16</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <f>[12]table2_upper!$C3</f>
         <v>0.47</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
         <f>[11]table2!D3</f>
         <v>0.36</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <f>[10]table2_lower!K3</f>
         <v>0.21</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="2">
         <f>[12]table2_upper!$D3</f>
         <v>0.52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <f>[11]table2!B4</f>
         <v>0.63</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <f>[10]table2_lower!C4</f>
         <v>0.46</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <f>[12]table2_upper!$B4</f>
         <v>0.82</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <f>[11]table2!C4</f>
         <v>1.5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <f>[10]table2_lower!G4</f>
         <v>0.79</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <f>[12]table2_upper!$C4</f>
         <v>2.34</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
         <f>[11]table2!D4</f>
         <v>1.79</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <f>[10]table2_lower!K4</f>
         <v>1.06</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="2">
         <f>[12]table2_upper!$D4</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <f>[11]table2!B5</f>
         <v>1.42</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <f>[10]table2_lower!C5</f>
         <v>1.06</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <f>[12]table2_upper!$B5</f>
         <v>1.85</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <f>[11]table2!C5</f>
         <v>3.41</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <f>[10]table2_lower!G5</f>
         <v>1.8</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <f>[12]table2_upper!$C5</f>
         <v>5.32</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
         <f>[11]table2!D5</f>
         <v>4.07</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <f>[10]table2_lower!K5</f>
         <v>2.41</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <f>[12]table2_upper!$D5</f>
         <v>5.91</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <f>[11]table2!B6</f>
         <v>4.2699999999999996</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <f>[10]table2_lower!C6</f>
         <v>3.17</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <f>[12]table2_upper!$B6</f>
         <v>5.55</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <f>[11]table2!C6</f>
         <v>10.24</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <f>[10]table2_lower!G6</f>
         <v>5.4</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <f>[12]table2_upper!$C6</f>
         <v>15.95</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
         <f>[11]table2!D6</f>
         <v>12.2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="2">
         <f>[10]table2_lower!K6</f>
         <v>7.23</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="2">
         <f>[12]table2_upper!$D6</f>
         <v>17.73</v>
       </c>
